--- a/output/Total_time_range_data/江西省/宜春市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/宜春市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2270 +436,2485 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>126</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>年宜春市人民政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/gkndbg/202402/725a08dab9114b4c88912e3f328b526e.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['2023年，宜春市坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记考察江西重要讲话精神，全面落实国家、省关于深化政务公开工作的系列决策部署，聚焦“走在前、勇争先、善作为”目标要求和高质量发展首要任务，紧紧围绕市委、市政府中心工作，强化重点领域信息公开，不断增强基层政务公开针对性、实效性，提升政策解读质效，切实发挥以公开促落实、强监管、优服务的职能作用，以高质量的政务公开助力宜春高质量发展。', '（一）主动公开。持续加大政府信息公开力度，及时发布各类政府信息。全年市本级政府网站公开政府信息3.3万余条、信息公开平台公开信息1.2万余条、发布政策性文件61件。一是深化重点工作信息主动公开。围绕推进重点产业、恢复和扩大消费、乡村振兴等重大决策部署，及时依法公开相关产业规划、政策措施和建设进展信息120余条。大力推进财政资金直达基层，统筹做好直达资金和专项资金联动公开工作。做好人大代表建议和政协提案办理结果公开，全年在市政府网站公开建议提案答复情况136件。2023年，全市行政许可、行政处罚、行政强制决定数量分别为289745宗、466061宗和5919宗，行政事业性收费总金额约12.86亿元。二是加强重点民生领域信息公开。围绕保障和改善民生重大部署和重点工作，及时公开相关政策措施、执行情况和工作成效。市本级网站共发布信息7641条，信息公开平台公开信息2422条。其中，三大攻坚战400余条，社会公益事业400余条，公共资源配置200余条，重大项目建设120余条。通过政府网站、政务新媒体等渠道及时、规范、集中公开稳岗扩岗、减税降费以及纾困帮扶企业信息40余条，精准公开促进就业创业的政策措施、就业供求信息30余条，及时公开义务教育招生政策、公办学校划片范围、民办学校招生计划等信息100余条。三是强化政策解读质效。坚持解读材料与政策性文件同步起草、同步审签、联动公开，让群众对各类政策文件“看得到、听得懂、易获取”，有效促进政策落地落实。聚焦宜春市“十四五”规划主题，邀请市直部门及县（市、区）主要负责人开展相关在线访谈专项解读13期。聚焦与企业、群众联系最密切的重点领域和办件量最多的高频事项，在市政府微信公众号设立“宜系列 点点看”专栏，集中发布H5系列政策解读和办事服务指南37期。持续开展全市政府系统优秀政策解读材料评选活动，鼓励引导各地各部门综合运用图文图表、视频动漫、H5、在线访谈等形式，全面推行重大政策的深层次解读。2023年，累计开展各类政策解读1100余次，重点政策文件解读率和解读关联率均达100%，多元化政策解读比例不少于50%。四是着力拓宽政民互动渠道。精心组织开展全市政府系统固定开放月活动，着力打造政府开放活动“升级版”，全年市县乡三级联动开展政府开放活动693场，吸引2万余名市民参加。积极稳妥回应社会关切，畅通政府信息公开咨询电话、领导信箱、网上留言和行政服务大厅咨询服务窗口等互动渠道。2023年，收到12345“市长信箱”信件55.36万件、“我为政府网站找错”平台网民留言24条；围绕民生实事项目、国土空间规划、新农村建设、道路提升改造、土地征收等开展民意征集调查41期，收到意见82条；开展“你建言我来办”活动28期，帮助解决了一批群众关心的热点难点问题。建立政务舆情日报工作机制，发布舆情监测日报365期，下发舆情转办单18个，未发生重大网络舆情事件。五是推进基层政务公开示范创建。樟树市、靖安县获评全省首批基层政务公开标准规范县（市、区），奉新县赤岸镇等12个乡镇（街道）获评全省基层政务公开标准规范乡镇（街道）。积极引导各地开展第二批基层政务公开标准化规范化县（市、区）和乡镇（街道）示范创建工作，不断提升基层政务公开的整体水平。同时，依托市县乡三级便民服务中心、新时代文明实践中心、综治中心等场所，高标准打造政务公开专区，着力延伸和拓展政务公开专区功能，着眼政务公开与政务服务深度融合，探索推进掌上政务公开专区建设，打造线上线下联动、层级全方位的基层政务公开体系。', '（二）依申请公开。注重完善工作机制，依法依规做好全市政府信息依申请公开工作，规范使用全市政府信息依申请公开系统，实现登记、审核、办理、答复、归档全流程电子化。2023年，全市各级行政机关共办结依申请公开件647件，同比降低8.49%；上年度转结1件，结转下年度办理6件，其中办结自然人申请件616件，法人或其他组织申请件31件。主要集中在城建、征地、行政执法、教育、医疗等涉及群众切身利益的领域，充分体现了群众对政府信息公开有了更高的要求和期待。予以公开及部分公开406件，占62.75%；不予公开19件，占2.94%；因本机关不掌握相关政府信息等原因无法提供205件，占31.68%；不予处理10件，占1.55%；其他处理7件，占1.08%。信息公开类行政复议6起，行政诉讼3起。', '（三）政府信息管理。加强和规范政府信息管理，严格落实信息发布主体责任和“三审三校”“先审后发”机制，严把政治关、法律关、政策关、保密关和文字关。持续对全市54家政府网站和140家政务新媒体开展日常监测、季度检查和年度考评。常态化开展“结对子 找错误”活动，监测政务新媒体账号6200余次，及时发现问题并督促整改，相关情况纳入全市政务公开年度考核。加强行政规范性文件库建设，明确标注规范性文件有效性，实现集中统一公开并动态更新调整，定期清理已经修改、失效、废止的文件，进一步提高规范性文件公开质量和搜索功能准确性。2023年，全市新制发行政规范性文件96件、废止753件，现行有效规章8件、行政规范性文件1407件。', '（五）监督保障。下发了2023年宜春市政务公开工作要点，明确重点任务和责任分工，市政府第54次常务会议专题听取2023年全市政务公开工作情况汇报，并就深入推进政务公开工作提出明确要求。充分发挥考核指挥棒作用，将政务公开工作纳入市直部门绩效考核和县（市、区）综合考核内容，细化考核指标评分标准，建立健全日监测、周调度、月分析、季通报机制，并结合实地督导、蹲点调研等方式，引导各地各部门对标对表找差距促提升，全年共开展线上线下专项督查22次，通过“政府开放月”、调查问卷等形式开展了社会评议，全年未发生政府信息公开追责情况。加强队伍建设和业务培训，2023年上半年组织各地政务公开工作相关负责人专程赴九江市考察学习；全年组织开展线上线下政务公开业务培训41次，市级层面组织召开学习交流推进会2次，培训范围覆盖各县（市、区）政府、市政府各部门工作人员超过3000人，进一步提升了全市政务公开工作业务水平。', '2023年，我市政务公开工作取得了一定成效，但仍存在一些问题和不足。主要表现为：高质量推进政务公开工作有待进一步提升，以公开促落实、促服务的功效仍需进一步扩大；政策解读质效有待进一步提高，涉企惠企和便民利民政策的到达率、知晓率仍有提升空间；政务公开队伍建设还需进一步加强。', '下一步，我市将按照国家、省政务公开工作有关部署要求，积极履行政府信息公开职能，推动全市政务公开工作再上新台阶。一是持续打造政务公开品牌。聚焦重大战略部署落实、优化营商环境、财政信息、重点民生领域信息等，及时总结宣传本地政务公开工作经验做法，全力打造“政务速递”“宜系列 点点看”等政务公开特色品牌。积极推进全省第二批基层政务公开标准化规范化县、乡建设，力争打造更多宜春特色亮点。二是持续加大政策解读力度。督促指导市直部门做好结对联建和对标提升有关工作，主动聚焦群众关心关切，结合自身职能，全面加强重点领域信息主动公开、精准公开。继续组织开展全市政府系统优秀政策解读评选活动，引导带动常态化、多样化解读，让政策更加易懂好用。三是持续强化专业队伍建设。综合运用线上线下多种方式，分级分类抓好政务公开业务知识和工作技能培训，持续提升实战化能力和专业化水平，有效汇聚政务公开工作整体合力。', '按照《国务院办公厅关于印发〈政府信息公开信息处理费管理办法〉的通知》（国办函〔2020〕109号）规定的按件、按量收费标准，本年度没有产生信息公开处理费。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>126</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市财政局赴深圳市财政局开展对标学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202405/687ee65dc8a64ff08fbea30b31bc8b05.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为全面对标对表粤港澳大湾区，全力打造我市市场化、法治化、国际化政府采购营商环境，5月16日，宜春市财政局二级调研员幸更新率队赴深圳市财政局学习考察优化政府采购营商环境经验做法。', '座谈会上，深圳市财政局政府采购监督管理办公室围绕优化政府采购营商环境、政府采购电子化建设、创新政府采购行政裁决机制等方面介绍了近年来深圳市政府采购监管工作的改革做法与成效；期间，宜春市财政局政府采购监管人员结合实际工作中遇到的问题与深圳市财政局进行了深入探讨与交流。', '幸更新表示，全市各级财政部门将积极对标学习，充分吸收借鉴，全面提升思想境界、目标定位、工作标准，将考察学习中可复制、可操作的先进理念和经验做法与我市政府采购监管工作实际相结合，持续深化我市政府采购制度改革，推进政府采购营商环境再优化。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>126</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>城市生活垃圾分类苏州大会唱响宜春垃分新时尚</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/csljflcz/202403/a2b8b5f6c5f1417cac42d43c5871d5b7.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['近日，以“城市生活垃圾分类与处理及资源化利用”为主题的“2024城市生活垃圾分类大会”在江苏省苏州市举办。来自全国各地垃圾分类管理部门，各省环卫协会、学会相关负责人以及行业专家学者、企业代表近3000人聚集一堂，围绕行业热点难点问题展开交流。', '宜春市综合行政执法局垃圾分类管理中心受邀出席大会，深度参与探讨和交流关于垃圾分类工作的模式，并与上海市、苏州市、宁波市等地一同分享了各自在垃圾分类工作中积累的宝贵经验。宜春市代表以“新时尚背景下宜春市生活垃圾分类实践”为主题，全面介绍了宜春市生活垃圾分类和减量工作开展六年以来立足构建“北斗七星”体系并取得了良好成效。即通过构建“组织体系”“队伍体系”“宣教体系”等七个体系，积极践行绿色发展理念，全力打造垃圾分类宜春样板。', '“宜春经验”得到了参会人员的高度评价和充分肯定，纷纷表示垃圾分类“宜春样板”可复制、可推广，希望前往实地考察学习。', '据悉，作为全国生活垃圾分类和减量试点工作的“先行者”，自2017年开始，宜春市积极践行“共建共治共享”理念，从区域试点到全域示范，把生活垃圾分类和减量工作作为民生工程和城市品牌来打造。多年来，宜春市紧盯“争全国一流、创宜春样板”目标，按照“巩固、增强、提升”工作思路，努力在完善制度、源头减量、前端投放、中段收运、末端处理补短板、求突破。目前，中心城区累计投入资金13亿元，宜春中心城区4个示范片区81条生活垃圾分类收运线路常态化运行，覆盖13个街（镇）22.23万户62万人口，市民知晓率达98%以上，参与率、投放准确率保持在93%以上，群众满意率达到99%以上，生活垃圾回收利用率达38%以上，资源化利用率达85%以上。各县（市）在巩固前期垃圾分类工作成果的基础上，不断完善前端基础建设、强化中端收运网络、提升末端处置水平。各县（市）居民小区垃圾分类收集配置较为完善，实现90%覆盖；居民分类意识逐步养成，分类投放准确率达80%以上。连续三年获得江西省生活垃圾分类工作第一名，在住建部全国地级及以上城市生活垃圾分类工作考核中，稳居全国第一梯队前五名。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>126</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>宜春市供销合作社联合社年工作总结和年工作打算</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzbg/202401/5640ab4f9b28457a873ff401ef972e6e.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['今年以来，在市委、市政府的坚强领导下和省供销联社的精心指导下，宜春市供销联社全面贯彻落实党的二十大精神和扎实开展第二批主题教育，认真贯彻落实省委十五届四次全会 和市委五届四次全会精神，立足服务“三农”主责主业，持续深化供销合作社综合改革，凝心聚力谋发展，齐心协力抓落实，较好地完成了各项目标任务，取得了一定成效。现将具体情况报告如下：', '今年以来，在市委、市政府的坚强领导下和省供销联社的精心指导下，宜春市供销联社全面贯彻落实党的二十大精神和扎实开展第二批主题教育，认真贯彻落实省委十五届四次全会', '“三农”主责主业，持续深化供销合作社综合改革，凝心聚力谋发展，齐心协力抓落实，较好地完成了各项目标任务，取得了一定成效。现将具体情况报告如下：', '通过召开警示教育大会、上廉政党课、在重要时间节点开展节前廉政教育等方式，强化廉洁自律意识，筑牢廉政建设思想道德防线', '“三比三争”活动为契机，采取“三考两评”的方式破除干部“躺平”思想，提升斗争本领和专业素养', '个县级社的主任分别赴赣州市供销联社、湖南省岳阳市供销联社考察学习。两次学习考察为持续深化供销合作社综合改革、加快全市供销工作高质量发展、不断提升全市供销合作发展水平提供了新方法、新思路。', '深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育。牢牢把握主题教育的总要求、目标任务、', '从习近平新时代中国特色社会主义思想中找方向、找方法、找思路、找遵循，努力将主题教育成果转化为推动供销合作事业高质量发展的强大动力。', '着力推动试点工作。持续抓好高安为农服务综合体试点建设，以高安市委、市政府下文出台《高安市整县推进乡镇为农服务综合体建设并试行基层供销社合作社建设试点工作实施方案》推动试点工作。', '项目总投资1.2亿元，目前已完成投资近2000万元，并在石市镇、芳溪镇租赁流转农田8400余亩，建立供销“赣鄱香”大米基地', '”建设模式，依托所属社有企业、基层供销社、专业合作社等农业经营主体，布局建设全市供销农事服务网络。目前，', '充分发挥农资流通主渠道作用。市、县两级供销合作社成立农资保供专班，积极与厂家开展产销对接，确保农资供应量足价稳质优。其中樟树市供销社开展', '“宜合宜品∙连农助农”为主题，举办为期两天的合作社特色农副产品产销对接会。汇集供销系统和脱贫村龙头企业、农民专业合作社', '月，市供销联社第一届理事会第二次全体（扩大）会议暨第一届监事会第二次全体会议顺利召开，进一步完善了联合社治理机制。', '召开社员代表大会，选举产生了新一届理事会、监事会，密切了供销社与农民的利益联结，完善了全市供销系统', '扎实开展内部审计、监督检查、调查研究、队伍建设等工作，发挥提建议、强监督、促落实作用，不断提升全市供销系统监事', '，主要表现在各县市基层社建设发展不平衡，上下联动较少，利益联结不紧密，为农服务能力有待进一步提升；社有企业经营机制不活，管理不够规范，实力薄弱，没有到龙头带动作用；供销', '年，市供销联社将认真学习贯彻落实党的二十大精神以及习近平总书记考察江西重要讲话精神，紧紧围绕推进农业农村现代化和建设农业强国的要求，不断完善为农服务体系，提升为农服务水平，推', '“互联网+第四方物流”供销集配体系建设挂点联系、调度、督查、考核联动工作机制，做到市里有考核、县里有规划、乡镇有支持，', '以上。调度督促各地加快冷链物流项目建设运营，努力加快冷链物流骨干网体系建设。推动冷链物流与现代农业、农产品加工、商贸流通融', '强做优基层社和社有企业，推动全市系统做好中央财政支持供销合作社开展农业社会化服务试点项目储备工作，努力实现项目县全覆盖；把农事服务中心建设与加强基层组织体系建设有机结合起来', '“背起使命 篓实作风”党建品牌，积极探索完善党建和业务“同部署、同考核”的双向影响的工作机制，不断激发党组织的战斗堡垒作用和党员的先锋模范作用，引导广大党员在供销合作事业中建功立业。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>126</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>学习拓展思路取经促进提升宜春市残联组织赴江苏学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202404/83de8bec7a834a7ca6083a8d508eb4fc.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全市“大抓项目狠抓落实”活动精神，开阔视野，更新观念，推动宜春残疾人工作实现新突破，4月15日-20日，宜春市残联副理事长任红生带领机关及部分县市区残联负责人到江苏省残联和部分地市学习“取经”，考察学习残疾儿童康复机构建设管理和“自助互助”康复等有关工作。', '考察组一行进企业、看机构、入社区，先后学习考察了江苏省残疾人辅助器具服务中心、常州市钱璟康复股份有限公司、沣航儿童学习能力训练与康复中心和新北区春江街道残疾人之家等机构单位，全方位了解学习了江苏各地市的残疾人康复、辅具适配和村（社区）残协建设等方向的经验做法，并与部分地市残联和机构召开了两场座谈会，交流分享了工作经验、探讨新形势下一步做好残疾人工作的新路径、新方法，形成了共识，取得了积极成效。', '通过本次考察学习，让大家开阔了视野，拓宽了工作思路，学到了好的做法和先进经验。下一步，宜春市残联将紧紧围绕重点工作，把学来的好经验、好做法积极消化融合，形成适合我市残疾人工作发展的新路径、新模式，全方位提升管理服务残疾人的能力和质效，以实际行动助力残疾人关爱保障服务体系走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>126</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>政协宜春市第五届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zwyw/202401/7cc3c7bde3a8451bb0d105fdd3d08e72.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['受政协宜春市第五届委员会常务委员会的委托，我向大会报告工作，请各位委员审议，请列席会议的同志提出意见。', '2023年是全面贯彻中共二十大精神的开局之年。市政协常委会在中共宜春市委的坚强领导下，坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记关于加强和改进人民政协工作的重要思想，认真学习贯彻习近平总书记考察江西重要讲话精神，牢牢把握人民政协的性质定位，贯彻落实中共宜春市委五届三次、四次全会决策部署，以党建强引领、以协商谋共识、以团结聚合力、以实干显担当，在全过程人民民主的实践中探索前进，为加快高质量发展、建设区域中心城市贡献了政协力量。', '全面深入学习习近平新时代中国特色社会主义思想，做好深化、内化、转化工作，团结引导广大政协委员和界别群众增进对中国共产党和中国特色社会主义的政治认同、思想认同、理论认同、情感认同，以实际行动拥护“两个确立”、做到“两个维护”。', '从严从实开展学习贯彻习近平新时代中国特色社会主义思想主题教育。牢牢把握“学思想、强党性、重实践、建新功”的总要求，发挥市政协委员联合党委、习近平新时代中国特色社会主义思想学习座谈小组等作用，示范带领委员同步学习、同步整改、同步实践。做到学习在先，与第一批同步开展学习，在第二批持续深化学习，探索推进习近平新时代中国特色社会主义思想培训基地、研究基地、实践基地等学习平台建设；做到调研求深，组织319名委员围绕市委统一部署，确定了14个主课题、24个子课题开展调研，形成“推动我市油茶产业发展”等38个调研成果；做到干事务实，建立落实“三个实实在在”重要要求和学习推广“四下基层”的工作制度，组织委员开展送医下乡、法律咨询等为民服务522人次；做到整改从严，市政协党组对照查找的6个问题，均已完成整改销号，建立5项制度。', '认真学习贯彻习近平总书记考察江西重要讲话精神。通过市政协常委会、市县政协主席座谈会等多种形式，组织委员、干部开展专题辅导、学习交流22次，深刻领会丰富内涵、精神实质和实践要求。制定《学习贯彻习近平总书记考察江西重要讲话精神工作安排》。对照“构建现代化产业体系”要求，深化专精特新“小巨人”企业上市对口协商；围绕“深化对内对外开放”，聚焦打造国家级现代流通战略支点城市，开展铁路货运市场改造升级专题调研，推动现代流通业发展；为进一步解放思想、改进工作，赴浙江省杭州市、宁波市考察学习政协全会提案工作，探索推动市县政协全会提案试点工作。切实把习近平总书记考察江西重要讲话精神转化为政协工作的生动实践。', '持续开展市政协委员宣讲工作。主席会议成员带头、市政协委员宣讲团成员主讲、广大委员积极参与，先后围绕学习贯彻中共二十大精神和习近平总书记考察江西重要讲话精神、中共江西省委十五届四次全会和中共宜春市委五届四次全会精神等，深入基层一线开展对象化、分众化宣讲37次。比如，面向企业侧重讲“构建现代化产业体系”，面向村组侧重讲“全面推进乡村振兴”，面向社区侧重讲“扎实推进共同富裕”等，努力让各界群众听得懂、能理解、有共鸣，用党的奋斗目标和宜春的生动实践鼓舞人、激励人、感召人。江西新闻联播2次报道我市的做法。', '深入学习习近平总书记关于调查研究的重要论述，坚持“调查不深不协商，研究不透不议政”，加强和改进调查研究工作，助推全市经济社会高质量发展。', '围绕贯彻重要决策部署献计出力。2023年是三年新冠疫情防控转段后经济恢复发展的一年，习近平总书记强调，“要把恢复和扩大消费摆在优先位置”，常委会围绕“加快文旅消费全面恢复和提质升级”开展专题协商，提出“升级乡村旅游新模式”等7条意见建议，推动文旅消费场景焕新。组织省、市政协委员围绕“打造特色鲜明的地域文化IP，推进明月山文旅融合发展”主题，开展集中视察活动，提出了“做足‘最美赏月地’文章”等10条意见建议，得到市委书记严允充分肯定。习近平总书记指出，“粮食生产根本在耕地，命脉在水利”，常委会紧扣“农田水利设施建设与管护”开展专题调研，有针对性地提出5个方面问题和10点对策建议。', '围绕推动高质量发展深入协商。贯彻落实习近平总书记关于“做优做强做大中医药产业”的重要要求。我们和樟树市政协一起配合省政协，联动开展“助推湘赣粤港澳中医药产业协同发展”协商调研，协商成果获全国政协副主席梁振英、省政协主席批示肯定，为湘赣粤港澳中医药产业协同发展联席会议暨全产业链联盟会议成功召开凝聚了共识、奠定了基础，推动五省区中医药产业联盟由“理念协同”迈向“行动协同”。同期召开的第54届药交会签约项目16个、签约金额68.62亿元。聚焦我市首位产业，依托“锂城讲理”工作品牌，联合省政协开展“促进锂电新能源产业健康有序发展”专题协商，并协助做好“回头看”调研。', '围绕增进民生福祉积极建言。习近平总书记在中共二十大报告中指出，要“推动实现全体老年人享有基本养老服务”。我们聚焦高质量推进基本养老服务体系建设开展专题调研，提出了“深化公办养老机构改革”等6方面建议。就业工作始终是习近平总书记心系的最大民生工程。我们围绕全市职业教育产教融合开展专题调研，深挖“我市职业院校毕业生在本地就业率低”根源，针对“职业院校专业设置与重点产业对接度不高”等问题，提出“动态设置职业院校专业”等12条针对性建议。', '习近平总书记强调，要完善人民政协民主监督制度机制。我们把民主监督的着力点放在帮助部门改进工作上，取得了较好的效果。', '对难点工作实行蹲点监督。改变过去对部门工作全面监督的做法，选择被监督部门最难的一项工作开展深度监督，与被监督部门一起调研、一起协商、一起改进。农贸市场管理是创建全国文明城市中的难点工作。市区政协联动向中心城区4家农贸市场委派60名民主监督员，确保每个市场每天有一名委员蹲点跟班监督。发现问题，立即与商户、运营管理单位、商务局及相关执法部门、社区、街道、创文网格单位甚至顾客、居民协商整改。现场整改不了的问题，召开专题协商会，分析原因、谋求共识、厘清责任、促进共为。专题协商解决不了的问题，协商形成共识后向市委、市政府提出工作建议。一年来，开展现场协商整改近400人次，向运营方、管理部门、属地街道反馈问题100余个，召开协商会10余次，推动解决了“凤凰市场斜坡开裂存在倒塌隐患”“老地委临时农贸市场公共区域卫生脏乱”等问题。', '对重点工作开展全程跟踪。市委书记严允对高层建筑电梯安全问题作出批示后，我们举一反三，开展“提升我市电梯使用安全水平”专项监督，对中心城区160多台电梯的使用和安全管理情况进行走访调研，推动有关部门对人员密集场所和老旧小区的电梯安全开展全面排查，助推“智慧电梯”建设，为电梯维保建立大数据支撑。向市水利局委派民主监督小组跟踪监督，持续推动农田灌溉“最后一公里”攻坚行动，恢复改善农田灌溉面积30余万亩。形成了“发现问题—反映社情民意信息—专题调研—专题协商—民主监督—问题解决”的履职闭环，实现协商成果落地见效。', '对热点工作实行多维评议。紧扣严厉打击电信网络诈骗、改进服务质量等群众关切的工作，对中国电信、中国移动、中国联通宜春分公司开展民主评议，探索了“开门评议、联动评议、双向评议”的多维评议方法。通过实地视察、发放调查问卷和面向社会发布公告等形式，收集到对运营公司的意见建议1259条、对相关职能部门的意见建议11条，协助推动中国联通宜春分公司打击电诈窝点50余起，中国移动宜春分公司为宜春时代等75家企业提供数字化转型咨询服务，中国电信宜春分公司投入专项资金，增加2500部住宅小区电梯、400个地下室的信号覆盖，三家通信运营公司的群众满意度有了新的提高。', '习近平总书记指出，要“完善协商民主体系”“推进协商民主广泛多层制度化发展”。常委会积极拓展协商内容、探索协商形式、规范协商程序，开展了形式多样的协商实践。', '基层协商展现新作为。在县市区政协的共同努力下，建强用好委员工作室、基层委员工作站等367个基层协商平台，在“三区”成立政协工作联络组，积极推进市政协委员联络和协商议事服务平台建设。出台《政协宜春市委员会协商工作规则》，明确协商工作“十个有”等要求，组织委员落组进站开展协商，促进政协协商有效服务基层治理。2023年，全市共有2135名市县两级委员，参与各类协商活动1332次，达成协商成果1195项，已落地见效139项，收集社情民意信息732条，形成调研报告511篇。“监督在一线 协商面对面”委员工作室开展“静音护考”协商，有关做法在《人民政协报》报道。“春蕾妈妈”委员工作室开展“让春蕾女童健康成长”协商活动，使更多困境女童得到关心关怀。', '界别协商实现新突破。坚持委员从界别群众中来、到界别群众中去，组织27个界别的委员常态化开展协商。联合上高县政协、上高侨眷联谊会建立民族宗教、侨台联界别工作室，其“宗教场所文物管理保护与利用”协商成果被省政协月度协商会采用。联合万载县政协建立文化艺术界别工作室，履职工作得到省政协肯定，在万载召开全省政协文化文史工作会议。医药卫生界别围绕“解决温汤居民及游客看病难”开展协商，促成了明月山温泉康养医联体挂牌成立。民建、科技界别开展“让‘小眼镜’少一些‘6·6爱眼日’”协商，推动对在校学生的公益视力筛查、建立视力档案及眼部健康卫生护理。民盟界别开展“农村教育烛光行动 走进丰顶山中心小学”活动，捐赠教学设施、文具用品、生活用品。各个界别都开展了形式丰富的协商活动，拓宽了联系和服务界别群众的渠道。', '提案办理协商取得新成效。市政协五届三次会议以来，共收到提案217件，经审查立案196件，交办165件，已全部办结。对重点提案采取“三段式”督办，督办前着重把问题调查清楚、对策研究透彻、责任落实到位，督办中着重了解办理进展、协调解决办理难点，督办后着重检验办理成效、评价办理情况，确保提案办理见实效、结硕果。市委书记严允领衔督办的《油茶低改助推乡村振兴》、市长谭赣明领衔督办的《关于进一步推动形成优化营商环境合力的建议》等一批重点提案取得较好成效，受到国家、省级媒体高度关注和点赞。探索提案集中协商办理模式。探索开展历年重点提案办理“回头看”，对得到市委书记、市长批示的重点提案办理落实情况进行跟踪督办。', '对标“走在前、勇争先、善作为”目标要求，按照市委“三比三争”工作部署，深化“十县十先”“十委十优”工作竞赛，完善“三转”工作机制，推动政协工作提质增效，获省委、省政府、省政协联合表彰“先进履职单位”、全市综合考核“第一等次”、全市“三拼三促”工作先进集体等荣誉。', '强化常委会自身建设。建立常委集体调研机制，按照“统一选题、统一时间、统一样本、统一提纲、统一口径、统一汇总、统一审定调研报告，分头调查、分头研究、分头建言”的“七统三分”调研方式，全体常委深入115家企业和118个行政村，开展“民营经济发展现状”“乡村振兴成效与期盼”集体调研，收集各类问题317个、建议235条，调研成果经市委书记、市长批转相关部门研究办理落实。开展常委示范履职活动，探索“常委领题、委员参与”提案调研、大会发言等工作。建立常委履职激励机制，制定主席会议成员联系政协常委工作办法，健全常委述职和点评制度，加强对常委的走访联系和履职服务。', '增强两支队伍能力素质。采取课堂教学与现场教学、经验分享与实践操作、集体研讨与个人作业“三结合”的方式，改进培训方法，将理论学习、思想交流、廉洁教育、政策宣讲、调查研究、基层协商、反映社情民意信息、建言资政等统筹起来，推动委员履职能力提升。加强委员履职管理，用好政协委员履职管理服务信息化系统，健全委员履职档案，制定委员履职绩效考核评价办法，强化委员责任担当。常态化开展“书香政协·崇学讲坛”活动，打造干部增长知识、增强本领平台。健全23项工作制度，坚持用制度管人管事。开展机关轮岗交流，促进干部人岗相匹配，不断激发工作活力，机关工作效能有新提高。支持派驻纪检监察组工作，严格执行纪律作风和廉政风险点及防控措施，持续营造风清气正的政治生态。', '提升经常性工作质量水平。社情民意信息实现量质“双提升”，被全国政协、省委、省政协采用135篇，数量较去年增长206%。四篇履职成果和宜春市政协办公室、丰城市政协、樟树市政协、九三学社宜春市委会等四家单位获省委、省政府、省政协联合表彰。宣传工作开创新局面，全年在国家级、省级媒体上稿278篇，《宜春市政协“三转”机制推动委员履职为民》等32篇作品上全国、省政协“政能量”榜单。宜春市人民政协理论研究会换届工作有序推动，联合市社联开展社会科学研究“十四五”规划课题申报工作。加强文史工作，征集整理政协相关史料，积极推进政协文史馆建设。同时，积极参与了全国文明城市创建、乡村振兴、招商引资、精神文明、依法治市等中心工作。', '各位委员、同志们，过去一年成绩的取得，是习近平新时代中国特色社会主义思想科学指引的结果，是中共宜春市委坚强领导、市人民政府大力支持的结果，是全市政协系统和广大政协委员共同奋斗的结果，也是市人大常委会、市委各部门、市直和驻宜各单位以及社会各界大力支持的结果。在此，我代表市政协常委会表示崇高的敬意和衷心的感谢！', '同时，我们也清醒看到，对标习近平总书记关于加强和改进人民政协工作的重要思想，与新时代人民政协工作的新要求、新任务相比，我们的工作还存在不小差距，比如，协商能力有待提升、委员联系界别群众渠道有待拓宽，等等。这些都需要我们在今后工作中认真研究，加以改进。', '2024年是新中国和人民政协成立75周年，是实现“十四五”规划目标任务的关键一年。市政协常委会工作总体思路是：以习近平新时代中国特色社会主义思想为指导，深入贯彻中共二十大和二十届二中全会精神，全面学习贯彻习近平总书记关于加强和改进人民政协工作的重要思想和习近平总书记考察江西重要讲话精神，聚焦“走在前、勇争先、善作为”目标要求，发扬优良传统，牢记政治责任，着力发挥专门协商机构作用，按照中共宜春市委五届四次、五次全会的部署要求，以及“咬定一个目标、发力五个突破、聚力八大攻坚”工作思路，重点围绕“铸魂、聚力、创新、强基”四个方面发力，为加快建设区域中心城市、接续书写中国式现代化宜春新篇章凝心聚力、团结奋斗。', '坚持以习近平新时代中国特色社会主义思想凝心铸魂，始终保持高度的政治敏锐性，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，确保习近平总书记重要讲话和重要指示批示精神得到有力贯彻落实，不断夯实团结奋斗的共同思想政治基础。建强用好习近平新时代中国特色社会主义思想培训基地、研究基地、实践基地。积极探索新时代加强政协党的建设新路径，更好发挥市政协委员联合党委、联合党支部示范引领和政治保障作用。巩固拓展主题教育成果，深化习近平新时代中国特色社会主义思想在全市政协系统的生动实践。', '贯彻落实习近平总书记考察江西重要讲话精神，重点聚焦习近平总书记提出的目标要求和四个方面重要要求，围绕加快打造国家级新能源产业重要集聚区、建设国家现代流通战略支点城市、全面推进乡村振兴、做大做强县域经济、提升基层治理水平、提升人民群众生活品质等深入开展调研协商，广泛协商议政，多建真言、多献良策、多出实招，为接续书写中国式现代化宜春新篇章添动力、聚合力。', '进一步完善民主监督工作机制，探索民主监督新形式，推动民主监督与基层协商有机融合，选准切口、改进方法，不断提升民主监督质效。贯彻落实好《关于完善委员联系界别群众制度机制的办法》，鼓励和支持委员常态长效、就地就便联系界别群众。组织委员宣讲团做好基层宣讲工作，切实强化思想政治引领，广泛凝聚共识。引导各界别发挥自身特点、优势和专长，积极参与“服务为民”活动，倾力为基层群众解难事办实事。创新联合督办、分层督办、跟踪督办等提案督办模式，促进提案由“办理满意”向“落实满意”转变。', '进一步解放思想，创新方式，加强委员学习培训工作，提高委员政治把握能力、调查研究能力、联系群众能力、合作共事能力。完善委员履职考核评价体系，坚持激励约束并重、服务管理并行，增强担当自觉，提升履职实效。打造模范机关，强化争先意识，建立健全工作机制，推动工作提标、服务提质、干部提能、运转提效，以高水平机关建设服务保障政协高质量履职。坚持以严的基调和举措，驰而不息深化作风建设，建设和巩固风清气正的政治生态。', '各位委员、同志们，团结凝聚力量，奋斗铸就伟业。让我们以习近平新时代中国特色社会主义思想为指导，更加紧密地团结在以习近平同志为核心的中共中央周围，深入学习贯彻习近平总书记考察江西重要讲话精神，在中共宜春市委的坚强领导下，解放思想、开拓进取，扬长补短、固本兴新，画好强国建设、民族复兴的最大同心圆，奋力谱写中国式现代化宜春篇章！']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>126</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>抚州市党政代表团来我市考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-11-18</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zwyw/202311/f7b5d208ddb44ac2a5650ba72a02d6a6.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月16日至17日，抚州市委书记魏晓奎率抚州市党政代表团来我市考察。市委书记严允，市委副书记、市长谭赣明，市领导徐云涌、吴依群、解鸳、何敏、徐勇军陪同考察。抚州市领导王宏安、漆海云、彭银贵、吴宜文、薛强、汪华辉和抚州市直有关单位、有关县(区)主要负责人参加考察。', '考察团一行先后深入我市樟树市、经开区、高安市，考察了江西晶昊盐化有限公司、仁和（集团）发展有限公司、仁和经典名方、宜春时代新能源科技有限公司、江西金辉锂业有限公司（二期）、高安数字物流产业园大数据中心、江西通瑞新能源科技发展有限公司等企业。进车间、看现场、听介绍……每到一处，考察团都详细了解企业生产规模、技术创新、市场销售等情况，对我市在招大引强、项目建设、科技创新等方面取得的突出成绩表示赞赏。考察团一行深刻感受到我市产业发展的加速度和干事创业的大手笔，纷纷表示要把我市产业发展的先进理念和成功经验学习好、借鉴好、运用好，全力推动抚州经济社会各项事业再上新台阶。', '中医药产业是我市的传统优势产业和战略性新兴产业，正朝着打造中医药振兴发展宜春样板和具有全国影响力的产业集群加速迈进。走进仁和（集团）发展有限公司、仁和经典名方，考察团一行认真学习了解我市在弘扬中医药文化、发展中医药产业、做强做优品牌等方面的好经验好做法，表示抚州中医药文化底蕴深厚、源远流长，通过此次学习考察开阔了眼界、提升了认识，收获颇丰，进一步坚定了发展中医药产业的信心和决心。', '无论是占地1800亩、全球最先进的自动化智能化生产线、全产业链生产的宜春时代新能源科技有限公司，还是集矿山开采、选矿、冶炼、生产、尾渣综合利用、研发为一体的江西金辉锂业有限公司，都令考察团一行赞不绝口。考察团一行表示，我市积极抢抓产业“风口期”，举全市之力打造锂电新能源首位产业，着力招大引强、扶优扶强，推动宜春迅速成为全球行业头部企业集聚地，尤其是我市坚持科学合理的资源配置、规划布局，在培育创新主体、集聚创新要素、优化创新环境及加快推动项目落地投产等方面的好经验、好做法，对抚州发展新能源新材料产业具有很大的借鉴意义。', '抚州市党政代表团表示，这次考察学习，开阔了视野、解放了思想、增强了责任，回去后将认真总结、学习借鉴我市的好做法好经验，真正把学习考察的成果转化为推动工作的具体举措。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>126</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>年市住建局走出去调研活动优秀调研文章之南昌市住建局新建商品房预售资金监管及信息化建设工作学习考察报告</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202307/5837af0602104b26badd438200d0ec45.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['2023年市住建局“走出去”调研活动优秀调研文章之南昌市住建局新建商品房预售资金监管及信息化建设工作学习考察报告 | 中国宜春', '2023年市住建局“走出去”调研活动优秀调研文章之南昌市住建局新建商品房预售资金监管及信息化建设工作学习考察报告', '今年以来，我局认真贯彻市委市政府关于全市“三比三争”活动要求，结合省住建厅“学思践悟新思想 住建笃行显担当”主题活动，把“走出去”调研摆上重要议事日程，从3月开始，由班子成员领题，分批次紧锣密鼓地赴南昌、赣州、九江、上饶、吉安、抚州、鹰潭、景德镇及长沙、丽水、江门、绵阳等12座城市实地学习考察，撰写了一批高质量调研文章。公众号将陆续刊登调研文章，以供学习交流。', '为深入贯彻宜春市委五届三次全会、市委经济工作会议精神，落实好“三比三争”活动要求，结合我局“四个一”调研安排，2023年2月16日，市政府住房保障中心副主任帅琼同志带队赴南昌市住建局学习，通过向先进设区市考察学习商品房预售资金监管及信息系统建设经验，提升房地产行业管理水平。现将调研学习情况汇报如下：', '南昌市自2013年以来，先后经历启动资金监管、发现问题漏洞、创新规范试点、正式组织实施、动态长效管理等五个阶段。', '2.发现问题漏洞。2013至2019年，发现系统中显示余额和银行账户余额不符，企业抽逃资金，担保房源被查封后不提示等问题。于2020年印发《关于进一步完善新建商品房预售资金监管的通知》，并对监管系统升级。', '3.创新规范试点。调取南昌市房地产领域投放开发贷款前9名的商业银行，作为试点银行，各试点银行安排职员驻点住建部门负责对账。每家试点银行出资40万，专款用于系统升级。', '4.正式组织实施。在全市24家银行中，招标选定12家银行组成银行库，明确每3年重新招标一次，每年组织考评一次，淘汰未履职银行，并按程序增补。调整资金监管标准，由按比例监管，调整为按造价监管，即：毛坯房按3000元/平方米、全装修房按4000元/平方米监管。资金提取审批工作实行“全程网办”。', '5.动态长效管理。新系统启用以来，部门管理规范，企业办事便捷，行业风险降低，得到购房群众和企业认可。', '1.逃避资金监管，项目建设存风险。个别房企存在预售资金收入不进账或少进账，逃避监管，抽逃资金，或将商品房的预售资金挪作他用，导致在建工程停滞，损害购房者合法权益，在社会上造成不良影响，也给我市的房地产业可持续发展造成隐患。商品房预售资金监管账户开立在其他银行的，商业银行对商品房贷款资金在放款时未实现直接划入跨行的监管账户，还存在仍有个别监管银行未及时将自己行发放的项目按揭贷款打入监管账户等现象。', '2.系统陈旧滞后，管理风险存隐患。房企预售资金监管账户内的预售资金，存在被法院查封划扣，但目前系统不显示、不提示的情况。系统中显示的楼盘监管资金余额与银行账户上的实际金额不符。现行系统无法按照企业诚信等级的变动，自动调整资金监管比例。', '3.缺少服务力量，效率提升存瓶颈。南昌市住建局为抓好资金监管，采取了一系列举措，对部门配套服务也有了新的要求，人员配备也相对之前所有加强，如，目前配备5名业务干部和8名会计人员专门负责全市预售资金监管服务工作，同时还有12家中标商业银行安排的12名驻点业务人员专职对账。对比之下，我市的预售资金监管显得不但系统滞后，业务服务力量也相对缺乏。', '1.完善政策制度，提升管理方式。继续加强商品房预售资金监管，修订完善《商品房预售资金监管办法》，落实住建部、人民银行、银保监会《关于规范商品房预售资金监管的意见》，在现有资金监管办法基础上修订完善，提高监管标准，优化拨付流程，增加提取节点。通过合理确定资金监管额度，确保监管账户余额可足额动态覆盖项目竣工交付所需资金，逐渐引导企业转型升级，多推现售项目，推进我市房地产市场健康平稳有序发展。', '2.健全监管体系，强化过程监管。制定“新建商品房预售资金监管系统升级”方案，按照“小投入、大收益”原则，积极向财政申请房地产信息系统升级资金，对网签及备案、电子签章、企业和部门监管资金数据实时更新等三块内容进行升级完善，以实现统计、住建两部门数据基本统一，购房群众和企业办理合同备案和监管资金提取可“一次不跑”，商品房预售资金余额在系统上精准查询三项功能。通过利用信息快速流转特点，建立多元共治的全链条闭环处置机制，在确保预售资金安全的前提下，资金拨付业务全过程信息化监管，实现“不见面办理”和“一次不跑”，形成权责明确的监管清单，通过监管部门和商业银行系统协作，加强事前监管，事中处理，事后反馈和监督评价。', '3.搭建共享平台，加强成果运用。系统平台建设后将实现行业数据调度、资金监管提取、楼盘详细信息（地理位置、小区环境、楼栋分布、房源户型、面积、价格）等全部信息整合成全方位的信息链，实现所有房产信息一键可查。同时，进一步加强住建、统计、税务、不动产等多家部门的房地产有关数据的月调度、月对接、月比对的工作机制，确保在每月25日至30日核对监测数据，确保部门数据上报口径一致，减小数据差距。从而为主管部门对房地产形势分析、决策部署、政策制定提供更加精准有效的信息链、数据链依据，促进房地产市场稳健发展。通过系统改造升级工作，提升主管部门的房地产行业监管能力、服务水平，完善部门和科室在日常工作中对网签备案、预售资金监管、预查封登记、数据互联共享等业务办理需要，提高购房群众和企业营商办事效率，从解决“有没有”转向解决“好不好”。促进房地产企业转型升级，提高住房品质，为人民群众建设好房子，大力提升物业服务水平，让人民群众生活更方便、更舒心。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>126</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>年市住建局走出去调研活动优秀调研文章之九江市和景德镇市城市功能品质再提升工作学习考察报告</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202307/7bf7964221c34791bcca79980f634f51.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['2023年市住建局“走出去”调研活动优秀调研文章之九江市和景德镇市城市功能品质再提升工作学习考察报告 | 中国宜春', '2023年市住建局“走出去”调研活动优秀调研文章之九江市和景德镇市城市功能品质再提升工作学习考察报告', '今年以来，我局认真贯彻市委市政府关于全市“三比三争”活动要求，结合省住建厅“学思践悟新思想 住建笃行显担当”主题活动，把“走出去”调研摆上重要议事日程，从3月开始，由班子成员领题，分批次紧锣密鼓地赴南昌、赣州、九江、上饶、吉安、抚州、鹰潭、景德镇及长沙、丽水、江门、绵阳等12座城市实地学习考察，撰写了一批高质量调研文章。从今天起，公众号将陆续刊登调研文章，以供学习交流。', '根据局“三比三争”活动工作安排，3月22日-23日，市住建局相关领导和科室人员，先后赴九江市及景德镇市住建局考察学习城市功能与品质再提升工作。两地城市建设取得的成就、推动工作的经验做法让考察组成员深感震撼、深受启发，也感受到了我们在思想观念、体制机制、工作措施上的差距，更增强了加快推进城市发展的紧迫感和责任感。现将有关情况报告如下：', '两天来，考察组一行先后考察了九江市柴桑区沙河街道公园社区建设、农贸市场改造、濂溪区智慧停车项目和景德镇市三宝村、陶阳里、陶溪川等城市更新项目，并分别进行了座谈交流。两地工作主要有以下几方面的特点：', '一是组织领导站位高。九江市委市政府把推进城市功能与品质提升，作为高标准建设长江经济带重要节点城市“十大攻坚行动”的重要内容，分别成立专班实施城市能级提升攻坚、城市交通脉络攻坚。市四套班子均明确一名分管领导，共同高位推进。且市委市政府主要领导亲自部署、亲自调度，每年召开两次以上全市推进会，市、县、街道党政主要领导和四套班子分管领导参加，形成三级联动一体推进的强大工作合力。', '二是工作机制理得顺。城市更新作为城市功能品质提升的重要推动方式之一，九江和景德镇各形成了一套典型的经验做法。其中，景德镇市以宜居城市、绿色城市、韧性城市、智慧城市、人文城市作为五大目标，结合“十四五”城市发展规划要求，聚焦景德镇国家陶瓷文化传承创新试验区战略定位，明确了城市更新目标，并谋划了整体优化类、民生改善类、品质提升类、文化传承类四大类39个城市更新示范项目，并正式出台了《景德镇城市更新管理办法》，形成了长效工作机制。九江市坚持以城市社区更新为路径，通过片区更新实现整体提升，先后出台了《九江市城镇社区配套设施设置指南》《九江市乡村社区配套设施设置指南》，明确全市所有新建小区和需要改造的小区，需按照标准建设改造到位，并同步开展《九江市居住社区配套管理条例》立法。', '三是要素投入保障足。九江市为推动城市更新行动，2022年在中心城区共安排城市更新示范项目30个，总投资超200亿。围绕“举办一次会，提升一座城”的目标，投入35亿元实施第十六届省运会项目63个,投入144亿元推进中心城区水环境综合治理，投入60亿元建设长江国家文化公园，投入10亿元实施24个完整社区建设示范项目。同时在半年度和年终开展两次集中考核，对县（市、区）城市功能品质提升工作实名打分、分项评分、综合排名，且市财政每年安排3000万元用于考核奖励，充分调度了各方的工作积极性。', '四是创新措施效果好。城市更新工作资金投入量大，施工周期长，回款进度慢，往往会对地方财政带来较大负担。因此在工作推进过程中，需在精准摸排存量资源的同时，加强与金融机构对接，探索资金筹集模式，通过财政投入、政策资金、银行融资、社会资本等多种渠道，保障城市更新资金需要。景德镇市陶溪川文创街区正是其中典型之一，该项目于2016年10月正式运营，以原宇宙瓷厂为核心启动区，融传统+时尚+艺术+高科技+文化于一体，并通过引入商家、在线直播、举办展览、青年创业者入驻等多种方式吸引了一批社会资本入驻，且能持续产生经济效益、吸引全国游客观光，进而带动整个城市的经济业和旅游业发展，成为城市更新引入社会资本、形成长效经济效益的典型项目。', '（一）组织领导有待加强。虽然我市也成立了市政府主要领导任组长，分管副市长任副组长，相关市直单位主要领导任成员的城市功能与品质提升工作领导小组，领导小组办公室设在市住建局，但工作推进过程中“借力”还是不够，缺少高位推进力度，如去年计划于樟树市召开的全市城市功能品质提升的专项工作部署会，因种种原因至今也未召开。另外，部门之间联动不够，缺少推进工作的抓手和统一调度协调的落脚点，存在“各自为政”“九龙治水”的情况，工作合力和工作效率倍受影响。如去年我市出台了《宜春市城市功能与品质再提升行动方案》，共有十大行动类别32项重点任务，涉及20余个市直部门，仅靠住建部门一家难以协调推进。年终考核时，市品质办反复催促市直部门提供相关佐证材料，但个别部门迟迟不能提交，一定程度上影响了在全省的考核排名。', '（二）项目谋划更需科学。九江市对城市功能品质提升项目的谋划于头年的八九月份就已启动，且形成了一套完善的审核机制，对上报项目是否结合城市体检诊断问题、是否符合城市发展特色和城市定位进行全面且系统的把关。我市的项目谋划相对来说就启动较晚，也缺少相对科学合理的审核机制，对县市的项目谋划指导更是缺乏，导致项目谋划过程中不够精准，仅停留于问题表面，与城市体检所发现的问题结合不紧密，没有充分参考城市体检结果。此外，九江市的项目谋划是结合城市更新和社区创建工作来开展，使得项目谋划更有针对性，也容易打造特色亮点，而从3月底我市收集的城市功能品质提升项目来看，我们做的更多的只是简单的收集汇总上报项目，缺少主动谋划和审核，且项目更多还是属于完善城市服务设施和补足交通短板等基础城市市政设施建设类，特色亮点和针对性不足，相关市直单位上报项目数量更是屈指可数，各单位间的配合联动也有待提高。', '（三）资金投入亟需保障。城市功能品质提升和城市更新的工作推进需要以项目为着力点，而项目建设往往需要大量资金支持。我市近年由于财政紧张，很多项目难以谋划实施，缺少如景德镇市御窑厂、陶溪川文创街区等能引入社会资本和带来经济效益的项目。此外，相关工作推进也缺少资金支持来激发工作动力，比如完整社区建设工作，住建部门在推动该项工作时缺乏抓手，仅仅是靠“发文件”“下任务”来推动，各地、各部门工作积极性不高。九江市就安排了奖补资金，有效调动了各方工作积极性和参与性。', '一是多方借力，高位推动工作。一方面要多向市委市政府请示汇报，争取更多的支持与指导，以便更好的推动相关文件政策有效落实，比如说今年我们品质提升的工作要点和项目谋划就上报至市政府常务会进行研究。后续，在年底进行考核或谋划2024年品质提升项目时，我们也将进一步加强与市政府的沟通汇报，争取更多的工作支持。另一方面，也要学习借鉴九江市举办全市城市更新暨完整社区业务培训会、“新九江·更宜居”城市更新论坛的做法，以及邀请住建部杨保军总经济师讲课等举办主题论坛和专家授课的方式，推动理念创新的同时，扩大城市品质提升和城市更新的宣传效应，在社会上营造良好工作氛围，让更多的群众深入了解，进而参与到城市功能品质提升和城市更新工作中，也更有利于吸引社会资本的注入。对此，我们主动邀请了省人居环境研究院党委书记、院长王滢给我们进行了主题为“实施城市更新行动，加强城市基础设施建设”的主题授课，并结合创文工作，对老旧小区改造、背街小巷改造、城市功能品质提升等重点内容举行了新闻发布会。后续，也已谋划针对管网改造、海绵城市建设等重点工作进行专题发布，并录制品质提升主题宣传片。此外，也要借“三比三争”活动为契机，坚持“引进来”和“走出去”相结合，现场观摩学习典型项目建设、赴先进地区学习经验做法、对品质提升项目实施情况予以现场督查等。同时还要积极与省厅沟通，定期汇报工作进展，争取上级部门对我市城市功能品质提升和城市更新试点工作的支持。', '另一方面，也要学习借鉴九江市举办全市城市更新暨完整社区业务培训会、“新九江·更宜居”城市更新论坛的做法', '二是早做部署，精准谋划项目。一方面要早部署。项目的谋划要提前开展，才能有更多的时间科学谋划项目。可参考九江市的工作机制，提前启动相关工作，收集各县市区来年计划实施项目清单，并开展专项审核，对无法解决城市体检诊断问题，或与城市发展不紧密的一些项目予以退回，在审核通过后才能报发改委予以立项，使得项目谋划工作更有抓手。后续，市品质办一方面要将项目谋划工作早启动、早开展，同时加强与市直单位对接交流，并结合即将编制的宜春市城市更新规划，谋划更多科学、合理的民生项目，另一方面也将积极对接发改部门，争取在上报2024年市本级政府性投资计划项目时与品质提升项目谋划结合，共同推动实施，争取谋划项目更好落地。此外，城市更新和城市功能品质提升项目谋划除了要摸清项目底数以外，也要多注意设计一些投资小，但“小而精”的城市小品和雕塑，注重“微改造”和“针灸式”改造，打造兼具地方特色和艺术美感的城市微空间，让城市更加和谐、韧性和智慧。不仅如此，城市更新也需结合我市城市体检问题短板进行针对性更新，如实施停车及充电设施提质增量工程、历史文化保护和城市风貌塑造工程等相关项目。与此同时，也要督促各县市的品质提升项目早谋划、早期的，并参照上述标准予以指导审核。项目谋划实施以后，可依托民生项目库管理系统，统一入库，坚持月调度机制，以方便管理和后期调度。', '三是注重创新，保障资金投入。城市更新需项目支撑，总投入较高，所以要积极争取协调上级部门和地方的资金支持。虽然我市目前财政资金较为紧张，但可参考九江做法，拿出一部分资金作为奖励，充分调度各方责任主体积极性。另外，也要向景德镇学习，谋划包装一些能引入社会资本和产生经济效益的项目。如我市秀江夜市项目虽然因为种种原因未实施，但其设计初衷是通过植入新理念、新业态，打造网红打卡地，使其成为市区夜间经济的吸引点的理念值得推广，后期可结合实际进行包装。这方面的工作后续还需加强与市政府的沟通汇报，专题请示，争取支持，同时还要努力争取上级的政策和资金支持，比如今年我们进行了国家级的海绵城市建设示范点申报，虽然遗憾落选，但后续也应积极参加各类能获得资金和政策支持的申报活动。', '四是不断完善，理顺工作机制。全市城市功能品质提升的月度和季度考核方式需进一步完善，更要科学合理的制定考核指标和分值，对工作推动起到正向激励作用，并坚持根据各县市区的反馈意见，动态调整品质提升考核指标和分值，做好指标的解释工作。全市城市更新工作更可学习九江市做法，结合社区创建工作推动，形成我市典型特色，如尝试探索结合我市公园城市定位开展城市更新工作，这点可在城市更新规划编制中加强与编制单位联系，予以完善补充，形成正式文本。此外，城市更新规划编制虽然已经启动，相对应的配套政策、激励政策也需要尽快完善，工作情况可实行定期与不定期督查相结合，对工作进展缓慢、考核评价靠后的，实行定期通报，抓好整改落实，后期可考虑优化城市功能品质提升考核指标，共同纳入品质提升考核内容，方便操作之余，也减轻各县市区负担。同时也要做好工作总结推广工作，积极向上级部门汇报工作进展，争取更多典型案例材料被上级部门收录转发，并利用官方网站、微信公众号、视频、报纸等方式加大宣传力度，提高群众认知程度，获得群众真正认可。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>126</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>铜鼓县三举措推动民宿产业发展</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-03-15</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/202203/2bad61c8e76d4048ad12c8b84f7f54cf.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['一是高规格推进。成立了由政府主要领导任组长的产业发展领导小组,聘请专业机构编制《铜鼓县乡村民宿专项概念规划方案》,多次召开专题会议研究部署民宿产业发展。今年组织相关部门、乡镇、乡村旅游协会等赴浙江、湖南等民宿发展较快的省市考察学习10余次。二是高质量服务。出台《铜鼓县促进民宿业高质量发展九条措施》,每年组织一次以上民宿业主外出专题培训,从品牌创建、规划设计、税收优惠等9个方面给予支持。投入2000余万元,对两个示范带动性强民宿点周边道路、供水供电、标识标牌等配套设施进行建设完善。三是高标准引领。带动发展有民宿项目15个,其中投资5000万元以上5个,亿元以上2个。截至目前,民宿产业实现旅游综合收入2000余万元,成功入选江西省首批“美丽宜居与活力乡村(+民宿)”联动建设试点县。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>126</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>宜春市林业局组织开展湿地保护与管理考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-11-23</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202111/e6a674065c0d484ba7b96d062e32769d.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为加强我市湿地保护与管理水平，进一步加强和提升国家级湿地公园能力建设以及小微湿地建设水平、质量，11月17日至18日，宜春市林业局组织相关县市区林业局分管副局长赴江西省林科院、兴国县开展湿地保护与管理考察学习。', '考察组实地查看了江西省林科院小微湿地群省级示范点基地、兴国县潋江国家湿地公园和小微湿地示范点，切身感受了优秀湿地建设案例对人们生活质量的提升，并通过座谈的方式听取了省林科院和兴国县林业局湿地管理和建设经验，大家就湿地水体净化，植物群落选材搭配等多个方面进行了深入探讨。', '此次考察学习为我市湿地管理工作开拓了视野，吸取了经验，大家一致表示收益匪浅，通过对比认识到辖区内湿地管理工作的不足之处，会把这次的学习成果应用到今后的湿地管理与建设工作中。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>126</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>景德镇市城管局到我市调研学习生活垃圾分类和减量工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-01-12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/hjzfjc/202201/af3aff9f9d4c44d5a233bb8a02c657ca.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['在调研座谈会上，考察组观看了宜春市垃圾分类和减量工作宣传片，听取了我市生活垃圾分类和减量工作情况介绍，并就有关问题进行了深入交流。', '一行来到宜阳小区、宜阳新区生活垃圾分类清运车辆停车场、市生活垃圾分类教育科普馆、市生活垃圾综合处理项目建设点，就分类督导、垃圾清运、宣传教育、末端处理等情况进行实地参观考察。', '考察组对我市生活垃圾分类工作给予了高度评价，认为我市推广垃圾分类工作许多做法值得学习和借鉴，希望在今后的工作中继续加强交流沟通，共同提高垃圾分类管理水平，助力垃圾分类工作更上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>126</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>宜春市林业局组织考察组到赣州和吉安两市学习交流经验</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/lcz/202112/20446ab87370491e88c7a206ac325f72.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['一行5人到赣州和吉安两市考察学习森林资源管理、林长制、森林资源监测和营商环境建设方面', '，通过座谈交流和实地参观等方式详细了解森林资源管理、林长制、森林资源监测和营商环境建建设等情况，双方就森林资源管理、林长制、资源监测和营商环境建设工作中好的经验和方法进行交流学习。', '先后在吉安县横江镇考察学习了乡级、村级和县级林长制建设，在吉水县乌江镇考察学习了“林长', '考察组认为赣州、吉安两市森林资源管理、林长制、资源监测和营商环境建设工作很有特色，有许多好的经验和做法值得我们学习和借鉴。我市将积极借鉴两市先进经验和做法，试行推进']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>126</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>探索非现场监管新模式丨宜春市生态环境局组织到吉安考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-11-17</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202111/5d0464821be94da1aa72a59f362885b2.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2021年11月17日，为持续提升监管水平，探索非现场监管新模式，推动用电监管试点工作，宜春市生态环境局组织支队、奉新、宜丰工业园区及生态环境部门干部赴吉安市新干县考察学习。', '考察学习组首先在新干县盐卤医药化工产业促进办公室听取了园区工作人员情况介绍，园区工作人员详细介绍了平台建设模式，目前建设运行情况，积累的经验和发现的问题。考察学习组对自身存在疑问一一向园区负责同志及吉安市生态环境局有关工作人员进行了询问。交流讨论完后，听取了用电监管运营方对监管平台的介绍。之后，考察学习组深入两家企业进行了实地参观学习。', '下一步，宜春市将在总结交流学习经验后，选取部分工业园区安装环保用电监管系统，有序推动用电监管试点工作，有力提升企业环境管理水平，有效提升生态环境部门监管能力。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>126</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>解读市教体局关于宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的解读</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/wjjdc4/202110/2591ea4dae8b47c8a3f3444adddf8ac7.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['解读：市教体局关于《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》的解读 | 中国宜春', '解读：市教体局关于《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》的解读', '根据省政府教育督导委员会《关于印发&lt;江西省县域义务教育优质均衡发展督导评估推进计划（2020-2035年）&gt;的通知》（赣教督委字〔2020〕6号）、《关于印发&lt;江西省县域学前教育普及普惠督导评估实施办法&gt;的通知》（', '《关于印发&lt;2021年对设区市人民政府履行教育职责督导评价工作实施方案&gt;的通知》（赣教督委字〔2021〕7号）等文件精神，要求设区市要建立县域义务教育优质均衡发展和学前教育普及普惠督导评估推进工作机制，工作情况纳入设区市政府履行教育职责年度考核重要内容。', '对标对表、查漏补缺，创新方式、积极工作，确保2030年前所有县（市、区）通过义务教育优质均衡发展', '工作领导小组，由市政府主要领导任组长，市政府分管副市长为副组长，市政府办分管领导、市教体局、市财政局、市人社局、市委编办、', '各县级人民政府必须切实履行教育职责，凝聚起各部门、各单位工作合力，特别是在科学规划学校', '等方面发挥协调统筹作用，解放思想、优化环境，采取创新方式方法全局考虑、协调推进县域内义务教育优质均衡发展', '市政府教育督导委员会办公室将适时组织有关人员赴省内外考察学习，提高工作水平。同时，将组织省、市督学和督导评估专家，对申报国家评估认定的县（市、区）开展过程督导，形成督导报告，提出改进意见，指导整改落实。', '要坚持问题导向、细化工作举措、加强督查指导，以钉钉子精神切实抓好义务教育优质均衡发展', '宜春市人民政府办公室 关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施...', '深化实验技术人才职称制度改革 激发创新创造活力——人力资源社会保障部专业技术人员管理司、教育部教师工作司负责人就《关于深化实验技术人才职称制度改革的指导意见》答记者问']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>126</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市教体局关于宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的解读</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/shflzcjjd/202110/c13c47d89c894f55b5a9be5c467ea5ff.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['市教体局关于《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》的解读 | 中国宜春', '市教体局关于《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》的解读', '\u200b 为全面推进县域义务教育优质均衡发展和学前教育普及普惠，确保全市各县（市、区）义务教育优质均衡发展和学前教育普及普惠国家督导评估认定如期通过，市政府办印发了《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》。', '根据省政府教育督导委员会《关于印发&lt;江西省县域义务教育优质均衡发展督导评估推进计划（2020-2035年）&gt;的通知》（赣教督委字〔2020〕6号）、《关于印发&lt;江西省县域学前教育普及普惠督导评估实施办法&gt;的通知》（赣教督委字〔2020〕8号和《关于印发&lt;2021年对设区市人民政府履行教育职责督导评价工作实施方案&gt;的通知》（赣教督委字〔2021〕7号）等文件精神，要求设区市要建立县域义务教育优质均衡发展和学前教育普及普惠督导评估推进工作机制，工作情况纳入设区市政府履行教育职责年度考核重要内容。', '按照“先行试点、分步推进，积极稳妥、适度超前”的原则，推进全市县域义务教育优质均衡发展和学前教育普及普惠创建工作。各县（市、区）要按照《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠督导评估计划表》，如期申报接受国家督导评估认定，要对标对表、查漏补缺，创新方式、积极工作，确保2030年前所有县（市、区）通过义务教育优质均衡发展和学前教育普及普惠国家评估认定。', '一是加强组织领导。市政府成立宜春市推进义务教育优质均衡发展和学前教育普及普惠工作领导小组，由市政府主要领导任组长，市政府分管副市长为副组长，市政府办分管领导、市教体局、市财政局、市人社局、市委编办、市发改委、市自然资源局、市住建局等部门单位主要负责人为成员。', '二是落实主体责任。各县级人民政府必须切实履行教育职责，凝聚起各部门、各单位工作合力，特别是在科学规划学校（幼儿园）网点布局、小区配套幼儿园建设、持续增加教育投入、积极化解大校额大班额、合理配置教师设施设备等教育资源、提升保教质量等方面发挥协调统筹作用，解放思想、优化环境，采取创新方式方法全局考虑、协调推进县域内义务教育优质均衡发展和学前教育普及普惠，确保如期完成申报国家评估认定任务。', '三是制定实施方案。各县（市、区）政府要结合实际，制定本县域推进义务教育优质均衡发展和学前教育普及普惠实施方案。', '四是强化督查指导。市政府教育督导委员会办公室将适时组织有关人员赴省内外考察学习，提高工作水平。同时，将组织省、市督学和督导评估专家，对申报国家评估认定的县（市、区）开展过程督导，形成督导报告，提出改进意见，指导整改落实。', '五是实行奖补激励。申报并通过义务教育优质均衡发展和学前教育普及普惠国家评估认定的县市区，市政府将给予奖补激励。如期或超前申报并通过国家评估认定的，次年在安排各级教育项目及资金方面给予倾斜。', '四、工作要求。各地、各部门和各单位要深刻认识推进县域义务教育优质均衡发展和学前教育普及普惠的重要意义和深远影响，把思想和行动统一到中央的重大决策上来，统一到省委省政府、市委市政府的具体部署上来，切实增强责任感和使命感，形成全社会推进义务教育优质均衡发展和学前教育普及普惠的思想和行动自觉。要坚持问题导向、细化工作举措、加强督查指导，以钉钉子精神切实抓好义务教育优质均衡发展和学前教育普及普惠强弱项、补短板、扬优势各项工作，确保申报县市区如期通过。要广泛宣传义务教育优质均衡发展和学前教育普及普惠的重要性和必要性，让全社会充分认识推进义务教育优质均衡发展和学前教育普及普惠的政策措施，争取广大群众的理解和支持，形成推进义务教育优质均衡发展和学前教育普及普惠的强大合力。', '宜春市人民政府办公室 关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的通知.pdf']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>126</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>曾令芳带队赴上海路桥公司考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021-11-04</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202111/0b9b883a56224f158e0fac46466b17d1.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['11月4日，宜春市公路管理局四级调研员曾令芳带领相关人员前往上海公路桥梁（集团）有限公司考察学习。', '考察组一行首先来到上海路桥公司展厅，参观了公司的发展历程、优质业绩、施工先进技术等展示，随后到公司会议室开展座谈。座谈交流中，市局考察组与上海路桥公司副总经理周益峰及各业务部经理就现代国有企业制度、企业文化、企业党建、人力资源管理、财务管理、投资管理、对外合作经营管理、生产经营风险防控等方面进行深入交流探讨。', '通过座谈交流，考察组认真学习了上海路桥公司的先进经验及好的做法。曾令芳表示，市局下属企业要积极借鉴上海路桥公司的先进管理理念、管理模式、管理制度，结合实际积极推进企业改革，完善公司法人治理，建立健全各项规章制度，加强公司的企业管理水平，增强企业活力，提升企业综合效益，努力打造具有行业特色的现代企业。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>126</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>宜春市人民政府办公室关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的通知</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-10-16</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/yfbza9/202110/c5199db6d6574038bd22799cd75d66dd.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['宜春市人民政府办公室 关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的通知 | 中国宜春', '宜春市人民政府办公室 关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的通知', '解读：市教体局关于《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》的...', '经市政府领导同意，现将《宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案》印发给你们，请结合实际认真贯彻执行。', '要求，为全面推进县域义务教育优质均衡发展和学前教育普及普惠，确保全市各县（市、区）义务教育优质均衡发展和学前教育普及普惠国家督导评估认定如期通过，结合实际，特制定实施方案如下：', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中全会精神，按照全国、全省、全市教育大会部署，优先发展教育事业，落实立德树人根本任务，按照', '的原则，推进全市县域义务教育优质均衡发展和学前教育普及普惠创建工作，全面提升全市义务教育、学前教育教学质量和办学水平，努力办好人民满意的教育。', '按照省政府教育督导委员会的统一安排和部署，县（市、区）要如期申报接受义务教育优质均衡发展和学前教育普及普惠国家督导评估认定（推进计划详见附件）。各县（市、区）必须按照计划时间节点，对标对表、查漏补缺，创新方式、积极工作，确保', '义务教育优质均衡发展和学前教育普及普惠工作领导小组，由市政府主要领导任组长，市政府分管', '市教体局、市财政局、市人社局、市委编办、市发改委、市自然资源局、市住建局等单位主要负责人为成员。领导小组负责统筹全市县域义务教育优质均衡发展和学前教育普及普惠工作，定期研究制定推进', '义务教育优质均衡发展和学前教育普及普惠中的重大问题，制定市级层面的政策和措施。领导小组下设办公室，负责日常工作运转，由市教体局主要负责人兼任办公室主任。各县（市、区）政府要参照市政府成立相应的工作领导小组，切实加强推进县域义务教育优质均衡发展和学前教育普及普惠的组织领导。', '义务教育优质均衡发展和学前教育普及普惠的主体，承担主要工作责任。各县级人民政府必须切实履行教育职责，凝聚起各部门、各单位工作合力，特别是在科学规划学校（幼儿园）网点布局、小区配套幼儿园建设、持续增加教育投入、积极化解大校额大班额、合理配置教师设施设备等教育资源、提升保教质量等方面发挥协调统筹作用，解放思想、优化环境，采取创新方式方法全局考虑、协调推进县域义务教育优质均衡发展和学前教育普及普惠，确保如期完成国家评估认定任务。', '各县（市、区）政府要根据确定目标任务，结合实际制定本县域推进义务教育优质均衡发展和学前教育普及普惠实施方案。', '年秋季学期，各县（市、区）要组织开展一次义务教育优质均衡发展和学前教育普及普惠短板普查，要严格对照评估指标体系和细则，逐项逐条排查问题、发现短板，形成问题清单。要针对问题清单倒排时间，制定整改方案，建立督查落实工作机制。计划申报国家评估认定的前一年，针对每所学校（幼儿园）存在的问题，实行整改', '市政府将适时召开全市推进县域义务教育优质均衡发展和学前教育普及普惠动员会，同时加大对各县（市、区）政府的督查指导力度，推动取得工作实效。市政府教育督导委员会办公室将邀请国内专家对县域义务教育优质均衡发展和学前教育普及普惠的评估体系、评估实施过程以及迎接评估组织工作等进行专门培训，适时组织有关人员赴省内外考察学习，提高工作水平。同时，将组织省、市督学和督导评估专家，对申报国家评估认定的县（市、区）开展过程督导，形成督导报告，提出', '意见，指导整改落实。各县（市、区）政府教育督导委员会也要建立相应工作机制，加强对中小学校、幼儿园推进义务教育优质均衡发展、学前教育普及普惠的指导、督查。', '申报并通过义务教育优质均衡发展和学前教育普及普惠国家评估认定的县（市、区），市政府将给予奖补激励。如期或超前申报并通过国家评估认定的县（市、区），当年市级教育高质量发展考核评定为优秀等级，当年县（市、区）党政领导干部履行教育职责督导评价考核为优秀等级。同时，如期或超前申报并通过国家评估认定的，次年在安排各级教育项目及资金方面给予倾斜。', '推进城乡义务教育一体化发展，实现义务教育优质均衡发展是党的十九大提出的国家战略，是我国基础教育保持持续健康发展、实现教育强国的重要抓手。开展县域学前教育普及普惠督导评估是继', '、义务教育基本均衡发展督导评估后，国家对县级政府又一项重要评估认定工作。各地、各部门和各单位要深刻认识推进县域义务教育优质均衡发展和学前教育普及普惠的重要意义和深远影响，把思想和行动统一到中央的重大决策上来，统一到省委省政府、市委市政府的具体部署上来，切实增强责任感', '义务教育优质均衡发展和学前教育普及普惠作为县（市、区）党政领导干部履行教育职责督导评价工作的重要内容，并纳入对县（市、区）教育体育年度工作考核体系，强化结果运用。各地、各部门和', '义务教育优质均衡发展和学前教育普及普惠强弱项、补短板、扬优势各项工作，确保申报县（市、区）所有', '义务教育优质均衡发展和学前教育普及普惠的同时，必须统筹兼顾，协调发展中等职业教育和普通高中教育，既不能顾此失彼，也不能厚此薄彼。要以推进', '义务教育优质均衡发展和学前教育普及普惠为引擎，掀起新一轮教育大发展大潮，推进全市各类教育科学、协调发展，努力办好人民满意的教育，提升人民群众对优质教育的获得感、认同感。', '义务教育优质均衡发展和学前教育普及普惠的政策措施，争取广大群众的理解和支持，形成推进', '义务教育优质均衡发展和学前教育普及普惠的强大合力。市政府将对工作中涌现出的先进单位和个人进行表彰，各县（市、区）也要加大表彰宣传力度，积极营造有利于', '宜春市人民政府办公室 关于印发宜春市推进县域义务教育优质均衡发展和学前教育普及普惠实施方案的通知.docx']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>126</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>宜春市林业局赴郴州市学习考察林业重点工作</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/lcz/202305/ce71d63f217e4a678e286f6c69845a96.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为深入贯彻市“三比三争”活动部署要求，扎实开展“对标先进找差距、拉升标杆促提升”行动，5月25日-26日，市林业局党组书记、局长吴正带队赴郴州市学习考察林业重点工作，局班子成员及相关科室负责人参加学习考察。', '在郴州市林业局的精心组织下，考察组一行实地考察了苏仙岭国有林场及东江湖国家湿地公园，并就造林绿化、森林资源管理、自然保护地管理、森林防火、油茶毛竹产业发展与郴州市林业局进行了深入座谈交流。', '通过考察学习，吴正指出，郴州市林业局以推行林长制为总抓手，紧紧围绕森林草原资源“保存量、扩增量、提质量”目标，在森林资源保护、森林防火、国有林场建设、湿地候鸟及古树名木保护等方面取得了明显成效，为我市提供了宝贵的学习借鉴经验。吴正强调，要加强同郴州市林业局的常态化联络，结成友好单位，进一步深入学习郴州市林业改革创新的先进经验，结合宜春林业实际加以借鉴吸收，强化学习成果转化运用，找准差距短板，明确努力方向，奋力开创林业高质量发展新局面，助力全面建设社会主义现代化宜春新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>126</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>南昌市发展改革委来宜考察学习粮食产业经济企业经营管理相关工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202304/4da888d4e4fd45f0a2116c20a40b2e81.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['4月14日，南昌市发展改革委党组成员、南昌市城市发展研究院书记、主任何彦军一行6人来宜春市高安市考察，就粮食产业经济发展、粮食流通执法监管、粮食仓储物流实施建设、企业经营管理等相关工作进行调研考察。市发展改革委一级调研员陈宗杰、高安市发改委党组书记、主任、粮食局长谌哲、高安市粮储集团董事长何向东、高安市发改委党委委员钟玲分别陪同考察调研，并参加交流学习座谈会。', '考察组一行先后深入高安市盛发粮油有限公司、高安市省级粮食储备库祥符库和高安市瑞粮农业综合服务有限公司等，实地考察学习粮食产业经济发展、粮食仓储物流实施和粮食信息化建设等情况，并在', '考察学习中，陈宗杰详细介绍了高安市粮食产业经济发展建设、粮食流通执法监管、企业经营管理等有关情况。何彦军对高安市粮食各项工作给予高度评价，特别是对高安市粮储集团形成“用制度管人、用制度管事、用制度管钱”的工作理念，促进了单位内部各项管理工作健康有序，推动了粮食产业经济保持强劲的发展势头，这些经验和做法值得学习和借鉴。（执法监督科）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>126</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>学习为农服务经验提升乡村振兴能力宜春市供销联社赴湖南省岳阳市供销合作联社考察调研</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzdt/202305/4c94e926a8f9484d88c5c8b6c8554cca.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['学习为农服务经验 提升乡村振兴能力 宜春市供销联社赴湖南省岳阳市供销合作联社考察调研 | 宜春市供销合作社', '学习为农服务经验 提升乡村振兴能力 宜春市供销联社赴湖南省岳阳市供销合作联社考察调研', '为提升为农服务能力，助力乡村振兴，学习借鉴先进地区先进做法和典型经验，5月16日至17日，市供销联社党组党组书记罗海水带队赴湖南省岳阳市供销合作联社实地考察调研，市供销联社党组成员、理事会副主任简小涛、市供销联社党组成员、监事会主任张蕾、各县（市、区）供销合作社主任及市社机关相关科室人员随行。岳阳市供销合作联社党委书记、理事会主任向风行，党委副书记、监事会主任罗海，党委委员、理事会副主任周傲文陪同调研。', '日，市供销联社党组党组书记罗海水带队赴湖南省岳阳市供销合作联社实地考察调研，市供销联社党组成员、理事会副主任简小涛、市供销联社党组成员、监事会主任张蕾、各县（市、区）供销合作社主任及市社机关相关科室人员随行。岳阳市供销合作联社党委书记、理事会主任向风行，党委副书记、监事会主任罗海，党委委员、理事会副主任周傲文陪同调研。', '日，罗海水一行首先来到平江县安定镇供销社，现场查看了安定镇惠农服务中心、大桥村供销合作社、平江县农产品批发市场、梅仙镇供销社和南江镇供销社，在梅仙镇供销社就基层社升级改造、资产运营和为农服务情况进行了座谈交流。', '日，罗海水一行考察学习了汨罗市大荆镇惠农服务中心一二三产业融合发展和岳阳县筻口镇惠农服务中心农业社会化服务情况，参观了育秧工厂、育秧大棚、农机养护中心、烘干中心等农业社会化服务设施，并进行了座谈交流。', '罗海水表示，此次来岳阳，收获满满。岳阳作为湖南省深化供销合作综合改革示范市，体系健全、服务有力，确实出了经验、出了成效。特别是农资供应工作，党委政府高度重视，市供销系统机制健全、渠道通畅、成效显著，将供销社经营服务内容与党委政府中心工作积极融合，在推动乡村振兴和现代农业发展中真正起到了应有作用。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>126</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>全市人社系统优化营商环境暨专项治理工作推进会在铜鼓召开</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202306/beddf6aed2fa44dca9b3d135e2e39e64.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为贯彻落实全市优化营商环境工作推进大会、综合考核部署会精神及人社部、省人社厅关于劳务派遣单位截滞留稳岗返还资金和失业保险待遇发放问题、职业技能培训和评价，全市劳动监察领域突出问题等专项整治要求，', '6月27-28日，全市人社系统优化营商环境暨专项治理工作推进会在铜鼓县召开，市委组织部副部长、市人社局党组书记、局长梅鸣出席会议并讲话。', '2022年市本级“劳动力市场监管”指标考核评价位列全省设区市第二、全市人社系统共荣获先进集体6个、先进个人2个的历史最好成绩，这是全市人社系统干部职工共同努力的结果，大家要珍惜荣誉、保持定力、拉升标杆、继续争先进位。今年优化营商环境要巩固工作基础，补齐工作短板，创新工作亮点，进一步拉升标杆，乘势而上，全力推动营商环境进入“优异”等次。', '梅鸣同志强调，开展专项整治是落实全面从严治党主体责任，深化以案促改、以案促建、以案促治，推动勤廉人社建设和高质量发展的必然要求。要深化思想认识、全面过筛排查、做实整改提升，主要领导要靠前指挥，压实责任，要从做到', '“两个维护”，贯彻以人民为中心发展思想、履行政治机关职责的高度来统一思想，提高认识。确保系列专项整治（治理）工作取得实效。', '梅鸣同志指出，综合考核既是对全年工作成效的整体评价，也是对各级领导干部工作水平、能力和作风的综合检验。各县市区人社局要把综合考核作为头等大事来抓，主要负责同志要亲自抓，以上率下、靠前指挥，确保指标多加分、不失分。要以', '“三比三争”为契机，多向先进地区学习，对标先进找差距、拉升标杆促提升，推动宜春人社事业高质量发展。', '黄思贵同志、陈建军同志分别对优化营商环境、专项整治工作进行了部署，会议期间还专门组织参会人员赴湖南省浏阳市人社局实地考察学习优化营商环境工作。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>126</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>对标先进找差距拉升标杆促提升宜春市供销联社赴赣州市供销联社学习调研</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzdt/202305/249c99de710d47ce810701013fc128bd.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['对标先进找差距 拉升标杆促提升 ——宜春市供销联社赴赣州市供销联社学习调研 | 宜春市供销合作社', '为落实市委、市政府“三比三争”活动“对标先进找差距、拉升标杆促提升”要求，学习借鉴先进地区先进做法和典型经验，近日，市供销联社党组成员、理事会副主任简小涛和市供销联社党组成员、监事会主任张蕾带队赴“对标对象”——赣州市供销联社开展实地学习调研。', '调研组首先参观了赣州市信丰县“互联网+第四方物流”供销集配中心、信明公司富硒农产品展馆和正平基层社，听取信丰供销社在推进供销集配体系建设和基层组织建设等方面的实践探索和工作成效介绍，并与赣州市供销联社党组成员、理事会副主任古德勤一行进行了深入交流。随后，调研组前往信丰县古陂镇粤港澳大湾区“菜篮子”基地参观学习，到江西供销（信丰）冷链物流园实地考察学习并进行座谈，就冷链物流建设、党建带社建等方面进行了交流探讨。', '第四方物流”供销集配中心、信明公司富硒农产品展馆和正平基层社，听取信丰供销社在推进供销集配体系建设和基层组织建设等方面的实践探索和工作成效介绍，并与赣州市供销联社党组成员、理事会副主任古德勤一行进行了深入交流。随后，调研组前往信丰县古陂镇粤港澳大湾区“菜篮子”基地参观学习，到江西供销（信丰）冷链物流园实地考察学习并进行座谈，就冷链物流建设、党建带社建等方面进行了交流探讨。', '调研组表示，将认真学习借鉴赣州供销社的先进工作经验，打开思路，找准差距，谋实举措，真正做到“明差距、有思考、有措施、有提升”，并以实际行动推进宜春供销事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>126</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>宜春样板在长沙论坛上星光灿烂</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/csljflcz/202208/b6185e6f8b4746658a3d43b68932897e.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['近日，“2022中南六省生活垃圾分类发展论坛”在湖南省长沙市召开，中南六省近百个城市的垃圾分类管理部门、企业、协会数百人参会。会议通过集合政策、产业、研学等多方资源，全面展现中南六省垃圾分类的创新成果和实际成效。宜春市作为特邀嘉宾参会并做经验分享。', '本次论坛紧紧围绕“践行绿色发展理念，全面推进垃圾分类”主题，立足政府主导，全面展示省、市、县、街道、社区五个不同层级工作特色，探讨生活垃圾分类工作中的新思路、新形式。宜春市、南宁市、长沙市、洛阳市、广州市等地分享了各自在垃圾分类工作中的“成败得失”。', '宜春市代表以“分类适宜、垃圾逢春，全力打造中国地级城市垃圾分类‘宜春样板’”为主题，全面介绍了宜春市近五年垃圾分类和减量工作取得的成效和“建立七个体系”工作思路：建立机构体系，变共识为共为；建立队伍体系，变自发为自愿；建立推进体系，变盆景为风景；建立宣教体系，变少数为多数；建立分类体系，变开环为闭环；建立保障体系，变片面为全面；建立督导体系，变柔性为刚性。', '“宜春样板”得到了参会人员的高度评价和充分肯定，纷纷表示垃圾分类“宜春样板”可复制、可推广、可借鉴，找机会前往实地考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>126</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>宜春市林业局赴吉安市浏阳市考察学习相关林业重点工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/lcz/202304/3e7a6b0cf0144ed18d7070716c6eec56.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['根据宜春市委、市政府开展“三比三争”活动的安排部署，聚焦“作示范、勇争先”目标要求，为进一步找准目标，对标找差，不断强化标杆意识，点燃争先创优工作激情，不断提升全市森林资源管理水平，助推全市林长制不断走深走实。4月10日至12日，由市林业局副局长黄雪梅带队，组织市局相关科室和高安、上高2地市（县）局相关人员共计17人组成考察学习组，专门赴我省吉安市、湖南省浏阳市考察学习林长制暨森林资源管理工作。考察学习主要采取座谈交流、现场参观、翻阅资料等方式进行。', '考察学习过程中,我市与吉安市、浏阳市就森林资源管理工作和林长制工作全面推行过程中共存的重难点进行广泛交流探索,相互取长补短。双方均表示，希望今后进一步深化合作，密切往来，相互学习，不断拓宽交流领域，共同推进林业事业高质量发展迈上新台阶。', '考察学习结束后，我市考察学习组召开了工作推进座谈会。大家一致认为，吉安市、浏阳市推行林长制和加强森林资源管理的工作经验科学合理、求真务实、实用有效、操作性强，可复制可借鉴。并对全市如何加快推进相关工作作了部署安排。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>126</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>宜阳新区系列主题新闻发布会城市功能与品质提升专场</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-12-30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xwfbh/202212/66d0ff39cdb34beda5045e3e9a65859c.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['今天，我们怀着无比激动的心情，向大家介绍我们宜阳新区城市建设与管理的情况，回答大家的提问。首先，我谨代表宜阳新区工程建设管理局，向大家的到来表示热烈的欢迎！向长期以来关心支持新区城市建设工作的媒体朋友及社会各界朋友表示衷心的感谢！', '这些年来，新区坚持以“人民城市人民建、人民城市为人民”的发展理念为引领，锚定打造“品质宜居样板区”的目标定位，以创建全国文明城市为重要抓手，聚力抓好城市功能与品质提升，推动了城区“颜值”“气质”“内涵”不断刷新。主要做法可以概括为“一创、双修、三治”：', '“一创”就是指牢牢扭住“争创全国文明城市”这一个总抓手。我们全面对标全国文明城市标准，以“绣花功夫”推进城市精细化管理，大力提升市民文明素质，举全区之力打好创建全国文明城市冲刺攻坚战。一方面，加快补齐设施短板，让群众生活更舒适。高质量推进城市基础设施补短板和美环境工程，突出抓好弱电管线、居民小区设施、农贸市场、主次干道等八大类创文基础设施建设，不断完善城市底板“硬件”。比如，投入500余万元，全面推进弱电管线专项治理行动，辖区内42个区域的“蜘蛛网”顽疾全部整治到位；投入近1000万元，集中整治了小区内路面破损、墙体污损、照明灯缺损、健身器材破损及消防设施旧损等群众身边的问题。另一方面，不断丰富文化活动，让群众精神更充实。引导社区居民组建了舞蹈队、合唱团、气排球俱乐部等文体队伍，举办丰富多彩文娱活动，充实群众精神文化生活，今年以来，开展各类活动100余场，群众参与超过1万余人次。精心组织“宝爸宝妈斑马线护卫队”“红色星期六”等各类志愿活动170余场，超过2万名市民踊跃参与创文工作，开创了文明城市全民共建共享新局面。', '一是聚力功能修补，提升城市舒适宜居品质。大力实施棚户区改造，累计投入80余亿元，实施棚改项目57个，征收房屋约400万平方米，建设安置小区35个、安置房2.15万套、安置面积约228万平方米，让4万余人彻底告别了城中村、棚户区、危旧房历史。大力推进老旧小区改造，累计投入资金近2亿元，完成老旧小区改造41个，面积67万平方米，7000余户3万余居民居住环境得以极大提升。高标准打造了河头路等14条精品示范背街小巷，对27条背街小巷进行基础性修复，让城市“面子”更靓、“里子”更实。优化城市公共服务功能，建成山体公园5个、足球场3个、公厕41座，让群众城市生活更有品质、更加幸福。二是聚力生态修复，提升城市低碳绿色品质。在秀江东路打造了一条2.8公里绿色景观带，高质量完成蜂窝农场、半山夜市、土垅临时停车场等生态环保项目建设，实现了环境保护与城市建设的同步发展。开展增绿补绿复绿行动，城区人均公园绿地面积达到17.89平米，绿地率达到45.31%。持续改善水环境，建成日处理2万吨/天的城北污水处理厂，从根本上解决了城镇生活污水直排问题；完成北湖片区黑臭水体治理一期工程，有效解决了近10平方公里雨污混流问题。全区499家餐饮单位油烟净化器安装率达100%，有效改善了城区空气质量。', '“三治”即实施城市“治脏”“治乱”“治堵”三项行动。一是大力实施“治脏”行动，让城市更加整洁清爽。自2018年开展生活垃圾分类和减量工作以来，实现了从71个收集亭点到773个收集亭点、从2个小区到163个小区、从7864户到7万余户居民、从60%的居民知晓率到90%以上的可喜转变。持续开展环境整治，全面完成了贸易广场、赣西汽车城、国际商贸城和正荣街、天宝路等8个市场、10条商业街区等环境综合整治，城市面貌焕然一新。辖区内53个无物业管理区域将于10月底实现物业全覆盖。二是大力实施“治乱”行动，让城市更加规范有序。开展了校园周边环境、车辆停放等市容秩序专项整治，全面整治非机动车及共享单车乱停放、户外广告不规范、违规占道施工等行为。规范流动商贩、临时摊点和夜市市场管理，大力整治流动摊点、出店经营、占道堆放（晾晒）等现象，并打造了红林世界城网红夜市示范点和天宝路示范街区。三是大力实施“治堵”行动，让城市更加畅通无阻。近年来，先后打通了奉新路、新先路等多条断头路，实现袁河东路、公园路、智慧小镇路网建成通车，新建主次干道35条，总长达66.7公里，新区城市道路交通路网全面建成，城市“主动脉”“毛细血管”更加通畅。大力解决中心城区停车难问题，秉持“应划尽划”的原则，对符合条件的空地施划停车泊位，自2020年至今，共施划机动车停车泊位4904个、非机动车停车泊位4.42万米、共享单车停车点位167个。加快新能源汽车充电设施建设，建成公共充电站点11个、充电桩205个。', '大江网记者：这些年来，我们能感受到新区的整体环境、城市功能品质越来越好了。请问，宜阳新区在推动城市品质提升方面主要做了哪些工作、取得了哪些成效？', '付军：根据省、市关于城市功能与品质提升工作部署，2019年2月，我区印发了《宜阳新区城市功能与品质提升三年行动实施方案》，紧紧围绕“一年有变化、两年大提升、三年站前列”的目标，按照“民生为先、梯度推进、量力而行”的原则，扎实推进城市功能与品质提升工作。', '一是开展“治脏”行动。城北污水处理厂投产运行，配套建设污水干管2公里，确保北湖片区的生活污水应收尽收。所有在建建筑工地严格按照“六个百分百”要求施工，确保环保达标。', '二是开展“治乱”行动。开展明月北路临街立面整治，城市形象焕然一新。实施贸易广场综合整治，提升市场管理水平。抓好背街小巷改造，方便居民出行。', '三是开展“治堵”行动。大塘片区路网（6条）、张家山路网（5条）、智慧经济特色小镇路网（4条）、智慧经济特色小镇加密路网（5条），坤山小学周边路网（2路）、袁河东路延伸、公园路全部通车，交通体系日趋完善，有效疏解城区交通压力。', '四是开展“功能修补”行动。打造枣树翰林片区“500米便民生活圈”。完成五条综合管廊建设。深入开展“厕所革命”，全区范围累计达到73座公厕。适地新建3个笼式足球场。全区所有主次干道消防栓补齐，提升城市应急处置水平。', '五是开展“生态修复”行动。依山就势，将新区所有山体打造成休闲游园。旅发大会期间实施锦绣大道彩化工程，锦绣大道机非隔离带景观提升。', '六是开展“亮化美化”行动。宜阳新区核心区景观亮化工程投入使用，提升城市照明亮化品质。市政府周边道路安装城市家具小品，美化城市细部。', '下一步，宜阳新区将继续坚持“人民城市人民建、人民城市为人民”的发展理念，锚定打造“品质宜居样板区”的目标定位，以创建全国文明城市为重要抓手，聚力抓好城市功能与品质提升，推动了城区“颜值”“气质”“内涵”不断刷新。', '刘金跃：城市棚户区改造是国家部署的重点民生工程，一直以来，在新区党工委、管委会的正确领导下，在市住房和城乡建设局的悉心指导下，新区从2010年启动棚户区改造工作十年来，已完成各类棚户区建设2.15万套，惠及7个社区，辖区内建成了25个棚改安置小区，让4万余棚户区困难群众“出棚进楼”,极大地改善了群众居住条件，提升了城市品质和功能。在改造的过程中，我区总体上把握住了国有政策性银行对棚改项目支持的“窗口期”，2019年全市作为落实棚户区改造政策措施真抓实干、成效明显的城市受到了国务院通报表扬，中央财政拨付2000万元专项资金予以激励支持。我区作为棚户区改造的主阵地，经省住房和城乡建设厅、省发展改革委、省财政厅综合评定，并报省政府同意，确定宜阳新区为全省2020年度棚户区改造工作积极作为成效明显的单位，财政拨付180万元专项资金予以激励支持。现将棚改拆迁的情况总结如下：', '十年来，现辖区内建成的棚改项目安置小区有25个，张家山先锋片区5个（分别是景鸿小区、景福花园、胡家冲小区、北湖小区、锦绣小区）；坤山社区3个（分别是宜和园小区、坤元小区、京丰小区）；大塘社区5个（分别是锦泰一期、锦泰二期、锦程花苑、锦阳小区、红星小区）；枣树社区2个（分别是天工小区、枣树园小区）；官园桥头片区10个（分别是钓台小区、文体小区、李家安置小区，官园棚改一期、二期7个地块）。共建设安置房2.15万套，228万平方米，惠及7个社区4万余居民。', '官园、桥头片区棚改征收是宜阳新区范围内覆盖面最广、征改面积最大、同时也是宜阳新区最后一个棚改项目。涉及到官园和桥头两个社区共7个居民小组（其中官园社区有郭家、茶园、河头、张家墈、李家、彭家、樟树下等）；桥头社区涉及有15个单位楼院（东亚片区的烟草公司宿舍、环保局宿舍、食品厂宿舍、林业局宿舍、消防支队宿舍、水产局、煤炭公司宿舍、园林局、城建局、市政公司、官园街道宿舍、建设培训中心、特种设备检测中心、东亚小区、高脚山等）。项目征收红线总占地面积680亩，征收房屋面积约88万平方米，总征迁户数3200户，征迁人数约1.2万人。此项目认购房屋6100套，全面完成了省政府下达的征收任务。2019年底，官园桥头片区棚户区改造第一期安置房建设开工，共四个地块，建设面积约22万平方米；第二期安置房建设共三个地块，建设面积约24万平方米。目前，第一期建设的四个地块所辖区域彭家组、郭家组正在分房结算中，另计划2023年3月启动剩余的三个地块房屋分配，早日让拆迁居民住进新房，圆满完成新区棚改工作。', '宜春日报社记者：宜阳新区在提升城市功能品质工作中，如何利用绿色生态牌助推新区城市发展的？', '钟谦：“绿水青山就是金山银山”。生态文明建设不仅仅是为了解决当前的环境问题，更是为了把可持续发展提升到绿色发展高度，推进绿色转型发展，建成高质量发展绿色社会，让绿色成为城市发展最动人的色彩。', '打造生活垃圾分类“宜阳样板”。宜阳新区作为核心区，通过摸石过河、敢试敢闯让垃圾分类闯出新路子、打开新局面，充分发挥基层自治力量，以“党建+”模式打通了“生活垃圾管理最后一公里”，实现区域全覆盖，囊括163个居民住宅小区，辖区内47条主次干道、4010家临街商铺，辐射约7万户居民，约17万人口，居民知晓率达95%以上，人均垃圾产量实现“零增长”、垃圾“零填埋”，生活垃圾回收利用率达到30%左右，年发电量约1.5亿度供输千家万户。接待住建部、省、市各级领导调研、其他县市等兄弟单位考察学习100余次，参观考察人员达到1000余人。', '推动美化、亮化、净化城市“三化”行动。结合党史学习教育“我为群众办实事”实践活动，牵头推进背街小巷改造美化工程。高标准打造14条精品示范背街小巷，对27条背街小巷补齐基础设施，油化路面，改建车位、美化立面，让“毛坯路”变成了“精装路”。针对常年无路灯的路段推进亮化民生工程，在缺失路段安装路灯项目，让城市亮灯，用“小路灯”点亮大民生。对城市环境实行净化工作，完善环卫保洁管理标准，强化对环卫外包单位的监管，坚持全天候、全覆盖清洗作业模式，中心城区清扫保洁实现100%全覆盖，机械化清扫率达95%以上。', '城市之美，始于点滴、源于管理。作为城市的管理者，要树立群众视角，关注群众需求；改进管理方式，提升管理温度；办好民生实事，服务美好生活，用实实在在的行动让城市更有温度、更有品质，致力做宜居环境创造者、城市品位提升者、美好生活守护者。', '黄春玲 ：新城公司自2020年以来完成了28个品质提升项目，总投资约14.08亿元。新城公司近几年建设的项目分为以下6类：', '完成数圆中学、数圆小学、文昌小学、宜阳二中四所学校的建设，总建筑面积约14万平方米 ，总投资约4.1亿元。北湖学校正在建设中，完成投资约3000万元。', '完成了先锋小区改造、官园老旧小区改造、2021年宜阳新区老旧小区改造项目（龙家、周家、项家窑、肖家窝、胡家小区等20个小区）、2022年宜阳新区老旧小区改造（豪德花园、儒林公园、丽龙佳园、阳光花园、科鹏花园等18个小区），完成了2022年背街小巷改造，改造了宜阳二小东侧小巷改造、青龙装饰广场、明月北路、文体路70号附21号等14条背街小巷改造。总投资1.6亿元。', '完成发红星小区、火山下棚改2个安置房的建设，总建筑面积约25万平方米，共建设1430套安置房，总投资约5亿元。', '完成智慧经济产业特色小镇路网、张家山路网、袁河东路延伸（多胜楼北侧）、商务中心（九玺广场）北侧规划路共11条道路建设，全长约9公里。总投资约1.64亿元。', '黑臭水体治理，完成了国际商贸城、汽车城、青石桥、土垄组、门楼组、刘家组、新屋组、源头冲等小区的雨污分流及道路黑化。总投资约3000万元。', '状元洲物业集团于2022年10月1日完成宜阳新区范围内18个安置小区物业全覆盖接管，按照物管小区“三保一维”（保洁、保绿、保安，维护设施和秩序）环境整治标准，更换公益广告93处，更换破损井盖27个，修补路面33处，老旧健身器材重新粉刷120个，围墙刷漆翻新350米，清理住宅楼顶天沟85处，管道开挖18处，管道吸污疏通500余次，保障宜阳新区范围内安置小区的物业管理工作正常有序进行。', '（二）组织精细排查，优化城市道路品质。开展市政道路大排查、大整治行动，重点对宜阳新区各主次干道进行全面排查，发现道路破损、坑洼、下沉等问题，我集团认真制定维修养护计划，有序安排施工，扎实开展市政道路维修工作。截至目前，累计维修人行道23339.3平方米，维修沥青路面约3106.47平方米，改道背街小巷约1800平方米，改造缘石坡道122起。确保道路破损第一时间发现、第一时间处置、第一时间解决，切实保障城市安全运行。', '（三）开展专项行动，提升城市环卫品质。一是“牛皮癣”专项治理。对中心城区主次干道、背街小巷、公园广场、无物业管理的居民小区等场所，系统化排查“牛皮癣”小广告问题，日均清理“牛皮癣”小广告51处。二是卫生死角专项治理。联合城管以及社区工作人员进行联合督查，截至目前，清理建筑垃圾1386.5吨、清理卫生死角379处。三是常态化做好苗木返青浇灌、病虫害防治等各项工作，开展“以绿治裸”裸露地补植行动，截至目前，覆绿约5800㎡、补栽行道树560棵，各公园、广场补植麦冬约3200㎡、草坪3390㎡。四是公园广场公益广告更新。奉新广场、丰城广场、高安广场更换破旧公益宣传画面57处；维修破损公益宣传栏38处；新增公益宣传画面36张。五是增设公共卫生间指示牌。截至目前，在安路、文艺路、锦绣大道等路段累积增设公共卫生间指示牌248块。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>126</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>怀化市政府来宜考察学习明月山机场航线开发培育相关工作</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202304/a2648a16fc344f4496bd7cd72c5df85d.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['4月11日，湖南省怀化市政府副秘书长翟波同志一行7人来宜春考察，就宜春明月山机场航线开发培育机制相关工作进行调研学习。市政府副秘书长熊国清组织市发改委、市财政局、市文广新旅局、市商务局、市航铁中心等单位出席交流座谈会。', '会上，熊国清代表市委、市政府向翟波一行表示欢迎，并从我市社会经济发展、民航机场建设等方面介绍相关情况，市发改委党组成员、副主任李坚重点就近年机场航线增开和优化、拓展营销模式、提升航空宣传作了介绍。市财政局党组成员、市信用担保中心主任汤志平就航空发展资金管理使用作了说明，市文广新旅局、商务局代表围绕航空旅游业、航空服务业分别进行发言。翟波表示，江西和湖南两地山水相连、人文相通，明月山机场、芷江机场同是地方支线机场，宜春民航发展速度是业内榜样，此次学习深入交流了行业经验，获益匪浅，今后要加强联系互动，共同推动民航发展。', '会后，李坚同志陪同翟波一行实地走访参观明月山机场，考察运营管理、安全服务等有关工作。（市民航和铁路发展促进中心）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>126</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>宜春市住建局年度四个一专题调研进行时一</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202302/b333b08071b042838cc20e0f56d2d105.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['2月15日至16日，党组成员、副局长刘斌率队赴丰城住建局开展“四个一”专题调研。组织丰城东投房地产公司等企业召开了政企座谈会，宣传惠企政策，收集企业意见建议。先后实地查看了自建房整治、老旧小区改造、历史文化街区、房地产项目现场，要求相关企业在抓生产的同时，必须抓好安全。最后，刘斌一行还深入乡镇督导段潭乡美丽乡镇建设和农村危房改造工作。', '2月15日下午，党组成员、副局长孙洪怡带队赴秀江街道崔家园社区开展“四个一”调研，认真听取社区关于“三比三争”活动、营商环境提升、城乡建设项目、安全生产工作、矛盾纠纷化解等方面的情况汇报。收集社区工作推进过程中存在的问题，以及对我局帮扶工作的意见建议，并就我局与崔家园社区联建"三清单一协议"工作进行详细深入探讨。', '2月16日，四级调研员易小华带队赴袁州区楠木乡荷溪村开展“四个一”调研，通过开座谈会、实地考察等方式，深入了解荷溪村关于乡村振兴、人居环境整治、乡村产业发展、乡村治理、自建房安全专项整治等工作进展情况和存在的问题，针对存在的问题，进一步提出具体可操作性的解决建议，并结合我局开展的“三比三争”活动，带领驻村工作队学文件、立计划、提要求。', '2月16日下午，市政府住保中心副主任帅琼同志根据“三比三争”以及“四个一”调研活动安排，带队前往南昌市住建局考察学习新建商品房预售资金监管和信息系统建设工作，期间，我局考察学习组和南昌市住建局进行学习交流座谈，并现场观看南昌市新建商品房预售资金监管系统演示。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>126</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>邹小清会见北京赛德美公司董事长一行</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-09-18</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202109/a0285dc7d5b24ac9b3dc690bcf736a8b.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['邹小清对赵小勇一行来宜考察洽谈表示热烈欢迎，他介绍，我市拥有丰富的锂矿资源和优越的投资环境，近年来新能源（锂电）产业发展迅速，', '已培育了紫宸科技、江特电机、合众汽车等一批在行业内具有较强影响力的企业，形成了“锂矿开采-锂云母加工-碳酸锂提取-锂电池生产制造-新能源汽车生产-锂电池回收”全产业链。尤其是今年以来，', '在市委、市政府的正确领导和高位推动下，国轩高科、赣锋锂业、合肥力翔、宁德时代等头部企业', '先后与我市结缘，全省工业强省大会在我市隆重举行，为我市新能源（锂电）产业的发展注入了强劲动力，带来了新一轮发展机遇。', '他说到，我市正抢抓“碳达峰、碳中和”历史机遇，着力构建国家级新能源（锂电）产业集群。前期我作为市', '主营业务、主要产品、专利技术与我市新能源（锂电）产业发展和低碳环保要求是相契合的。我们诚挚欢迎贵公司在我市投资落户，也将积极为贵公司在用地、厂房、用工、税收等方面协调、争取优惠政策。', '邹小清指出，近年来，市国资委按照我市优化推进国资国企改革和国资国企改革创新三年行动的有关要求，积极引导出资监管企业大力发展主责主业，并采取股权投资、混合所有制等方式参股了不少实体企业，其中不乏上市公司，取得了一定成效。下一步，我们可以根据政策要求和双方发展需要，开展更全面深入的合作，抢先机、布好局，共同把企业和产业做大、做实、做强。', '赵小勇表示，此次到宜春考察，一是对小清主任上次亲临我公司调研指导的回访，二是来实地了解宜春的发展环境。本次宜春之行，让我深刻感受到了宜春新能源产业发展的良好态势和市国资委细致扎实的工作作风，让我们对投资落户宜春更有信心，对实现合作共赢充满期待。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>126</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>宜春市人民政府办公室印发关于完善建设用地使用权转让出租抵押二级市场实施方案的通知</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/yfbfba/202109/701e09eeac834d5c8138474d39a2d186.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['宜春市人民政府办公室印发关于完善建设用地使用权转让、出租、抵押二级市场实施方案的通知 | 中国宜春', '宜春市人民政府办公室印发关于完善建设用地使用权转让、出租、抵押二级市场实施方案的通知', '解读：宜春市人民政府办公室印发关于完善建设用地使用权转让、出租、抵押二级市场实施方案...', '宜春经济技术开发区管委会，各县（市、区）人民政府，宜阳新区管委会、明月山温泉风景名胜区管委会，市直有关单位：', '现将《关于完善建设用地使用权转让、出租、抵押二级市场的实施方案》印发给你们，请认真贯彻落实。', '为贯彻落实党中央、国务院和省政府关于完善建设用地使用权转让、出租、抵押二级市场的决策部署，根据国务院办公厅《关于完善建设用地使用权转让、出租、抵押二级市场的指导意见》（国办发〔2019〕34号）和省政府办公厅《关于完善建设用地使用权转让、出租、抵押二级市场的实施意见》（赣府厅发〔2020〕12号）文件精神，结合我市实际，制定本方案。', '（一）指导思想。以习近平新时代中国特色社会主义思想和党的十九大精神为指导，牢固树立创新、协调、绿色、开放、共享的发展理念，服务高质量发展大局，深入推进土地资源要素市场化配置，更好的发挥政府监管作用，建立城乡统一的建设用地交易市场，促进土地要素流通顺畅，进一步提高节约集约用地水平，为推动经济高质量发展提供用地保障。', '1．政府引导，市场配置。坚持社会主义市场经济体制，充分发挥市场在资源配置中的决定性作用，强化政府监管和调控作用。', '2．完善制度，规范运行。制定合理的交易规则，维护市场秩序，保证市场主体在公开、公平、公正的市场环境下进行交易，保障市场依法依规运行和健康有序发展，促进要素流动和平等交换，提高资源配置效率。', '3．保障权益，提质增效。充分尊重权利人意愿，保障市场主体合法权益，防止国有资产流失。落实“放管服”改革总体要求，简化审批程序，强化服务意识，优化交易流程，降低交易成本，防范交易风险，提高办事效率，激发市场活力。', '4．分工协作，统筹推进。根据部门职能合理分工，明确职责，加强沟通协调，形成合力，确保按期保质完成任务。', '（三）适用范围。建设用地使用权转让、出租、抵押二级市场的交易对象是国有建设用地使用权，重点针对土地交易以及土地连同地上建筑物、其他附着物等整宗地一并交易的情况，具体包括：净地交易、在建工程交易、已建成建筑物“连房带地”整体交易等具备宗地交易条件的情况。涉及到房地产交易的，应当遵守《中华人民共和国城市房地产管理法》、《城市房地产开发经营管理条例》等法律法规规定。', '1．明确转让形式。将各类导致建设用地使用权转移的行为都视为建设用地使用权转让，包括买卖、交换、赠与、出资以及司法处置、资产处置、法人或其他组织合并或分立等形式涉及的建设用地使用权转移。土地招拍挂竞买时已明确成立新公司开发，成交后按约定与新公司签订土地出让合同的不视为转让。建设用地使用权转移的，地上建筑物、其他附着物所有权应一并转移。涉及到房地产转让的，按照房地产转让相关法律法规规定，办理房地产转让相关手续。（责任单位：市自然资源局、市财政局、市市监局、市住建局、市税务局，各县、市（区）政府按职责分工负责，列第一位者为牵头单位，下同）', '2．限定转让条件。以划拨方式取得的建设用地使用权转让，需依法经市、县人民政府批准，土地用途符合《划拨用地目录》的，可继续保留土地划拨性质，不补缴土地出让价款，直接按转移登记办理；不符合《划拨用地目录》的，在符合规划的前提下，由受让方按现行土地市场价格补缴土地出让价款。以出让方式取得的建设用地使用权转让，需由土地所在辖区政府（管委会）根据有关法律法规规定和出让合同约定，对土地是否达到转让条件进行认定并出具相关证明。允许房屋建设工程已投资额未达到投资总额25%的出让建设用地使用权预告登记转让，按照先投入后转让原则，交易双方先行签订建设用地使用权转让合同，办理预告登记，待达到转让条件后，三个月内依法办理不动产转移登记。建设项目转让前未办理规划、建设、消防等审批手续的，可凭预告登记证明办理相关审批手续；建设项目转让前已办理规划、建设、消防等审批手续的，可凭预告登记证明办理项目相关审批手续变更。以作价出资或入股方式取得的建设用地使用权转让，不再报经原批准建设用地使用权作价出资或入股的机关批准；转让后，可根据受让方申请，保留为作价出资或入股方式，或补缴土地出让金后变更为出让方式，土地使用年限为原土地使用者的作价出资或入股的剩余年限。（责任单位：市自然资源局、市财政局、市生态环境局、市住建局，各县、市（区）政府按职责分工负责）', '3．细化土地分割、合并转让政策。建设用地使用权人申请，经市、县自然资源主管部门批准，可将单宗地分割为多宗地、多宗地合并为一宗地，分割、合并后的地块应具备独立分宗条件，涉及配套公共服务设施建设和使用的，转让双方应在合同中明确有关权利义务。土地出让合同中对分割、合并有明确约定的，应从其约定。拟分割宗地已预售或存在多个权利主体的，应取得相关权利人同意，不得损害权利人合法权益。多宗地合并，涉及划拨、出让、作价出资或入股等多种土地使用权类型的，原则上统一办理为出让，其中的划拨土地（含作价出资或入股的划拨土地）需按现行土地市场价格补缴土地出让价款；合并宗地用途符合划拨用地目录的，土地使用权人可选择保留划拨方式；涉及剩余出让年限不一致的，可按照等价值原则重新确定剩余土地出让年限，也可补缴一定年限土地出让金后按较长年限登记。土地分割应有利于土地开发利用，由自然资源主管部门确定分割后各宗地的具体规划条件，确保与原宗地的规划条件相互衔接、前后一致。（责任单位：市自然资源局、市财政局、市住建局，各县、市（区）政府按职责分工负责）', '4．制定差别化税收政策。对符合国家政策条件的建设用地使用权转让行为，鼓励纳税人用足用好税收优惠政策，降低交易成本。按照税法授权，探索实施城镇土地使用税差别化政策，明确各类土地权利性质、转移方式下应征收的税种及计缴基数和比例，细化土地增值税抵扣标准和政策。（责任单位：市税务局、市财政局、市自然资源局，各县、市（区）政府按职责分工负责）', '1．规范以有偿方式取得的建设用地使用权出租管理。土地使用权出租后，出让合同和土地登记文件中约定的权利、义务仍由土地使用权人承担。以出让、租赁、作价出资或入股等有偿方式取得的建设用地使用权出租或转租的，不得违反法律法规和有偿使用合同的相关约定。（责任单位：市自然资源局、市财政局、市税务局、市住建局，各县、市（区）政府按职责分工负责）', '2．规范划拨建设用地使用权出租管理。划拨建设用地使用权长期出租，或部分用于出租且可分割的，应依法补办出让、租赁等有偿使用手续。土地使用权人将划拨建设用地使用权，以营利为目的出租，地上建有房屋的，按租金的15%缴纳土地收益；地上没有房屋的，按租金的30%缴纳土地收益。改革征收方式，建立划拨建设用地使用权出租收益年度申报制度，出租人依法申报并缴纳土地收益的，不再另行单独办理建设用地使用权出租的批准手续。土地收益纳入土地出让收入管理，由税务部门负责征收。各级财政、税务、自然资源、住房城乡建设等相关部门协同配合，建立联合征缴机制，共享收益征缴相关信息，联动制约，健全巡查发现、举报和查处机制。各地更新城镇基准地价时应补充制定征收划拨建设用地使用权出租土地收益路线指导价，制定划拨建设用地使用权出租土地收益征缴具体办法。（责任单位：市自然资源局、市财政局、市税务局、市住建局，各县、市（区）政府按职责分工负责）', '1．明确抵押条件。除以公益为目的的事业单位、社会团体的教育、医疗卫生、养老等设施和其他社会公益设施划拨建设用地使用权外，其它划拨建设用地使用权可以设定抵押权，地面有建筑物的应连同建筑物一起办理抵押登记，划拨土地抵押权实现时应优先缴纳土地出让收入。划拨土地使用权抵押，其抵押价值应根据有关规定科学合理评估。以出让、作价出资或入股等方式取得的建设用地使用权可以设定抵押权。以租赁方式取得的建设用地使用权，承租人在按规定支付土地租金并完成开发建设后，根据租赁合同约定，其地上建筑物、其他附着物连同土地可以依法一并抵押。已办理商品房预售许可的房屋（在建工程、已建成建筑物）占用的土地，不得设立建设用地抵押权，可按“地随房走”办理抵押。（责任单位：市自然资源局、宜春银保监分局、人行宜春市中心支行、市教体局、市卫健委、市民政局，各县、市（区）政府按职责分工负责）', '2．放宽抵押限制。自然人、企业均可作为抵押权人申请以建设用地使用权及其地上建筑物、其他附着物所有权办理不动产抵押相关手续，涉及企业之间债权债务合同的须符合有关法律法规的规定。对不以公益为目的的教育、医疗卫生、养老等社会领域企业以有偿方式取得的建设用地使用权、设施等财产进行抵押融资的，可由抵押权人和抵押人采取告知承诺制等措施，保障抵押权实现后原有经营活动持续稳定，确保土地用途不改变、利益相关人权益不受损。探索建立抵押贷款资金运用监管机制，抵押融资款项仅限于项目开发建设及项目建成后运营管理所需，不得为第三方提供担保。各级自然资源主管部门应当及时向当地人民银行、银保监机构推送政府公示地价信息。（责任单位：市自然资源局、宜春银保监分局、人行宜春市中心支行、市教体局、市卫健委、市民政局，各县、市（区）政府按职责分工负责）', '1．搭建交易平台。由市自然资源局在现有土地交易机构的基础上，按照交易、登记一体化建设原则，搭建全市统一的土地二级市场“线上+线下”交易平台，为交易双方提供供需信息、咨询服务、交易场所。各级土地交易机构根据属地管理原则接受本辖区内的交易服务委托，办理交易事务。（责任单位：市自然资源局、市财政局、市税务局、人行宜春市中心支行、市法院、市发改委，各县、市（区）政府按职责分工负责）', '2．制定交易规则。按照“信息发布—达成意向—签订合同—交易监管”的交易流程，研究制定建设用地使用权转让、出租、抵押交易规则。交易双方可通过土地二级市场交易平台等渠道发布和获取市场信息；可自行协商交易，也可委托土地二级市场交易平台公开交易；达成一致后签订合同，依法申报交易价格，申报价格比标定地价低20%以上的，市、县（区）人民政府可行使优先购买权。加强交易事中事后监管，对违反有关法律法规或不符合出让合同约定、划拨决定书规定的，不予办理相关手续。（责任单位：市自然资源局、市财政局，各县、市（区）政府按职责分工负责）', '3．加强信息共享。加强涉地司法处置工作衔接，司法机关在涉地处置决定作出前向当地自然资源主管部门了解所涉不动产的权利状况、原出让合同约定的权利义务情况等，自然资源部门应当及时如实提供，防止因信息不对称造成土地处置后，难以转移登记或无法开发利用。政府有关部门或事业单位进行国有资产处置时涉及划拨建设用地使用权转移的，应征求自然资源主管部门意见，并将宗地有关情况如实告知当事人。全面对接政务服务网，积极推进土地市场交易平台与政府统一的数据共享交换平台有序衔接和信息共享。土地市场交易相关的材料或信息能够直接通过共享获得的，不得要求当事人重复提交。市场监管、自然资源、住房城乡建设、税务等主管部门应加强对涉地股权转让的联合监管。加强建设用地使用权与房地产交易管理的衔接，建设用地使用权转让、出租、抵押涉及房地产转让、出租、抵押的，自然资源主管部门与住房城乡建设主管部门应当加强信息共享。（责任单位：市法院、市财政局牵头，市国资委、市发改委、市自然资源局、市住建局、市市监局、市大数据局，各县、市（区）政府按职责分工负责）', '1．实行“交易+登记”一体化服务。将土地二级市场交易机构和不动产登记机构设立在同一场所办公，土地交易机构或平台内汇集交易、登记、财政、税务、金融等相关部门或机构的办事窗口，积极推进“一窗受理、一网通办、一站办结”，有效衔接土地二级市场交易与不动产登记发证，实现交易、登记一体化，提高办事效率和服务水平。优化划拨土地使用权协议出让、转让审批流程，对以划拨方式取得的拆迁安置房用地，土地使用权人在补缴土地出让金、相关税费后可一并办理出让、转让手续。探索线上交易资金第三方账户托管模式，降低交易风险。落实降成本、优环境相关政策，依法降低土地交易税收，对非房地产开发企业实施的整体改建、合并、分立和以国有土地、房屋进行投资，符合国家政策规定条件的，暂不征收土地增值税。企业在资产重组中，通过合并、分立、出售等方式，将实物资产以及相关的债权、债务和劳动力一并转让给其他单位或个人，不征收增值税，涉及的不动产转让，符合条件的免征或不征增值税、契税。（责任单位：市自然资源局、市行政审批局、市财政局、市住建局、市金融办、宜春银保监分局、市发改委、市税务局，各县、市（区）政府按职责分工负责）', '2．培育和规范中介组织。积极培育推介、展示、咨询、估价、经纪等中介组织，建立公开、公正、透明的中介服务机构准入、奖惩和淘汰机制，引导中介组织诚信经营。发挥公证、仲裁的作用，对市场主体之间流转和配置土地而产生的纠纷，积极引导双方选择仲裁方式解决矛盾纠纷，通过办理现场监督公证、保全证据公证、提存公证等，保障交易双方合法权益。（责任单位：市自然资源局、市市监局、市司法局，各县、市（区）政府按职责分工负责）', '3．加强市场监测监管与调控。严格落实公示地价体系，定期更新和发布基准地价或标定地价；实时掌握土地转让、出租、抵押的数量、结构、价款、时序等信息，定期形成监测分析报告，研判分析市场形势。强化土地一、二级市场联动，加强土地投放总量、结构、时序等的衔接，适时运用财税、金融等手段，加强对土地市场的整体调控，维护市场平稳运行。（责任单位：市自然资源局、市发改委、市财政局、市税务局、宜春银保监分局、人行宜春市中心支行，各县、市（区）政府按职责分工负责）', '4．完善土地市场信用体系。将土地二级市场交易包括信息发布、公开竞价、合同签订、土地利用等全流程纳入信用监管，落实“双随机、一公开”监管机制。推广信用承诺制，对适用信用承诺制的相关事项，当事人做出书面承诺后，其履约情况应记入信用记录，作为事中事后监管的重要依据。加强信用分级分类监管。依法依规对监管主体开展信用评价，将评价结果作为实施分级分类监管的重要参考依据，对信用评价较高的市场主体减少现场监管频次，降低“双随机”抽查概率。相关市场主体失信信息纳入省市公共信用信息平台，并依法依规通过“信用中国（江西宜春）”进行公开公示，对失信责任主体实施联合惩戒。（责任单位：市自然资源局、市发改委、市财政局、市税务局、宜春银保监分局、人行宜春市中心支行，各县、市（区）政府按职责分工负责）', '1．加强组织领导。各县（市、区）人民政府要落实主体责任，强化统筹协调，抓好组织实施，市县自然资源、发改、国资委、财政、住建、税务、市监、金融、人民法院等部门要建立联动机制，落实责任，细化措施，有序推进土地二级市场建设。', '2．工作进度安排。调研准备（2021年9月底），各有关部门对照工作方案和责任分工，提出调研需求，由市自然资源局汇总研究后，组成联合调研组，前往土地二级市场建设较好的省份和设区市考察学习。交易平台建设（2021年9月—11月），由市自然资源局牵头，委托技术单位研发交易平台，市财政局保障建设经费。健全制度（2021年9月—11月），各有关单位根据分工，同步起草二级市场的交易规则、格式文本、配套政策等。先行先试（2021年12月底），待交易平台搭建后，选择市本级范围内的若干项目先行先试，梳理分析问题，完善制度机制。全面推行，2022年1月起在全市范围内全面推行，根据运行情况进一步总结完善。', '3．严格督查考核。工作领导小组要加强对土地二级市场建设的督促落实，定期调度情况。强化监督问责，对违反土地二级市场相关规定的地方政府和有关部门、单位以及责任人员严格实行责任追究，从严查处违规违纪现象，打击违法行为。', '4．积极宣传引导。各地、各有关部门要进一步加大对土地二级市场相关政策的宣传力度，充分利用新闻媒体，及时准确发布工作信息和政策解读，回应社会关切，总结推广经验做法，扩大土地二级市场的影响力、吸引力，调动市场主体参与积极性，提高社会节约集约用地意识，形成良好的舆论环境，切实提高资源利用效率。\u200b', '宜春市人民政府办公室印发关于完善建设用地使用权转让、出租、抵押二级市场实施方案的通知.doc']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>126</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>关于加快宜春市新能源锂电产业高质量跨越式发展的指导意见背景介绍</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-09-10</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bjjs/202109/3778c513df70476ab48dc6c7fe0ec693.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['我市新能源（锂电）产业高质量跨越式发展，市工信局草拟《关于加快宜春市新能源（锂电）产业高质量跨越式发展的指导意见(2021-2025)》。', '我市新能源（锂电）产业高质量跨越式发展，市工信局草拟《关于加快宜春市新能源（锂电）产业高质量跨越式发展的指导意见', '先后赴青海西宁、四川遂宁和宜宾、山东青岛、江苏南京等国内新能源（锂电）产业发展较好的地区考察学习，', '宜春市人民政府关于下达《宜春市国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要的通知》（宜府发〔', '产业”战略，重点在高性能正极材料、动力电池、储能电池、电池管理系统、充电桩等领域加大招引力度，着重在电池级碳酸锂、消费类锂电池、新能源汽车、新能源电机等领域加大培育力度，继续保持负极材料、隔膜材料等领域领先优势，扩大并强化“亚洲锂都”在新能源（锂电）行业内的影响力和话语权']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>126</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>铜鼓县自然资源局赴新余市学习考察互联网不动产登记</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-08-26</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202108/8e4ab391235d49159243b9b0d59b5da9.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为深化“放管服”改革，进一步优化营商环境，加快推动不动产登记工作高质量发展，近日，铜鼓县自然资源局局长王方国带队，率相关股室负责人和工作人员，前往新余市不动产登记中心学习考察“互联网+不动产登记”工作。', '考察组一行首先到新余市“不动产登记综合服务大厅”，现场听取业务办理情况介绍，了解岗位设置、人员配备、操作细节，并实地观摩了不动产登记“互联通办”模式。', '的工作模式，从启动不动产权电子证书、推出手机自助查询服务、开通“不动产登记与法院在线查控系统”、全省首创抵押登记向银行网点延伸等方面分享了新余的工作经验和成果。双方同时就宅基地农房一体发证、规划许可、信息档案管理等工作进行了深入交流。', '此次考察学习，为进一步明确铜鼓县“互联网+不动产登记”改革路径、助力优化提升不动产登记营商环境提供了有益借鉴。下一步，该县不动产登记中心将持续找差距、补短板，加快推进“互联网+不动产登记”建设，努力提升不动产登记服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>126</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>全市创建高质量就业乡村现场推进会暨就业工作座谈会在铜鼓召开</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-09-22</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202109/f053c28ecfd84548876e10c9ff513aab.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['9月18日，全市创建高质量就业乡村现场推进会暨就业工作座谈会在铜鼓县召开，会议总结了“十三五”时期及今年以来的就业工作，分析了当前形势，交流了经验做法，重点推进了创建高质量就业乡村工作及部署了其他就业重点工作。市委组织部副部长、市人社局党组书记、局长梅鸣出席会议并讲话，铜鼓县委书记李勇军致欢迎辞，市人社局党组成员、市就业局局长易炳作就业工作报告，会议由市人社局党组成员、副局长陈建军主持，各县（市、区）人社局、就业局等有关同志40余人参加会议。', '会上，梅鸣同志充分肯定了今年前三季度就业工作取得的成绩，并就做好下步工作特别是创建高质量就业乡村工作，从心系国之大者、在更高站位上推进就业工作，主动拉升标杆、以开展示范创建为抓手推进高质量充分就业，勇于担当作为、全力做好重点企业用工保障服务工作，聚焦重点精准发力、确保完成各项年度目标任务，凝聚合力协同作战、推动全市就业工作迈向新台阶等五个方面提出了具体要求。', '会议指出，就业是民生之本，排在“六稳”“六保”首位，今年是中国共产党成立100周年，是“十四五”规划的开局之年，做好今年的稳就业保就业工作，具有十分重要的意义，我市在探索高质量充分就业，进一步巩固就业扶贫成果与乡村振兴有效衔接上作了一些探索，在全省率先提出创建高质量就业乡镇（街道）、村（社区）项目，列入今年市政府十大民生实事重点推进。', '会议强调，要深入学习贯彻习近平新时代中国特色社会主义思想,全面落实党中央、国务院关于做好就业工作的一系列决策部署,进一步提高政治站位,践行以人民为中心的发展思想,千方百计稳就业、齐抓协力保就业。要紧盯创建工作年度目标任务，对标对表，列出任务清单，倒排时间进度，确保创建工作高质量圆满顺利完成。要牢固树立大局意识，上下联动，举全系统之力，在工作思路、理念、作风等方面有转变和提高，切实为保障重点企业用工提供高效、优质服务。', '会议要求，全市人社系统要有等不起的紧迫感、慢不得的危机感、坐不住的责任感，自觉按下“快进键”，加快工作节奏，推动各项工作快速有效落实。要坚持把就业作为全系统第一位工作，齐心协力、同向发力，拿出专注专业的素养、雷厉风行的作风、比拼赶超的斗志，敢于把红旗插在高高的山顶上，积极创先争优，确保全市就业工作稳在全省“第一方阵”。', '会议明确了“十四五”时期我市就业工作要坚持以“三提高一强化”为主线，认真抓好“十四五”促进就业规划的贯彻实施，坚持“稳中求进”工作总基调，扎实做好“稳就业”工作、全面落实“保就业”任务，实施更加积极的就业政策，进一步健全覆盖城乡的全方位公共就业创业服务体系，保持城镇新增就业基本稳定。在今年下步工作中，要重点抓好就业新政策的贯彻落实，提升就业资金使用效率，强化招才引智服务成效，为“十四五”就业工作开好局、起好步打下坚实基础。各县（市、区）人社局长及“三区”有关负责同志在会上围绕创建高质量就业乡村等工作进行了交流发言，介绍了各自的典型经验，指出了存在的问题困难，提出了相关意见建议。会上，还就职业技能提升行动、巩固拓展就业扶贫成果、优化营商环境等重点工作进行了通报。', '会议最后指出，全年目标任务冲刺在即，全市人社系统要凝心聚力、勇于担当、攻坚克难，奋勇争先，尽心竭力做好就业这个民生头等大事，圆满完成全年目标任务，以优异的成绩向市委、市政府交上一份满意答卷。', '会前，参会人员统一前往了铜鼓县排埠镇、排埠村、坪田村3个高质量就业乡村创建点、江西金柱实业就业帮扶车间现场考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>126</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市财政局市科技局联合赴南昌市科技局考察学习科技创新工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202104/c3d7310563814c60918d10b3967313bc.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['\u200b 4月8日，为贯彻落实党的十九届五中全会以及习近平总书记视察江西重要讲话精神，进一步推进我市实施创新能力建设行动，激发企业科技创新活力，市财政局、市科技局联合赴南昌市科技局考察学习科技创新工作，并以座谈会的形式与对方进行了深入的交流和沟通。', '座谈会上，南昌市科技局相关负责同志介绍了南昌市“洪城科创券”的基本情况、主要做法及操作流程等，就“洪城科创券”在技术转移服务、科技金融服务、检验检测服务、高企申报咨询服务等方面取得的成效以及存在的问题做了详细的分析，并对我市实施科创券改革工作给出了中肯的意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>126</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>宜春市职业技术教育中心年中等职业教育质量年度报告</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-03-13</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zyjy/202103/485f4ea3b2fd47bd940cf20c2d5f7643.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['学校全面贯彻党的教育方针，坚持立德树人的社会主义办学方向，坚持以习近平新时代中国特色社会主义思想，为指导牢固树立为经济和社会发展服务办学指导思想，主动适应改革开放和社会主义市场经济的新形势，实现了规模、质量、效益同步增长。宜春市职业技术教育中心成立于1984年，隶属于宜春市袁州区人民政府，学校曾获得“江西省中等职业教育先进学校”、“宜春市职业教育先进单位”。', '2017年11月2日，袁州区人民政府与江西昌黎文化教育投资集团有限公司签订合作办学协议，在宜春市环城南路新建职教中心校区。', '宜春市职教中心按照建立“大职教、大培训、大融合”的工作思路，实施特色强校、质量立校、就业兴校。开展中职教育、劳动力培训、成人继续教育，将宜春市职教中心建成服务于宜春市中心城区“三个中心，一个基地”为特色的区域性教育中心。致力于增', '加职业教育服务区域经济社会的能力，实现宜春务农输出大市到人力资源大市、技术型人才大市的转变，打造实用技术人才品牌。', '2020年学历教育在校生总数为1688人，专任教师65人，专业教师60人。现开设计算机应用、酒店服务与管理、旅游服务与管理、学前教育。', '559人，18级、19级、20级全日制在校生1688人，毕业生人数为0人（2017级未进行招生），生源主要以本地为主，周边县市也招收了一部分学生（以万载县、萍乡市为主），大多数学生来自农村，年龄偏小，基本上是应届初中毕业生，在中职学校招生困难的严峻形势下，2020年招生人数达559人，比上年度减少59人。2020年学校齐抓共管，严格控制学生流失，学生巩固率为85%，比上年度有所提高。', '2020年，学校通过公开招考，网上发布招聘教师信息及现场招聘教师等措施，逐步充实教师队伍，提高教师整体素质，师资队伍结构趋于', '社会主义核心价值观，紧紧围绕“规范、高效、创新、服务”，工作新思路，实施做人与做事同学，技能与素养同修，成人与成才同步的“三同”育人模式，把“三同”融入到课程设置，日常教育教学和管理，校园文化建设等学校教育、管理和活动中，以学生学会做人为前提，培养学生学会做事的能力。在培养学生职业技能为核心的同时，注重学生职业素养的培养；在培养学生具有良好思想品德的同时，使每一个学生都学到一技之长，成为对社会有用的人。实现了成人与成才同步的目标，促进了学生德、智、体、美、', '学校十分重视思想政治教育，特别注重新生的入学教育，大多数学生思想政治道德素质得到提高，行为习惯得到改善，学习目的明确，态度端正，能客观认识自我，重树信心，展示个性。按上级规定，每班都开足且上好了体育课，早上有晨跑，', '做操，学校经常组织学生参加体育活动，保证大多数学生每天1小时体育锻炼，增强体质。学生的健康标准达标率均在98%以上。圆满完成了学生体质测评数据的网上提交上传，能按教育部《关于印发新修订的中等职业学校语文等七门公共基础课大纲的通知》要求，开设《语文》、《数学》、《英语》、《计算机基础》、《红色文化》等基', '础必修课程，文化课合格率在90%以上，根据市场对技能人才的需求和学生的实际情况，学校完善了各专业学生应达到的技能标准。大多数学生都具备了应用所学专业的相关知识解决工作与生活中实际问题的能力。', '学校坚持党的教育方针和“以服务为宗旨，以质量为根本，以就业为导向”的职业教育办学方向。充分体现“尚德尚能，自立自强”的校训，学校发展目标与规划适应经济发展需求，学校以教学为中心，以技能教学为重点，进一步深化教学改革，加强对专业课教学的管理，加大学生实验实训力度。一是充分发挥现有实习场所的作用，能进实验室上的课一律到实验室上；二是加强了对实验室的建设和管理，充实了实验室人员，明确了职责分工；三是学校聘请了部分校外老师及企业技术骨干作为专业教师和实习指导教师。同时学校不断加强校园文化建设，创设了多处具有教育意义的人文景观和文化氛围，经常组织开展内容丰富、文艺、体育等校园文化活动。把德育、智育、体育、美育渗透到校园文化活动之中。大力鼓励引导学生积极参加学生会、团委、校卫队等社团组织竞聘，组建各种学习兴趣小组和学生社团，通过开展形式多样，健康向上的社会活动，为同学们培养兴趣，发展个性和展现自我搭建了舞台，为了营造一个温馨的生活环境，学校想', '施进行了改造和改建，所有学生宿舍都安装了空调，保证了学生宿舍24小时供应热水，使学生在校学习生活有如到家的温暖。新增了一些运动场地，添置了运动器材，为学生课余体育锻炼提供了较好的条件，学校把安全放在首位，完善了校园监控设备，制订安全相关制度和措施，确保校园和谐平安。毕业生对母校有深厚的感情，有共同的心声：感谢学校培养了我。通过对学生进行问卷调查的形式，收集学生各种反映，学生对学校的满意度良好，理论学习满意度为98%，专业学习满意度为97.5%，实习实', '年来，我校贯彻落实国家和省、市、区有关学生资助的政策，对受助学生进行张榜公布，做到公平、公开、公正，并将江西省关于资助工作“十不准”发放到各班进行宣传，并在每个班级教室墙上张贴，让每个学生都了解国家的资助政策。免学费和助学金发', '落实到位，对建档立卡的贫困学生按国家政策已将资助金发放到每个学生手中。针对由各乡镇临时发函告知的建档立卡户学生，学校垫付资金向他们发放了助学金，保证了这些贫困学生能够顺利完成学业。使他们', '计划，科学开设职业生涯指导课程，使学生树立正确的人生观、价值观、世界观、就业观。通过理论学习和', '，提高了学生在进入工作岗位后能尽快适应岗位对工作能力的要求，并坚持通过强化人文素质，职业技能创新创业能力，培养学生的职业岗位迁移能力。', '为适应区域经济发展的需求，我校建立招生、培养、就业的联动机制，，选取“社会需要、初次就业率、专业评估排名”等作为主要评价指标，建立了专业结构动态调整机制，根据评价指标对各专业招生计划实行动态调整，形成倒逼机制，着力促进各专业强化内涵建设，努力提升应用型人才培养质量。', '采取了四大举措对现有专业进行动态调整：一是组织对全校各专业建设情况进行评估，公布相关数据，作为专业动态调整的决策依据；二是将各专业的招生就业情况、人才培养质量作为主要依据，', '建立专业预警与退出机制；三是根据各专业发展情况对年度招生计划进行调整，动态控制专业规模；四是以学校发展规划为引领遴选新增专业，并建立严格的准入机制。', '我校将继续优化专业结构动态调整机制，包括以就业为导向的招生计划调整机制，以厚基础、宽口径为特征的人才培养机制，以市场需求为导向的课程调整机制，促进专业结构优化和办学特色培育，不断提升应用型人才培养与区域经济社会发展的契合度。', '一年来，我校坚持以服务为宗旨，以就业为导向，以质量求生存，以“让中职生成为一个合格的技术工人”为抓手，着力提升我校教育质量和人才培养质量。', '重构符合学生不同学习基础、学习需求和发展趋势的公共基础课程体系。包括三大模块，一是为提高学生的文化基础素质打基础的公共模块部分，二是为学生进行专业学习和形成职业能力打基础的专业模块部分，三是为学生继续学习深造、接受终身教育和终身学习打基础的发展模块部分。选择具有个性化的课程组合，重新构建学生的文化基础，按需施教，通过学分制的教学管理制度，使每一位学生都能找到适合自己的课程。', '①优化师资队伍建设。在教学改革中加大师资培养力度，以校本培训为主，并选派教师参加国培和省培，提高师资整体水平，规范教师的教学行为，推进教师的探究化教学，使专业理论课教师在创新课程模式、改革教学内容、创新教学方法、核心课程教材建设等方面均有大幅度提升。', '②打造一支优秀的教师队伍。通过教学模式的改革，促使教师对课程模式，课程结构，教学内容，教学方法，教材改革进行一系列的优化，从而使教师的教学能力，实践能力，职业技能显著提高，并以“雨课堂”手机APP为培训平台的培训模式，大大提高了教师队伍的素质，教师队伍建设有了长足进步。', '我校专业建设以学校《关于专业人才培养方案修订的指导性意见》为总纲，在创新人才培养模式，全面提高技术技能人才培养质量，推进教学改革等方面做了以下尝试：', '紧密围绕培养学生岗位职业能力这个基点，以“工学结合”为切入点，注重教学过程的实践性、开放性和职业性，抓住实验、实训、实习三个关键环节，探索具有本专业特点的人才培养新途径，引导课程体系、课程内容和教学方法改革，形成了具有鲜明特色的人才培养模式。', '依据岗位职业能力训练与培养要求，提出了教学计划修订的四条原则：一是突出适应性、实用性及针对性；二是统筹兼顾与突出重点相结合；三是校企合作、工学结合；四是统一与特色相结合。', '遵循四条原则，各专业课程按基础课程、专业课程、实践课程和拓展课程四个模块进行了课程体系重构，重点突出了专业与技能课程，形成了以工作过程为基础的课程体系、以岗位职业能力为依据的课程标准、以岗位工作任务为载体的课程内容，实现了课程体系和课程内容的创新。', '突破以教师、课堂、教材为中心的教学模式，根据课程教学特点，推广工学交替、任务驱动、项目导向等教学模式，推动教学做一体化，推行案例教学、项目实践、现场观摩、情景教学、问题教学等以学生为主位，师生互动的教学形式，倡导启发式、研究式、讨论式等教学方法，积极采用现代教育技术和教学手段开展课程教学，丰富教学载体，提高教学效果。', '围绕教学方法和手段改革，我们每学期都开展了15—20场公开观摩教学活动，相当多的老师，尤其是青年教师运用多媒体等教学手段，创新教学方法，取得了良好成效，营造了互学的教学氛围，推动了教学特色的形成。', '改革考核制度，注重过程和能力考核；推行“专业技能达标”制度，强化职业技能训练考核；采用多元化方式，加强综合实践能力考核。广泛采用现场操作、作品展示（成果演示）、方案设计、案例分析、职业技能鉴定、社会实践等多元评价方式，开展以能力', '一个目标、两个面向、三项原则、四个突出。一个目标：培养目标是造就一大批服务于生产第一线的高素质的应用型人才。两个面向：面向社会、面向人才市场，服务于市场经济建设和社会发展的需要。三项原则：应用型人才培养就是要强化“基础性、应用性、实践性”，办出应用型特色。四个突出：突出技术应用能力本位的教育思想；突出“教师为主导、学生为主体”的教学理念；突出学生全面素质的提高；突出可持续发展能力和创新能力的培养。', '近年来，我校的教育教学质量不断提高，办学品位不断提升，这得益于现代信息化教育技术的广泛应用。我校在各级领导的大力支持下，逐年增加资金用于添置信息技术装备，特别是在创建数字化校园中，我校按照', '为每个教师、功能室配备了多媒体系统、视频展示台，新建了网络机房，为每个教师配备了计算机，实现了网络终端到每个教室、办公室，实现了教育教学的现代化，提高了课堂教学效率，推动了教育教学质量稳步提高，提升了学校档次，进一步增强了学校的核心竞争力。', '培养学生的实际动手能力是中等职业学校工作的重点。传统的教学模式因过于强调课堂教学和学生对书本理论知识的掌握而忽视了实践教学的作用，往往与职业教育特色不完全相符。为改变这种状况，弥补传统教学模式的不足，学校根据专业特点创办各类实训中心，使书本知识在实训中具体化、形象化，在“动”中强调学生的学习热情，使学生所学专业理论和专业技能得到综合应用，进而把理论转化为一种实际操作能力。另外，就所学专业理论和人际沟通技巧开展诸如技能竞赛、义务维修、社会调查、义务服务等活动，使学生所学专业知识能够学以致用，从而调动了学生的积极性和主动性，充分培养了学生的专业能力、社会能力和创造能力，也为理论知识的调整、完整、升华提供依据。学生在实际运用中，明确了自己的任务、工作性质、责任以及应该具备什么样的水平和道德品质。 这种教学活动无疑培养了学生创造能力。同时我们积极组织各种活动和丰富多彩的第二课堂，培养学生创新能力。', '我校坚持以专业为基础进行数字化教学资源的建设和组织，实现教学资源的共享、共用。学校教学资源主要由互联网上获取和学校教师自己的资源。', '教务处、信息中心对学校教学资源加强管理，充分发挥教学资源库管理员的技术，不断对学校的资源库进行维护更新，保证了资源实用、科学。教学资源为教师提供了资源和服务，提高了教师的', '工作效率，促进了信息技术与学科教学的深度融合，提高了课堂教学效果，促进了学校教学工作的全面提升。', '我校教材选用严格执行教育部《关于进一步加强对中等职业教育教材管理工作的通知》要求，进一步规定教材的使用和管理工作，严格按规定使用教材，坚持做到四个原则即方向性原则；适用性原则；选编结合的原则；管理有序的原则，严把教材质量关，凡未经教育部全国教材审定委员会审定通过的教学书籍一律不得作为教材使用，地方教材和校本教材择优选用。', '年来，在学校领导高度重视下，在学校各有关部门的通力配合支持下，教务处组织了对全体教师进行培训，广大教师积极参与培训，教师的整体素质得到了提高，我校教师培养培训工作取得了一定成绩。', '（1）重点对今年新入职教师举行了如何备课、书写教案、如何更好进行课堂教学等教学基本功讲座4次。', '（4）加强校本培训，发挥骨干教师，教学能手的示范引领作用，形成教师互相学习交流的良好教学氛围。一年来，组织公开教学30多次，示范教学10多次，起到了取长补短，相互促进的效果。', '（5）学校利用工作间隙组织中层管理人员赴宜春职业技术学院、江西省高级轻工业学校实地考察学习兄弟学校的管理经验，逐步引导管理人员向高效、严谨、正规看齐，为学校可持续发展打下了扎实的基础。', '随着学校发展的不断壮大，对教学管理、科研管理、管理队伍建设以及管理信息化水平提出了更高的要求，逐步形成了规范化、流程化与创新化的管理模式。', '根据学校制定的《关于规范教学管理办法的意见》、《教师量化考核管理细则》、《教师职业素养十项要求》等规定，狠抓日常教学管理，每月开展月度教学检查，对每个教师的教学情况用数字进行量化，将结果公布评选出月度考核优秀教师、称职教师、基本称职教师，并与绩效工资挂钩，在一定程度上规范了教学管理，增强了教师的工作责任心。', '严格执行教育部关于《中等职业学校学生实习管理办法》的规定，成立了实习管理领导小组，由招就处具体负责学生实习的相关事项，学生实习做到了由学校和实习单位共同组织和管理，共同制订实习计划。维护学生的合法权益，确保了学生在实习期间的人身安全和身心健康。', '根据我校学生的现状，对班主任、学生、班级建立了有效管理制度，在工作中，严格执行《班主任工作量化考核细则》、《班级月评估》、《学生违纪处罚规定》等制度，通过制度提高班主任的工作责任心，规范学生的行为习惯。', '学工处从培养学生道德文明入手，狠抓学生的思想工作，特别注重新生的入学教育，学工处印制了入学教育手册，发放学生人手一本，在军训期间，利用教育手册对新生进行全面的养成教育，引导学生转变观念，规划人生，树立信心。在学生中进行行为规范教育，让他们能看到自己的优势和长处，鼓励他们以崭新的面貌迎接自己人生的一大转折，养成文明行为习惯，为此学工处利用国旗下的讲话，主题班会和晚自习时间，召开学生大会、男生学生大会、女生学生大会、待进生大会，加强理想前途教育，促进其人格健全，心理健康，克服自卑心理，改掉懒惰，散漫的不良行为，使学生充', '分认识到行为规范和养成教育的重要性和必要性，提倡他们从小事做起，从我做起，从现在做起。让学生牢固树立细节造就成败、态度决定一切、知识改变命运，技能出彩人生的思想，通过会议和一系列行之有效的工作，学生的精神面貌有很大改观，对违犯校纪校规的少数学生，班主任与学工处找其谈话做耐心细致的工作，并与家长沟通，已取得家长对学校工作的大力支持，尽量感化他们改正缺点，端正态度。一年来，学工处化解学生纠纷多起，找学生谈心100多人次，劝退学生3人，留校查看12人。通过整顿校风，学校的学习风气有很好的转变。', '③开展“文明寝室”、“优秀班级”、“学习标兵”等评比活动，通过多种形式培养学生积极健康向上的思想境界，制订“文明寝室”、“优秀班级”、“学习标兵”评比方案，对评选出的文明寝室、优秀班级、学习标兵在集会时，由学校领导颁发锦旗和荣誉证书。让学生在学先进、赶先进、争先进的气氛中得到成长。', '为加强校园管理，锻炼学生的能力，充分发挥以学生会，校卫队，团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开4次学生会、校卫队会议，认真听取他们对学校工作的意见和建议，鼓励他们大胆工作，为学校的发展出谋划策，确保了校园环境卫生、安全、食堂学生就餐的秩序等常规工作、顺利开展，同时纠正了校园内违纪情况，化解了校园内学生闹不团结', '现象。培养了学生“自我管理、自我服务、自我参与、自我教育”的能力，全面提高了学生自主管理意识。', '手续，制定了《学校财产管理办法》、《财务制度管理办法》职责明确，责任到位，对学校教学用品，教学实习实训设备，生活设施等公共财产登记造册，建立', '经过不断深入细致的修订完善，已形成一套完整的安全责任制度，制定了“公共场合和大型集会安全管理制度”、“宿舍、门卫管理制度”，学生必须凭校牌进出校门，外来人员进校必须凭有效证件进行登记。“实训设备安全操作流程制度”、“公共突发事件应急方案”、“食品安全卫生制度”等为全校师生提供了制度保障，学校安排了行政值日，每天由一名校领导带班，全天候，全方位，无死角对学生进行监护，发现问题及时处理，不留隐患。行政值日通报采用无纸化形式，在钉钉平台上将值日情况进行通报，共发布', '行政值日通报300多份，全面系统反映了学校的各种情况，实事求是指出了存在的问题，提出了整改意见和建议。为加强学校管理提供了有参考价值的资料。', '安全和消防设备等隐患重点排查，学校组织开展了“五一”、“十一”等重大节假日及暑期等安全大检查6次，定时巡查学生宿舍，及时收缴管制刀具等30多件，严格制止乱拉乱接电线现象，将安全隐患消灭在萌芽状态。在放假时，以学校名义', '一封信，强调节假日期间安全事项，尤其是杜绝学生游泳，防止交通事故的发生，深受家长的称赞，完善了校园监控系统对校园的重要部位纳入监控范围。', '充分利用班会、两操、晚自习等事迹，为师生宣讲安全知识，加强与见家长沟通联系，用先进的网络形式（微信）将学生在校学习生活情况及时反馈给家长，坚持家访制度，一年来，家访学生人数达800多人，使部分辍学的学生回到校园完成学业。一年来，积极与辖区派出所联系，争取派出所在工作上给予大力支持，我校还邀请辖区派出所和社区相关人员进校园进行法治讲座教育5次，邀请市消防局专家进校园举行消防知识讲座，提高了全校师生的安全意识，加强学生周末的监管力度，每周六上午，班主任会跟学生家长电话告知或', '学生是否回家，留校学生必须在晚上21:00之前返校，值日领导和值日人员周末晚上到学生宿舍清查，确保学', '学校根据专业建设现状，加强科研管理和管理队伍建设，以省市技能竞赛为依据，查找不足，在科研管理方面狠下功夫，取得了一定进展和变化，从而也建立了一支相对稳定的专业教师管理队伍。', '学校已形成教务管理系统、OA管理系统，利用网络化信息平台，从纸质化与传统的管理模式提升到通过利用微信、钉钉软件平台，交流沟通和工作汇报，所有教师都能用信息化手段进行教学，提高了信息化管理水平。', '我校坚持“育人为本，德育为先”原则，突出中等职业学校的特点，体现职业特色。着重对学生进行职业道德及公民道德的教育和培养，成立了学校德育工作委员会。实行德育工作校长、负责制，分管校长首问制，班主任责任承包制。德育课程按要求开设了职业道德、职业生涯规划、法律常识、红色文化等，学校德育工作坚持贴近生活，贴近实际，贴近学生。', '校园文化建设、文明风采开展得有声有色，校内制作了创建文明校园的宣传栏，用图文并茂对优秀教师、优秀学生张榜表彰，形成了一种赶学先进的良好氛围，墙壁上的名人名言时刻在鼓励和鞭策全体师生，用自己的实际行动，为创建文明校园献计出力。校园内的好人好事也层出不穷，有的教师利用休息时间为学生补课，慷慨解囊为贫困学生伸出经济援助之手，帮助他们度过经济困难；有的学生帮助学校清理卫生死角垃圾，不怕脏，不怕累........全体同学积极参加文明风采活动，文明风采作品获得多项奖励。', '为加强校园管理，锻炼学生的能力，充分发挥以学生会，校卫队，团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开4次学生会、校卫队会议，认真听取他们对学校工作的意见和建议，鼓励他们大胆工作，为学校的发展出谋划策，确保了校园环境卫生、安全、食堂学生就餐的秩序等常规工作、顺利开展，同时纠正了校园内违纪情况，化解了校园内学生闹不团结现象。培养了学生“自我管理、自我服务、自我参与、自我教育”的能力，全面提高了学生自主管理意识。', '校团委非常重视学生的文体生活，全面推进和加强素质教育，以大型活动为载体，组织开展了主题鲜明，内容丰富多彩的校园文体活动，组建各种社团组织12个，发现和挖掘人才，展示学生的', '风采，丰富学生的课余活动。一年来，成功举办了“新声飞扬，律谱青春”校园歌手大赛和“主持现在，把握未来”主持人大赛、“好习惯，益终身”演讲 比赛、“团结就是力量”拔河比赛、“众人一条心绑腿比赛”、“校第十六届秋季田径运动会”，各班举行了“创文明城，做文明人”黑板报比赛和“九一八”勿忘国耻全体同学默哀肃立激发爱国热情，开展了“厉行节约，拒绝舌尖浪费”的光盘行动，并组织部分学生，在签字红', '上签署自己的名字，成效显著，组织20级新团员举行新团员宣誓，19级各班举行了红歌为主题的班歌比赛，18级各班进行了专业技能表演，做到了人人上阵，个个参赛，锤炼了学生团队意识，使学生的集团荣誉感普遍得到了提高，团市委、团区委对我校团建工作进行了专题调研，对我校的团建工作给予了高度评价并提出了殷切希望，为今后进一步推动我校的团建工作将起到很大的鼓舞作用。', '我校是宜春市民办职业学校第一个设立有党支部的学校。为了彰显支部的战斗堡垒作用，党支部不断加强自身建设，按照“三会一课”、“两学一做”的要求，提出了“一帮三”活动，每名党员与三名家庭贫困，表现优秀的学生建立扶贫关系，从思想上、生活上、学习上，予以关心，帮助他们顺利完成学业。使他们深受鼓舞，', '的温暖。经报请宜春市经开区党工委批准，支部在8月份进行了改选，新的支部在党建工作上既保持了优良作风，又有创新的举措。本年度共召开党员大会八次，党员民主生活会三次，组织全体党员和入党积极分子分两批到宜春市经开区进行了为期四天的“学习十九届五中全会精神”的培训班。参加培训的党员和入党积极分子在政治思想觉悟上普遍得到了提高。党支部2020年11月16日组织全体党员、入党积极分子和部分非党教职工赴铜鼓秋收起义庆祝馆、毛泽东遇险地接受红色教育，大家从思想上得到了一次升华。“七一”期间，评出优秀党员6名，党员优秀先锋岗4名。每名党员都自觉地下载学习强国软件，坚持利用工作之余认真学习，积分稳步上升。本年度吸纳了5名同志为入党积极分子，经上级党组织批准，有2名同志光荣的加入了中国共产党，成为了一名预备党员。通过一系列的党员活动，增强了党员的“三感”即荣誉感、使命感和责任感意识，党员讲奉献，讲带头作用得到体现，形成了党员教师做教学能手，机关党员身先士卒的良好氛围。', '，校企联合办学，与宜春职业技术学院联合举办了“中高职对接”学前教育、计算机应用。中高职对接大专班，与宜春昌黎教育投资集团有限公司、广东美晨通讯有限公', '科技、飞扬网络等企业建立了校外实训基地，上述企业专家和学校资深教师共同组成各专业教育指导小组。校企建立起有效工作机制，形成校企共同制定培养方案，共同承担专业教学任务。企业指派专业指导人员对学生进行顶岗实习、实践、学校专业老师为企业进行产品质量控制、品牌运作、市场营销等技术讲座，相互推进新技术、新工艺、新材料、新经验等实践活动。', '开展“订单”培养：学校与省内和本地多家幼儿园开展了“订单”培养人才计划：与广东、福建、浙江、江苏、上海等多家企业签订了用人协议。确保学生毕业后80%以上专业对口就业。', '①学生实习无违反“六不得”情形，未违规使用劳务中介组织实习活动；未安排学生从事有较高安全风险的实习内容，学生实习期间有加班，但无夜班作业情况。', '③学生实习前，均已实习单位签订了校企合作协议，也与学生签订了实习协议，明确各方、各自权益。', '⑦学生实习期间，按上级规定要求明确了实习学生、带队负责人、指导老师、实习单位等安全职责，重点扎实了安全工作，无一重大安全事故。', '我校以国家普通话等级考试和国家计算机应用水平等级NIT考试作为1 X的试点。经江西省考试中心和宜春市语委会，宜春', '教研室相关专家现场考察，认定我校可单独设立全国普通话等级考试和国家计算机应用水平等级（NIT）考证考场，通过两个国家层面的考证考试，一方面可检验我校的教学质量，另一方面，可使学生取得两个证书后，就业时具备更好的条件。今年参加普通话等级考试的学生人数近425人，95%以上的参考学生获得国家认可的普通话等级证书，其中达到二级甲等水平有20%，受到了相关部门的高度称赞。参加', '国家计算机应用水平等级考证的学生人数达200多人，95%的参考学生获得了等级证书。', '宜春职业技术教育中心隶属于昌黎教育集团，该集团下有：宜春市昌黎教育学校、丰城市昌黎教育学校、宜春职业技术教育中心、昌黎幼儿园、昌黎艺术培训学校等多个学校。我校现有在校生5000余人，专业12个。学校在上级主管部门文件精神和指导下，积极探索多元化办学体制和办学模式改革，探索行业企业及社会各方参与学校办学的机制，推进校', '宜春职业技术教育中心创建之时，宜春市委市政府明确提出学校要成为宜春市中等职业教育的品牌学校，带动宜春市中职教育发展。学校在这一精神指导下，积极探索多元化办学体制和办学模式改革，探索行业企业及社会各方参与学校办学的机制，推进校', '学校建立宜春职业技术教育中心、行业企业和初级中学“三位一体”的办学集团。办学集团将学生输入、培养及输出构成有机整体，形成教育发展产业链。目前成员单位有昌黎集团、江西苏强格液压有限公司、天沐温泉大酒店等50多家企业和90多所初级中学。各成员单位通过协议各司其职，各得其利，保证产业链条高效运作，不仅解决了我校办学的入口问题，而且更好地解决了学生的出口问题。', '达到其在校毕业生的一定比例（乡镇学校5%，市区学校10%）。初级中学的主要权利是分享中职学校的办学效益。根据初级中学送生情况计算积分，每送学生一个计算150个积分。年终集团办学总结会上公布各个成员的积分和效益分成，初级中学根据效益分成可以向中职学校申请采购教学办公设施设备，也可申请相应的经费用于组织教师外出培训。同时，按照中职学校', '师资培训规划定期派出人员到中职学校参加学习提高培训。而中职学校的主要责任，一是主动承担协助成员初级中学加强师资队伍建设。每年安排初级中学领导、班主任和教师定期到中职学校参加学习培训，中职学校负责邀请专家教授讲学。江西师范大学教授、省督学等15位专家教授，所有成员学校领导教师均到会听讲座，取得了不错的效果。二是文化输送。组织优秀师生文艺节目参加成员学校的“元旦”或“五四”文艺晚会，带动成员学校的文化发展。三是扶贫助困。每年6月份开展手拉手活动组织中职学校部分家庭经济条件好学生献爱心，捐钱捐物，师生一起到成员学校帮助困难学生，解决他们的实际困难。', '这是学校与企业无缝对接最直接的一条有效途径。学校根据企业的订单要求为企业培养输送人才，同时企业在课程设置、师资建设、实', '等方面给予全力支持，毕业后直接进入企业工作。江西苏强格液压有限公司已经与我校达成了合作办学协议，共同举办', '苏强格专班，设有数控、模具、电子商务、物流等专业，2018年共计招生600人，计划到2019年将招中兴企业特色班学生1500人。此外学校还设有学前教育、酒店管理、特种防卫等特色专班。', '学校根据教育部的文件精神和学校的办学定位，提出“一二六”学生社会实践学习模式：学生一年级安排一周见习；二年级安排两个月生产实习；三年级安排六个月顶岗实习。尤其是二年级的', '酒店、苏强格等50个企业建立了实习实践基地，每年安排约3000人实习。在实习过程中，学生的组织纪律、团队精神等深受企业赞赏；经过企业实习，学生实习回来精神面貌明显改善，职业道德得以加强，专业技能得以提高，社会认识更为理性，对自己有了更加明确的定位，处理问题更显成熟。', '中职学校把企业经理、技术骨干纳入学校教学改革委员会。一方面定期举办研讨会，听取企业人士对制定专业人才培养方案、构建课程体系、课程资源建设、实训基地建设、顶岗实习、毕业就业等方面的指导意见，为学校教学改革发展找准方向，紧跟企业与社会需求，紧跟社会发展步伐。另一方面，邀请他们走进学校，对学生进行有针对性的实操培训指导。', '除企业专班采用订单式培养集中解决学生就业以外，每年6月或12月，我校举办大型现场招聘会，组织企业尤其是合作企业到学校设点招聘我校毕业学生。', '我校的集团化办学框架基本形成，学校近期还将在校办企业等方面展开探索，力争进一步完善教育发展产业链，以学校为主体，实现“招生入口旺、就业出口畅”的目标，促进办学集团的可持续', '发展。我校寄托了广大群众的厚望，任重道远，全体师生将大胆改革，锐意进取，朝着江西省中', '我校办学二十多年来，为社会培养了大批的合格技能人才，为经济建设，特别是地方经济建设，', '了较大贡献。我校毕业生在不同的岗位上表现了良好的职业素养和不俗的精神风貌。有大批的毕业生成了单位的技术骨干。', '我校面对今年的突如其来的新冠肺炎疫情，采取积极应对措施，根据上级有关部门要求，制定了科学有效的防疫措施，成立了防疫领导小组，举行了防控演练，备齐了防疫物资，及时填报和上传各种数据，实行错峰开学，做到了闭环管理，校园进行了彻底的卫生大扫除，消除卫生死角，确保校园环境卫生整洁，主要场所每天安排', '我校认真贯彻落实党和国家关于中职教育的方针政策，对于政府给予的扶持学校发展的所有经费全部用于学校的教育教学管理等其他校园建设上，并且主动想办法提高学校的办学水平，争取获得政府认可的项目并且积极想办法筹措资金，用于改善办学条件，力争学校上档次，创品牌，办成一所高水平的现代化职业学校。', '：根据我校实际，举办学校教师教学论文和多媒体课件评选活动。此次活动能够反映学校重视培养优质的师资力量，夯实教师队伍的根基，在摒弃传统教学给教师和学生带来的消极影响的同时，主要抓住三个发展方面：', '①由于家长、学生普遍存在“上高中、考大学”和“上不上高中去打工”的传统观念，招生存在困难。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>126</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>江西长江科技中等专业学校年中等职业教育质量年度报告</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-03-13</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zyjy/202103/69f1687dc90443328554d523fe78c501.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['江西长江科技中等专业学校是2004年3月经江西省人民政府批准在江西长江理工专修学院基础上设立的省级重点中等职业学校。学校管理科学，制度规范，组织机构健全，设有董事会，监事会，校委会等组织机构，且是宜春市民办学校第一个设立有党支部，校工会组织的学校。学校现有在籍学生', '人，已成为宜春市民办学校办学规模最大，校园设施最全，师资力量最强的一所中等专业学校。', '近年来，在上级主管部门的正确领导下，学校全面贯彻党的教育方针，坚持社会主义办学方向，与时俱进，开拓创新，牢固树立为经济和社会发展服务办学指导思想，坚持为当地经济建设和社会发展服务的办学宗旨，以市场为导向，以质量求发展，以教学为中心，强化技能训练，狠抓教学质量，加强学校管理，促进招生安置，优化后勤服务，加大校园建设，抓特色，求发展，实现了规模，质量，效益同步增长。2006年以来，学校先后荣获教育部等13个部委授予的第五届全国“千校百万”进城务工青年培训工作先进集体和全国职业教育半工半读试点院校，中华全国总工会授予全国职工教育培训点，全国教育科研先进单位、共青团中央授予青年就业创业见习之地、全省十大培训之地、全省中等职业学校德育工作先进集体、江西省中等职业学校毕业生就业工作先进单位、江西省重点中等职业学校、江西省第一批达标中等职业学校、中央财政支持的数控实训基地等诸多国家级、省部级荣誉。', '万平方米，学校建有校内实习工厂，并配有先进的数控模具机器设备，是中央财政支持的数控实训基地，建有二栋现代化的教学大楼，有120个教室，可容纳学生近7000人，学校资产达7272.4万元，所有教室均是多媒体教室，可进行信息化教学，并建有10个微机房，', '训室，语音室等，有教工阅览室和图书资料室，藏书14.5万册；学生公寓6栋，宽阔整洁，干净的学生食堂一栋二层，可同时容纳1000人就餐，有画室、舞蹈练功房、琴房；400m标准塑胶田径场，标准化篮球场等，校园绿树成荫，鸟语花香，置入校园，赏心悦目，无形中给学生注入了学习上一股强大的动力，学校软硬件设施完全能满足教学需要，近三年还准备投入大量资金用于改善和更新学校的教学设备和校园环境，以更好地适应教学工作。', '人，毕业生人数为1173人（2017级），生源主要以本地为主，周边县市也招收了一部分学生（以万载县、萍乡市为主），大多数学生来自农村，年龄偏小，基本上是应届初中毕业生，在中职学校招生困难的严峻形势下，2020年招生人数达', '聘教师等措施，逐步充实教师队伍，提高教师整体素质，师资队伍结构趋于合理，现有专任教师', '专任教师本科以上学历比例为80%，专任教师高级职称教师比例为11%。与上年度相比基本持平。', '学校开设会计、模具制造技术、计算机应用、数控技术应用、汽车运用与维修、旅游服务与管理、酒店服务与管理、美容美体、美术设计与制作、铁道运输服务与管理、通讯营运服务与管理、电子商务等15个专业，其中数控技术应用和计算机应用专业是市级精品专业。', '社会主义核心价值观，紧紧围绕“规范、高效、创新、服务”，工作新思路，实施做人与做事同学，技能与素养同修，成人与成才同步的“三同”育人模式，把“三同”融入到课程设置，日常教育教学和管理，校园文化建设等学校教育、管理和活动中，以学生学会做人为前提，培养学生学会做事的能力。在培养学生职业技能为核心的同时，注重学生职业素养的培养；在培养学生具有良好思想品德的同时，使每一个学生都学到一技之长，成为对社会有用的人。实现了成人与成才同步的目标，促进了学生德、智、体、美、', '学校十分重视思想政治教育，特别注重新生的入学教育，大多数学生思想政治道德素质得到提高，行为习惯得到改善，学习目的明确，态度端正，能客观认识自我，重树信心，展示个性。按上级规定，每班都开足且上好了体育课，早上有晨跑，', '做操，学校经常组织学生参加体育活动，保证大多数学生每天1小时体育锻炼，增强体质。学生的健康标准达标率均在98%以上。圆满完成了学生体质测评数据的网上提交上传，能按教育部《关于印发新修订的中等职业学校语文等七门公共基础课大纲的通知》要求，开设《语文》、《数学》、《英语》、《计算机基础》、《红色文化》等基础必修课程，文化课合格率在90%以上，根据市场对技能人才的需求和学生的实际情况，学校完善了各专业学生应达到的技能标准。大多数学生都具备了应用所学专业的相关知识解决工作与生活中实际问题的能力，毕业生取得了所学专业由劳动等有关部门颁发的技能职业资格证书，合格率达90%，2020年学校毕业生为2017级学生，通过毕业会考和顶岗实习检验，全部学生均顺利毕业。', '学校坚持党的教育方针和“以服务为宗旨，以质量为根本，以就业为导向”的职业教育办学方向。充分体现“尚德尚能，自立自强”的校训，学校发展目标与规划适应经济发展需求，学校以教学为中心，以技能教学为重点，进一步深化教学改革，加强对专业课教学的管理，加大学生实验实训力度。一是充分发挥现有实习场所的作用，能进实验室上的课一律到实验室上；二是加强了对实验室的建设和管理，充', '实了实验室人员，明确了职责分工；三是学校聘请了部分校外老师及企业技术骨干作为专业教师和实习指导教师。同时学校不断加强校园文化建设，创设了多处具有教育意义的人文景观和文化氛围，经常组织开展内容丰富、文艺、体育等校园文化活动。把德育、智育、体育、美育渗透到校园文化活动之中。大力鼓励引导学生积极参加学生会、团委、校卫队等社团组织竞聘，组建各种学习兴趣小组和学生社团，通过开展形式多样，健康向上的社会活动，为同学们培养兴趣，发展个性和展现自我搭建了舞台，为了营造一个温馨的生活环境，学校想', '资金对现有的生活设施进行了改造和改建，所有学生宿舍都安装了空调，保证了学生宿舍24小时供应热水，使学生在校学习生活有如到家的温暖。新增了一些运动场地，添置了运动器材，为学生课余体育锻炼提供了较好的条件，学校把安全放在首位，完善了校园监控设备，制订安全相关制度和措施，确保校园和谐平安。毕业生对母校有深厚的感情，有共同的心声：感谢学校培养了我。通过对学生进行问卷调查的形式，收集学生各种反映，学生对学校的满意度良好，理论学习满意度为98%，专业学习满意度为97.5%，实习实', '一年来，我校贯彻落实国家和省、市、区有关学生资助的政策，对受助学生进行张榜公布，做到公平、公开、公正，并将江西省关于资助工作“十不准”发放到各班进行宣传，并在每个班级教室墙上张贴，让每个学生都了解国家的资助政策。免学费和助学金发', '实到位，对建档立卡的贫困学生按国家政策已将资助金发放到每个学生手中。针对由各乡镇临时发函告知的建档立卡户学生，学校垫付资金向他们发放了助学金，保证了这些贫困学生能够顺利完成学业。使他们', '2020年学校毕业生为2017年入校的学生，毕业生人数为1173人，就业率为96%，对口就业率为88%。就业工作的地方大多为沿海发达地区，起薪工资大约为3500元/月左右（就业单位免费提供工作餐和住宿），从目前反馈的信息，学生已适应了工作环境和工作岗位，对所从事的工作比较满意，大多数都能安心工作，流失率较低，有部分学生也自己在创业。为了提高自己的素质，有的学生不断为自己充电，参加了各类培训班的学习，有一部分学生毕业后参加了成人高考和远程网络高等教育，与2019年相比，升入高等教育呈上升趋势。', '计划，科学开设职业生涯指导课程，使学生树立正确的人生观、价值观、世界观、就业观。通过理论学习和', '，提高了学生在进入工作岗位后能尽快适应岗位对工作能力的要求，并坚持通过强化人文素质，职业技能创新创业能力，培养学生的职业岗位迁移能力。', '为适应区域经济发展的需求，我校建立招生、培养、就业的联动机制，选取“社会需要、初次就业率、专业评估排名”等作为主要评', '价指标，建立了专业结构动态调整机制，根据评价指标对各专业招生计划实行动态调整，形成倒逼机制，着力促进各专业强化内涵建设，努力提升应用型人才培养质量。', '采取了四大举措对现有专业进行动态调整：一是组织对全校各专业建设情况进行评估，公布相关数据，作为专业动态调整的决策依据；二是将各专业的招生就业情况、人才培养质量作为主要依据，建立专业预警与退出机制；三是根据各专业发展情况对年度招生计划进行调整，动态控制专业规模；四是以学校发展规划为引领遴选新增专业，并建立严格的准入机制。', '我校将继续优化专业结构动态调整机制，包括以就业为导向的招生计划调整机制，以厚基础、宽口径为特征的人才培养机制，以市场需求为导向的课程调整机制，促进专业结构优化和办学特色培育，不断提升应用型人才培养与区域经济社会发展的契合度。', '以培养适应生产一线需要的应用性和实用性人才为根本任务；以企业的实际需求为目标，以技术应用能力的培养为主线设计教学体系、制定培养方案。以“应用”为主旨和特征构建课程和教学内容体系，基础理论教学以应用为目的，以“必需、够用”为度，改善课程体系，专业课教学加强针对性和实用性。以培养学生的技术应用能力为目标构建相对独立的实践教学体系，加大实践教学学时在总学时中的比例。不断更新教学法内容，加强校内外专业实训基地建设，并与省内外企业签订长期合作协议，建立稳定的校外实习基地，积极探索校企合作，产教融合，共同培养应用性人才的新路子。规范实训教学，', '学校实行“专业加特长”、“学历加技能”的人才培养模式，实现了“教学-实训实习-安置”一体化，现已建立了机电、电子、计算机、数控模具等专业实习（训）基地，并先后与长江三角洲、珠江三角洲等大型企业建立了长期人才培养合作关系或签订了实习、就业合作协议。建立了教、学、做一体化人才培养模式。', '、校企联合办学。与宜春职业技术学院联合举办了相关专业中高职对接，与上海晨光文具联合设立了“晨光班”、与杭州移动公司联合设立了“移动客户服务班”。', '一年来，我校坚持以服务为宗旨，以就业为导向，以质量求生存，以“让中职生成为一个合格的技术工人”为抓手，着力提升我校教育质量和人才培养质量。', '重构符合学生不同学习基础、学习需求和发展趋势的公共基础课程体系。包括三大模块，一是为提高学生的文化基础素质打基础的公共模块部分，二是为学生进行专业学习和形成职业能力打基础的专业模块部分，三是为学生继续学习深造、接受终身教育和终身学习打基础的发展模块部分。选择具有个性化的课程组合，重新构建学生的文化基础，按需施教，通过学分制的教学管理制度，使每一位学生都能找到适合自己的课程。', '本培训为主，并选派教师参加国培和省培，提高师资整体水平，规范教师的教学行为，推进教师的探究化教学，使专业理论课教师在创新课程模式、改革教学内容、创新教学方法、核心课程教材建设等方面均有大幅度提升。', '②打造一支优秀的教师队伍。通过教学模式的改革，促使教师对课程模式，课程结构，教学内容，教学方法，教材改革进行一系列的优化，从而使教师的教学能力，实践能力，职业技能显著提高，并以“雨课堂”手机APP为培训平台的培训模式，大大提高了教师队伍的素质，教师队伍建设有了长足进步。', '我校专业建设以学校《关于专业人才培养方案修订的指导性意见》为总纲，在创新人才培养模式，全面提高技术技能人才培养质量，推进教学改革等方面做了以下尝试：', '紧密围绕培养学生岗位职业能力这个基点，以“工学结合”为切入点，注重教学过程的实践性、开放性和职业性，抓住实验、实训、实习三个关键环节，探索具有本专业特点的人才培养新途径，引导课程体系、课程内容和教学方法改革，形成了具有鲜明特色的人才培养模式。', '以计算机应用技术、数控技术、铁路运输与管理专业为引领，带动其他5个专业完成人才培养具体模式的提炼，并付诸实践。', '依据岗位职业能力训练与培养要求，提出了教学计划修订的四条原则：一是突出适应性、实用性及针对性；二是统筹兼顾与突出重点相结合；三是校企合作、工学结合；四是统一与特色相结合。', '遵循四条原则，各专业课程按基础课程、专业课程、实践课程和拓展课程四个模块进行了课程体系重构，重点突出了专业与技能课程，形成了以工作过程为基础的课程体系、以岗位职业能力为依据的课程标准、以岗位工作任务为载体的课程内容，实现了课程体系和课程内容的创新。', '突破以教师、课堂、教材为中心的教学模式，根据课程教学特点，推广工学交替、任务驱动、项目导向等教学模式，推动教学做一体化，推行案例教学、项目实践、现场观摩、情景教学、问题教学等以学生为主位，师生互动的教学形式，倡导启发式、研究式、讨论式等教学方法，积极采用现代教育技术和教学手段开展课程教学，丰富教学载体，提高教学效果。', '围绕教学方法和手段改革，我们每学期都开展了15—20场公开观摩教学活动，相当多的老师，尤其是青年教师运用多媒体等教学手段，创新教学方法，取得了良好成效，营造了互学的教学氛围，推动了教学特色的形成。', '改革考核制度，注重过程和能力考核；推行“专业技能达标”制度，强化职业技能训练考核；采用多元化方式，加强综合实践能力考核。广泛采用现场操作、作品展示（成果演示）、方案设计、案例分析、职业技能鉴定、社会实践等多元评价方式，开展以能力考核为主的考试考查方式改革，积极探索具有特色的技能型人才评价机制。', '一个目标、两个面向、三项原则、四个突出。一个目标：培养目标是造就一大批服务于生产第一线', '的高素质的应用型人才。两个面向：面向社会、面向人才市场，服务于市场经济建设和社会发展的需要。三项原则：应用型人才培养就是要强化“基础性、应用性、实践性”，办出应用型特色。四个突出：突出技术应用能力本位的教育思想；突出“教师为主导、学生为主体”的教学理念；突出学生全面素质的提高；突出可持续发展能力和创新能力的培养。', '近年来，我校的教育教学质量不断提高，办学品位不断提升，这得益于现代信息化教育技术的广泛应用。我校在各级领导的大力支持下，逐年增加资金用于添置信息技术装备，特别是在创建数字化校园中，我校按照', '为每个教师、功能室配备了多媒体系统、视频展示台，新建了网络机房，为每个教师配备了计算机，实现了网络终端到每个教室、办公室，实现了教育教学的现代化，提高了课堂教学效率，推动了教育教学质量稳步提高，提升了学校档次，进一步增强了学校的核心竞争力。', '培养学生的实际动手能力是中等职业学校工作的重点。传统的教学模式因过于强调课堂教学和学生对书本理论知识的掌握而忽视了实践教学的作用，往往与职业教育特色不完全相符。为改变这种状况，弥补传统教学模式的不足，学校根据专业特点创办各类实训中心，使书本知识在实训中具体化、形象化，在“动”中强调学生的学习热情，使学生所学专业理论和专业技能得到综合应用，进而把理论转化为一种实际操作能力。另外，就所学专业理论和人际沟通技巧开展诸如技', '能竞赛、义务维修、社会调查、义务服务等活动，使学生所学专业知识能够学以致用，从而调动了学生的积极性和主动性，充分培养了学生的专业能力、社会能力和创造能力，也为理论知识的调整、完整、升华提供依据。学生在实际运用中，明确了自己的任务、工作性质、责任以及应该具备什么样的水平和道德品质。 这种教学活动无疑培养了学生创造能力。同时我们积极组织各种活动和丰富多彩的第二课堂，培养学生创新能力。', '我校坚持以专业为基础进行数字化教学资源的建设和组织，实现教学资源的共享、共用。学校教学资源主要由互联网上获取和学校教师自己的资源。', '教务处、信息中心对学校教学资源加强管理，充分发挥教学资源库管理员的技术，不断对学校的资源库进行维护更新，保证了资源实用、科学。教学资源为教师提供了资源和服务，提高了教师的工作效率，促进了信息技术与学科教学的深度融合，提高了课堂教学效果，促进了学校教学工作的全面提升。', '我校教材选用严格执行教育部《关于进一步加强对中等职业教育教材管理工作的通知》要求，进一步规定教材的使用和管理工作，严格按规定使用教材，坚持做到四个原则即方向性原则；适用性原则；选编结合的原则；管理有序的原则，严把教材质量关，凡未经教育部全国教材审定委员会审定通过的教学书籍一律不得作为教材使用，地方教材和校本教材择优选用。', '一年来，在学校领导高度重视下，在学校各有关部门的通力配合支持下，教务处组织了对全体教师进行培训，广大教师积极参与培训，教师的整体素质得到了提高，我校教师培养培训工作取得了一定成绩。', '（1）重点对今年新入职教师举行了如何备课、书写教案、如何更好进行课堂教学等教学基本功讲座4次。', '（3）制定了教师发展目标，成立了专业教研室6个，落实了培养新教师的任务，制定了一帮', '（4）加强校本培训，发挥骨干教师，教学能手的示范引领作用，形成教师互相学习交流的良好教学氛围。一年来，组织公开教学30多次，示范教学10多次，起到了取长补短，相互促进的效果。', '（5）学校利用工作间隙组织中层管理人员赴宜春职业技术学院、江西省高级轻工业学校实地考察学习兄弟学校的管理经验，逐步引导管理人员向高效、严谨、正规看齐，为学校可持续发展打下了扎实的基础。', '随着学校发展的不断壮大，对教学管理、科研管理、管理队伍建设以及管理信息化水平提出了更高的要求，逐步形成了规范化、流程化与创新化的管理模式。', '根据学校制定的《关于规范教学管理办法的意见》、《教师量化考核管理细则》、《教师职业素养十项要求》等规定，狠抓日常教学管理，每月开展月度教学检查，对每个教师的教学情况用数字进行量化，将结果公布评选出月度考核优秀教师、称职教师、基本称职教师，并与绩效工资挂钩，在一定程度上规范了教学管理，增强了教师的工作责任心。', '严格执行教育部关于《中等职业学校学生实习管理办法》的规定，成立了实习管理领导小组，由招就处具体负责学生实习的相关事项，学生实习做到了由学校和实习单位共同组织和管理，共同制订实习计划。维护学生的合法权益，确保了学生在实习期间的人身安全和身心健康。', '根据我校学生的现状，对班主任、学生、班级建立了有效管理制度，在工作中，严格执行《班主任工作量化考核细则》、《班级月评估》、《学生违纪处罚规定》等制度，通过制度提高班主任的工作责任心，规范学生的行为习惯。', '学工处从培养学生道德文明入手，狠抓学生的思想工作，特别注重新生的入学教育，学工处印制了入学教育手册，发放学生人手一本，在军训期间，利用教育手册对新生进行全面的养成教育，引导学生转变观念，规划人生，树立信心。在学生中进行行为规范教育，让他们', '能看到自己的优势和长处，鼓励他们以崭新的面貌迎接自己人生的一大转折，养成文明行为习惯，为此学工处利用国旗下的讲话，主题班会和晚自习时间，召开学生大会、男生学生大会、女生学生大会、待进生大会，加强理想前途教育，促进其人格健全，心理健康，克服自卑心理，改掉懒惰，散漫的不良行为，使学生充分认识到行为规范和养成教育的重要性和必要性，提倡他们从小事做起，从我做起，从现在做起。让学生牢固树立细节造就成败、态度决定一切、知识改变命运，技能出彩人生的思想，通过会议和一系列行之有效的工作，学生的精神面貌有很大改观，对违犯校纪校规的少数学生，班主任与学工处找其谈话做耐心细致的工作，并与家长沟通，已取得家长对学校工作的大力支持，尽量感化他们改正缺点，端正态度。一年来，学工处化解学生纠纷多起，找学生谈心100多人次，劝退学生9人，留校查看19人。通过整顿校风，学校的学习风气有很好的转变，爱学习的人更多了，贪玩的人更少了，听课的人更多了，贪睡的人更少了，卫生环境更好了，乱吐乱扔更少了，违纪违规更少了，团结友好的气氛更浓了，校园充满一片生机勃勃景象。', '③开展“文明寝室”、“优秀班级”、“学习标兵”等评比活动，通过多种形式培养学生积极健康向上的思想境界，制订“文明寝室”、“优秀班级”、“学习标兵”评比方案，对评选出的文明寝室、优秀班级、学习标兵在集会时，由学校领导颁发锦旗和荣誉证书。让学生在学先进、赶先进、争先进的气氛中得到成长。', '团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开4次学生会、校卫队会议，认真听取他们对学校工作的意见和建议，鼓励他们大胆工作，为学校的发展出谋划策，确保了校园环境卫生、安全、食堂学生就餐的秩序等常规工作、顺利开展，同时纠正了校园内违纪情况，化解了校园内学生闹不团结现象。培养了学生“自我管理、自我服务、自我参与、自我教育”的能力，全面提高了学生自主管理意识。', '手续，制定了《学校财产管理办法》、《财务制度管理办法》职责明确，责任到位，对学校教学用品，教学实习实训设备，生活设施等公共财产登记造册，建立', '经过不断深入细致的修订完善，已形成一套完整的安全责任制度，制定了“公共场合和大型集会安全管理制度”、“宿舍、门卫管理制度”，学生必须凭校牌进出校门，外来人员进校必须凭有效证件进行登记。“实训设备安全操作流程制度”、“公共突发事件应急方案”、“食品安全卫生制度”等为全校师生提供了制度保障，学校安', '排了行政值日，每天由一名校领导带班，全天候，全方位，无死角对学生进行监护，发现问题及时处理，不留隐患。行政值日通报采用无纸化形式，在钉钉平台上将值日情况进行通报，共发布行政值日通报300多份，全面系统反映了学校的各种情况，实事求是指出了存在的问题，提出了整改意见和建议。为加强学校管理提供了有参考价值的资料。', '安全和消防设备等隐患重点排查，学校组织开展了“五一”、“十一”等重大节假日及暑期等安全大检查6次，定时巡查学生宿舍，及时收缴管制刀具等30多件，严格制止乱拉乱接电线现象，将安全隐患消灭在萌芽状态。在放假时，以学校名义', '一封信，强调节假日期间安全事项，尤其是杜绝学生游泳，防止交通事故的发生，深受家长的称赞，完善了校园监控系统对校园的重要部位纳入监控范围。', '充分利用班会、两操、晚自习等事迹，为师生宣讲安全知识，加强与见家长沟通联系，用先进的网络形式（微信）将学生在校学习生活情况及时反馈给家长，坚持家访制度，一年来，家访学生人数达2000多人，使部分辍学的学生回到校园完成学业。一年来，积极与辖区派出所联系，争取派出所在工作上给予大力支持，我校还邀请辖区派出所和社区相关人员进校园进行法治讲座教育5次，邀请市消防局专家进校园举行消防知识讲座，提高了全校师生的安全意识，加强学生周末的监管力度，每周六上午，班主任会跟学生家长电话告知或', '学生是否回家，留校学生必须在晚上21:00之前返校，值日领导和值日人员周末晚上到学生宿舍清查，确保学生安全，如发现学生未在校，马上与班主任核实学生去向，并通知家长。', '学校根据专业建设现状，成立了6个专业教研室，以教研室为龙头，加强科研管理和管理队伍建设，以省市技能竞赛为依据，查找不足，在科研管理方面狠下功夫，取得了一定进展和变化，从而也建立了一支相对稳定的专业教师管理队伍。', '学校已形成教务管理系统、OA管理系统，利用网络化信息平台，从纸质化与传统的管理模式提升到通过利用微信、钉钉软件平台，交流沟通和工作汇报，所有教师都能用信息化手段进行教学，提高了信息化管理水平。', '我校坚持“育人为本，德育为先”原则，突出中等职业学校的特点，体现职业特色。着重对学生进行职业道德及公民道德的教育和培养，成立了学校德育工作委员会。实行德育工作校长、负责制，分管校长首问制，班主任责任承包制。德育课程按要求开设了职业道德、职业生涯规划、法律常识、红色文化等，学校德育工作坚持贴近生活，贴近实际，贴近学生。', '校园的宣传栏，用图文并茂对优秀教师、优秀学生张榜表彰，形成了一种赶学先进的良好氛围，墙壁上的名人名言时刻在鼓励和鞭策全体师生，用自己的实际行动，为创建文明校园献计出力。校园内的好人好事也层出不穷，有的教师利用休息时间为学生补课，慷慨解囊为贫困学生伸出经济援助之手，帮助他们度过经济困难；有的学生帮助学校清理卫生死角垃圾，不怕脏，不怕累........全体同学积极参加文明风采活动，文明风采作品获得多项奖励。', '为加强校园管理，锻炼学生的能力，充分发挥以学生会，校卫队，团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开4次学生会、校卫队会议，认真听取他们对学校工作的意见和建议，鼓励他们大胆工作，为学校的发展出谋划策，确保了校园环境卫生、安全、食堂学生就餐的秩序等常规工作、顺利开展，同时纠正了校园内违纪情况，化解了校园内学生闹不团结现象。培养了学生“自我管理、自我服务、自我参与、自我教育”的能力，全面提高了学生自主管理意识。', '校团委非常重视学生的文体生活，全面推进和加强素质教育，以大型活动为载体，组织开展了主题鲜明，内容丰富多彩的校园文体活动，组建各种社团组织24个，发现和挖掘人才，展示学生的风采，丰富学生的课余活动。一年来，成功举办了“新声飞扬，律谱青春”校园歌手大赛和“主持现在，把握未来”主持人大赛、“好习惯，益终身”演讲 比赛、“团结就是力量”拔河比赛、“众人一条心绑腿', '比赛”、“校第十六届秋季田径运动会”，各班举行了“创文明城，做文明人”黑板报比赛和“九一八”勿忘国耻全体同学默哀肃立激发爱国热情，开展了“厉行节约，拒绝舌尖浪费”的光盘行动，并组织部分学生，在签字红', '上签署自己的名字，成效显著，组织20级新团员举行新团员宣誓，19级各班举行了红歌为主题的班歌比赛，18开各班进行了专业技能表演，做到了人人上阵，个个参赛，锤炼了学生团队意识，使学生的集团荣誉感普遍得到了提高，团市委、团区委对我校团建工作进行了专题调研，对我校的团建工作给予了高度评价并提出了殷切希望，为今后进一步推动我校的团建工作将起到很大的鼓舞作用。', '我校是宜春市民办职业学校第一个设立有党支部的学校。为了彰显支部的战斗堡垒作用，党支部不断加强自身建设，按照“三会一课”、“两学一做”的要求，提出了“一帮三”活动，每名党员与三名家庭贫困，表现优秀的学生建立扶贫关系，从思想上、生活上、学习上，予以关心，帮助他们顺利完成学业。使他们深受鼓舞，', '的温暖。经报请宜春市经开区党工委批准，支部在8月份进行了改选，新的支部在党建工作上既保持了优良作风，又有创新的举措。本年度共召开党员大会八次，党员民主生活会三次，组织全体党员和入党积极分子分两批到宜春市经开区进行了为期四天的“学习十九届五中全会精神”的培训班。参加培训的党员和入党积极分子在政治思想觉悟上普遍得到了提高。党支部2020年11月16日组织全体党员、入党积极分子和部分非党教职工赴铜鼓秋收起义庆祝馆、毛泽东遇险地接受红', '色教育，大家从思想上得到了一次升华。“七一”期间，评出优秀党员6名，党员优秀先锋岗4名。每名党员都自觉地下载学习强国软件，坚持利用工作之余认真学习，积分稳步上升。本年度吸纳了5名同志为入党积极分子，经上级党组织批准，有2名同志光荣的加入了中国共产党，成为了一名预备党员。通过一系列的党员活动，增强了党员的“三感”即荣誉感、使命感和责任感意识，党员讲奉献，讲带头作用得到体现，形成了党员教师做教学能手，机关党员身先士卒的良好氛围。', '，校企联合办学，与宜春职业技术学院联合举办了“中高职对接”会计、文秘、数控技术应用。中高职对接大专班，与深圳成谷科技有限公司，广东美晨通讯有限公司，上海富士康科技集团公司、', '科技、飞扬网络等企业建立了校外实训基地，上述企业专家和学校资深教师共同组成各专业教育指导小组。校企建立起有效工作机制，形成校企共同制定培养方案，共同承担专业教学任务。企业指派专业指导人员对学生进行顶岗实习、实践、学校专业老师为企业进行产品质量控制、品牌运作、市场营销等技术讲座，相互推进新技术、新工艺、新材料、新经验等实践活动。', '开展“订单”培养：学校与宜春市经济技术开发区入园的相关企业和沿海发达地区的杭州移动公司客户服务中心、厦门新鸿洲精密科技有限公司等企业开展了“订单”培养人才计划：与广东、福建、浙江、江苏、上海等30多家企业签订了用人协议。确保学生毕业后80%', '①学生实习无违反“六不得”情形，未违规使用劳务中介组织实习活动；未安排学生从事有较高安全风险的实习内容，学生实习期间有加班，但无夜班作业情况。', '③学生实习前，均已实习单位签订了校企合作协议，也与学生签订了实习协议，明确各方、各自权益。', '⑦学生实习期间，按上级规定要求明确了实习学生、带队负责人、指导老师、实习单位等安全职责，重点扎实了安全工作，无一重大安全事故。', '我校以国家普通话等级考试和国家计算机应用水平等级NIT考试作为1+X的试点。经江西省考试中心和宜春市语委会，宜春', '教研室相关专家现场考察，认定我校可单独设立全国普通话等级考试和国家计算机应用水平等级（NIT）考证考场，通过两个国家层面的考证考试，一方面可检验我校的教学质量，另一方面，可使学生取', '得两个证书后，就业时具备更好的条件。今年参加普通话等级考试的学生人数近1700人，95%以上的参考学生获得国家认可的普通话等级证书，其中达到二级甲等水平有20%，受到了相关部门的高度称赞。参加', '国家计算机应用水平等级考证的学生人数达700多人，95%的参考学生获得了等级证书。', '我校办学二十多年来，为社会培养了大批的合格技能人才，为经济建设，特别是地方经济建设，', '了较大贡献。我校毕业生在不同的岗位上表现了良好的职业素养和不俗的精神风貌。有大批的毕业生成了单位的技术骨干。', '张莉莉，女，宜春市袁州区新坊镇人，该生2016年入校铁路运输管理专业学习，2018年由学校推荐分配在南昌铁路局厦门客运段从事高铁乘务员工作。该生在校学习态度端正，学习目的明确，学校成绩优异。上岗工作后，做到虚心好学、不耻下问，吃苦耐劳，赢得了领导和同事的一致好评，多次受到了旅客的表扬，该生现已担任乘务班长，月薪达7000多元。', '我校面对今年的突如其来的新冠肺炎疫情，采取积极应对措施，根据上级有关部门要求，制定了科学有效的防疫措施，成立了防疫领导小组，举行了防控演练，备齐了防疫物资，及时填报和上传各种数据，实行错峰开学，做到了闭环管理，校园进行了彻底的卫生大扫除，消除卫生死角，确保校园环境卫生整洁，主要场所每天安排专人进行消杀。我校将把对防疫工作列入常态化管理，做到思想上毫不放松。', '我校董事会和校委会认真贯彻落实党和国家关于中职教育的方针政策，对于政府给予的扶持学校发展的所有经费全部用于学校的教育教学管理等其他校园建设上，并且主动想办法提高学校的办学水平，争取获得政府认可的项目并且积极想办法筹措资金，用于改善办学条件，力争学校上档次，创品牌，办成一所高水平的现代化职业学校。', '：根据我校实际，举办学校教师教学论文和多媒体课件评选活动。此次活动能够反映学校重视培养优质的师资力量，夯实教师队伍的根基，在摒弃传统教学给教师和学生带来的消极影响的同时，主要抓住三个发展方面：', '（2）主旨：帮助学生了解更多关于会计专业中的工作知识，培养其动手能力，调动学生学习专业技能的兴趣，体现学校教、学、做合一的特色。', '③提高会计专业与其他专业的同学的实践操作水平和就业竞争力，为其以后的职业生涯发展奠定专业基础。', '①由于家长、学生普遍存在“上高中、考大学”和“上不上高中去打工”的传统观念，招生存在困难。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>126</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>靖安县三步做好垃圾分类工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/202103/c194e9e3217e478080212d97667beb75.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['\u200b 一是注重宣传培训。积极参加省市举办的各类培训班，举办生活垃圾分类专职管理人员培训班10余期，2000余人参加。印发《宜春市生活垃圾分类管理条例》7500余份、垃圾分类宣传手册10万余份。在城区主干道、商业街等明显位置设置广告牌，在人口密集区域多次开展宣传活动和主题晚会。 二是设置分类驿站。目前，在全县共打造了12处集商品兑换区、旧物置换区、爱心墙及互动学习区等多功能为一体的垃圾分类驿站，驿站的大数据后台管理系统，可以查询居民积分情况，也可以追溯垃圾分类源头。 三是细化分类模式。县域建成区、乡镇集镇、秀美乡村和示范村的垃圾分类按照“双四分”要求开展，强化入户信息采集，每户发放纸质二维码，居民将分类好的垃圾在垃圾（袋）表面张贴二维码后投放到相应分类桶，或用手机“爱分类”专属二维码扫描投放到智能回收箱，经过督导员现场（或巡检）确认，达到准确率后给予相应积分，基本形成“分类可积分、积分可兑换、兑换可受益”的模式。其他行政村因地制宜开展垃圾分类，主要实行“干湿”分类处理。靖安县自开展垃圾分类工作以来，先后荣获2018、2019年度“全市生活垃圾分类和减量工作先进县”称号，江西电视台（五套）、江西日报等多家媒体专题报道靖安县垃圾分类工作，共接待省内外兄弟县市参观考察学习61次。到目前为止，靖安县县实现了生活垃圾分类全覆盖，居民的生活垃圾分类意识明显增强，垃圾分类知晓率不低于90%，参与率不低于85%，准确率不低于80%，形成了垃圾分类共建共治共享局面。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>126</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>宜春财政打造多维平台讲好政府会计改革故事</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-12-23</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202012/85b805d54eca45b0b2a8616d5a0ad179.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['为全面推进政府会计改革落地成效，不断提升预算单位财务管理精细化水平，宜春市财政局围绕基础核算做文章，多维度打造政府会计学习平台。', '主动分享政策动态、业务案例、学习心得、实务要点等，促财务人员化解会计实务瓶颈、制度理解梗阻；积极搭建线下多向交流平台，坚持问题导向，通过外出考察学习、举办实操培训、开展业务座谈等方式，直面制度实施落地中焦点、堵点、痛点、难点根源开展“头脑风暴”，寻求化解及创新思路，并形成专题调研成果。', '积极搭建线下多向交流平台，坚持问题导向，通过外出考察学习、举办实操培训、开展业务座谈等方式，', '制度、准则、实务要点，厘清新旧变化，便于财政、财务人员日常参考，提升工作效能；创新推出', '，围绕新系统与新制度契合度，从记账、报表、对账三个层面梳理基础核算全流程管理，力促会计人员真正弄懂弄通核算新模式。', '智慧服务链接，打造会计核算“掌上平台”，力促核算规范化和科学化，服务政府会计改革落地成效。（江西省宜春市财政局']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>126</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>释放宅基地活力提升乡村颜值</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018-12-17</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/201812/9e74c4cbc53f45dfb799317f10917bdd.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['\u200b 推进农村宅基地管理试点，是建设秀美乡村、壮大集体经济的重要内容，是保障户有所居、助推乡村振兴的关键举措。为贯彻落实上级决策部署，高安市高度重视、高位推进，采取以点带面、先易后难的方式推进高安农村宅基地管理试点。自5月份启动实施以来，工作取得了阶段性成果。目前728个试点村庄试点工作已全面铺开，共退出宅基地1.44万宗、面积115.74万平方米,退出率93.02%。其中无偿退出1.17万宗，面积93.19万平方米；有偿退出0.27万宗，面积22.55万平方米，为改善村容村貌、建设秀美乡村、助推乡村振兴打下了坚实基础。', '为积极稳妥推进试点，3月份，该市就由市政府分管领导带领国土、城建、农工部及部分试点乡镇干部前往余江县考察学习农村宅基地制度改革成功经验和做法。为结合高安实际出台可操作办法，市委、市政府先后召开市政府常务会议、市四套班子联席会议、市委常委会研究部署试点工作；并成立了由市委书记任组长，市长任第一副组长，市委、市政府有关领导任副组长的高安市农村宅基地管理试点领导工作小组；组建了', '个专项工作组，分别由市级领导任组长，负责宅基地管理试点的监督检查、信访维稳、宣传报道、联合执法工作。', '为统一思想、凝聚合力、全面推进试点工作，市委、市政府先后召开了全市经济社会发展总结表彰会、全市农业农村、脱贫攻坚暨旅游工作等三级干部会，主要领导、分管领导在会上对试点工作进行了安排部署。特别是宜春市国土资源重点工作推进会后，迅速贯彻部署，利用周末时间于5月6日召开了全市农村宅基地管理试点动员培训大会，进行再动员、再部署。包括市四套班子成员、乡镇党委政府主要领导、分管领导和村（居）委书记在内的600余人参加了会议。会上市委书记作了重要讲话，分管副市长宣读了试点方案，国土局技术人员进行了培训授课。', '全市动员培训大会后，各地、各单位迅速行动，全方位参与到宅基地管理试点工作中来。市委宣传部在微信公众号高品高安连续多天退出宅改相关政策文章，网友纷纷评论、转发、点赞。电视台播发“致全市广大农民朋友的一封公开信”，让广大农民朋友知晓、参与、支持。市委农工部结合秀美乡村和新农村建设进展，加大房屋拆除和宅基地退出力度。市试点办编印了5万本《知识问答》和5万份《公开信》，制定了村民理事会工作流程图、宣传标语和工作表格，打印了工作底图，组建了QQ群、微信群。市建设局迅速组织人员赴余江县学习考察，全面启动村庄规划编制工作。市国土局抽调24名熟悉政策、能力强的同志对接市级工作组深入乡村组开展试点，采取发送手机短信、在有线电视播放滚动字幕、公开信的形式宣传试点政策。地方党委、政府在市领导的指导下立即行动，迅速召开党政班子联席会，研究安排部署试点工作。', '为进一步明确改革目标任务，正确把握政策精神，扎实掌握工作原则，规范改革流程，稳妥推进试点，改善先后以市委办、政府办名义印发了《实施方案》和《工作方案》；市领导小组制订出台了《高安市农村宅基地管理试点工作操作细则》、《高安市农村集体经济组织成员资格认定暂行办法》、《高安市农村宅基地有偿使用、流转、退出和取得暂行办法》和《关于进一步加强村民理事会宅基地管理权责的若干意见（试行）》等制度办法，为开展试点提供政策依据。市试点办将农村宅基地管理试点《工作方案》、《操作细则》等有关制度办法以及村民理事会工作流程图、宣传标语等资料汇编成《工作手册》，共印发2万本，便于各级干部和村民理事熟悉政策、掌握政策，成了不少工作人员的“掌中宝”。', '多个村庄全面完成宅基地管理试点工作。该市结合自身实际，将试点工作分成两个年度、三个批次实施，实行“三步走”。一是在2018年5月，利用一个月左右的时间，集中人力、物力、精力，在每个乡镇（街道、场、库）各选一个有代表性的村庄先行先试，摸索经验。到目前为止，第一批', '为调度各地试点进展，总结好的经验做法，该市共编发了5期工作简报，将一些地方好的经验做法总结刊发，供各地学习借鉴。比如灰埠镇，通过成立一个组织机构，明确“镇宅基地改革办、村委会、试点村村民理事会”三个分工，做好“资格认定、面积公示、有偿使用费、退出补偿费”四项公示，开好“镇村干部动员大会、党员干部动员大会、试点村群众动员大会、每周调度通报会、村理事会成员会”五级会议，充分依靠群众力量，让群众“唱主角”，推进了试点村宅改。相城镇一个口径抓宣传搞培训、一套方法核人口定户数、一把尺子核宅数量面积、一鼓作气搞规划抓退出、一套方案抓考核鼓干劲，让整个试点工作统一规范，较好完成了试点任务。又如，瑞洲街道港溪村上港背自然村以宅基地管理试点助推新农村建设，大力推进拆旧房、建新路、绘彩画等系列工程，全村共拆除破旧主房', '农村宅基地管理试点涉及到千家万户、方方面面，该市坚持党员带动、督查推动、宣传发动，较好地推动了试点。', '一是党员带动。试点工作能否顺利开展，关键在于群众思想通不通，支不支持。各地充分发挥“党建+”优势，要求各地党员干部在宣传、拆除、退出方面带头示范、作出表率。各基层党支部十分重视群众参与，党员干部和理事会成员进村入户，耐心做好政策解释工作，全力取得村民支持。比如，龙潭镇充分“党建+”优势，组建罗塘村宅基地管理试点临时党支部，党员干部冲锋在前、率先垂范，临时党支部成为宅基地管理改革工作的主心骨、主力军。金谱成就是该镇的一名老党员，按村庄规划建设新农村，修路将损毁他家竹子60多株，他不但不要求赔偿，还领着儿子、冒着烈日清除自家竹山，为修建环村路及时开辟了一条道路。', '二是督查推动。该市不断完善督查制度，强化督查力量，从市委书记督查室、市长督查室、国土、建设等部门抽调人员，组成多个督查组对全市各地农村宅基地管理试点进展情况进行督查，调度推动改革试点。通过查阅资料、现场查看等方式，集中督查各地在组织保障、村庄规划编制、试点覆盖率等方面的进展情况，并将督查情况形成通报在全市范围内下发，要求各乡镇将问题找准，将改进措施做好做实。此外，宅改办定期开展工作督查，及时调度试点工作情况，以督查促整改，共编发督查通报5期，极大调动了各地积极性。', '三是宣传发动。试点工作成不成功，还得依靠群策群力。为赢得群众支持，该市利用“高品高安”公众号、电视台、手机短信等平台，发动党员干部、村干部、乡贤、热心村民等群体，采取镇村干部动员推进会、村理事会成员会、每周通报会等形式，全面铺开试点政策宣传网络，进行全方位、多角度的联合宣传，让农村宅基地改革政策走进千家万户。比如，该市祥符镇南山村脑头村将宅基地管理试点与秀美乡村建设紧密结合，争取了广大干群、在外乡贤的支持，依法拆除危房、破房，全面实施基础设施建设和环境整治。如今，宽阔整洁的水泥马路代替了原来坑坑洼洼的石子路，整齐划一的新屋磨掉了往日破旧的历史厚重感，昔日的省级贫困村以惊人速度华丽蜕变，南山村的“高颜值”也得到了众人赞许。(高安市政府办)']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>126</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>我市参加江西省市人才政策集中发布会</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zwyw/201805/0dee1a02db82481e80e2d900ab0811b0.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['5月14日，江西省市人才政策集中发布会在南昌举行。会上，部分省直单位、设区市分别发布了“人才新政”。', '市委常委、市委组织部部长蔡清平代表我市对宜春人才政策进行发布推介，重点介绍了《宜春市高层次人才引进办法》及加快锂电新能源、中医药、大数据产业发展等“1+N”系列人才政策，从加强政策引领、扶持创新创业、广辟引才渠道和提供优质服务四个方面作了详细介绍。', '发布会结束后，在宜春人才政策展示区现场，工作人员共发放相关人才政策资料1200余份，吸引了300余位博士、硕士等参会人才代表驻足咨询。工作人员热情邀请各方人才代表来宜春创新创业、考察学习、旅居休养。新华网、凤凰网、江西卫视等多家主流媒体对宜春展区进行了采访。(徐芳 徐劲枝 记者刘和星)']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>126</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>水利部党校处级干部进修班赴靖安县开展现场教学</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018-11-19</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/hcz/201811/743ffdc155f24426ba4b3ad295c07c54.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['月14日至16日，水利部党校2018年秋季学期处级干部进修班赴靖安县开展现场教学。江西省水利厅机关党委副书记占任生、宜春市水利局长李万文、靖安县委书记、总河长田辉等领导陪同。', '进修班学员先后到况钟庆祝馆、生态云展厅、九岭滨河公园、双溪镇河湖监管站、高湖镇古楠村、璪都镇港背村、洪屏抽水蓄能电站、宝峰集镇、焦坑大桥、仁首滨河公园等地开展现场教学。', '清风两袖去朝天，不带江南一寸绵”。在况钟庆祝馆，进修班一行接受了一次廉政文化洗礼。况钟是我国古代三大清官之一，靖安县高湖镇西头村崖口人。明代先后任苏州知府十三年，他刚正廉洁、孜孜爱民、除恶扬善、兴利除弊，深受百姓爱戴，苏州百姓称他为“况青天”。', '“智慧靖安，云上未来”。在生态云展厅，进修班一行了解了水质在线监测等平台功能并观看宣传片。生态云是靖安县生态文明建设体制机制创新示范项目之一，融合促进发展和守住生态两篇文章，探索一条既能发挥资源优势，又能实现生态美与百姓富有机统一的新路子。', '“百里潦水诗画里，以河为贵显风流”。在九岭滨河公园，进修班一行详细了解了我县河长制的做法，九岭滨河公园是河长制实施成果的一个缩影，似一幅“水中有鱼、岸上有绿、绿中有景、人水相亲”的水墨画，给进修班一行留下了深刻的印象。', '“创新河湖管护机制，提升生态文明工程”。在双溪镇河湖监管站，进修班一行详细地翻阅了河长制相关资料，听取了双溪镇创新河湖管护工作的汇报。', '“乡村振兴，共享古楠”。在高湖镇古楠村，进修班一行对古楠村民共同投资入股成立古楠生态种养合作社以及圣康生态养殖有限公司，合作社成立后，把全村的山林、田地集中流转，实行统一生产管理，统一品牌销售，坚持绿色崛起，打造高端农产品示范基地，共建美好家园，幸福村庄的做法连连称赞。', '“青山潦水旁，人文古蕴地”。 在璪都镇港背村，村民从2012年开始成立理事会，禁渔、护河……依托良好的水生态环境，成功养殖对水质要求非常高的棘胸蛙。棘胸蛙、原生态蜂蜜、无公害油菜已成为港背人脱贫致富的新方向。今年，还成立了靖安县首支生态保护巡逻队，义务保护港背的生态。进修班一行对村民保护绿水青山的做法以及港背优美的生态环境深深吸引。', '亚洲最大抽水蓄能电站——洪屏抽水蓄能电站，坐落在靖安县三爪仑乡和宝峰镇境内的崇山峻岭之间。它是人工力量和大自然力量完美结合的产物，与三爪仑国家森林公园和谐地融为一体，成为当地一道美丽风景。进修班一行参观了厂房、控制中心、下库坝上。洪屏项目一期装机120万千瓦，2016年投入运行，每年可替代原煤12万吨，减排二氧化碳25.3万吨，具有显著的经济效益、环保效益和社会效益。', '在宝峰镇考察水生态文明镇建设。宝峰镇2015年被江西省水利厅命名为第一批省级水生态文明镇，全面完善水安全、水环境、水生态、水管理、水景观、水文化等六大体系建设。主打“生态和文化”两张牌，着力将生态优势转化为经济优势。', '在焦坑大桥考察水域岸线保护情况。北河两岸有绵延40余公里的生态涵养香樟林，总数约12000棵，平均树龄在300-400年之间，是全球同纬度最大的天然古樟群落。', '在仁首滨河公园考察流域生态综合治理。仁首滨河公园充分利用“一河两岸”生态优势，根据人生成长经历融入人文景观和地方特色，集生态文明体验和展示，建设亲水平台、生态厕所，落实“河长制”对流域水生态进行保护，实行“树保姆”制度对公园内所有古树进行挂牌保护。是一个环境优美、功能齐全的时尚休闲场所。', '日上午9点，在江钨会议室召开了水利部党校与江西省水利厅河（湖）长制座谈交流会。参加会议的有水利部党校2018年秋季学期处级干部进修班学员，省河长办专职副主任姚毅臣，省水利厅机关党委副书记占任生，靖安县人大常委会副主任李新发，县水务局局长王仕钦等。会议由水利部党校办公室副主任孙学勇主持。', '姚毅臣受省水利厅厅长、省河长办常务副主任罗小云委托，向全体学员表达敬意后，从江西省情、水情、工情，“十三五”以来主要工作，存在的主要问题以及下一步工作重点四个方面介绍了江西省水利工作情况，并就我省河长制实施情况作了详细介绍。', '李新发结合河长制宣传片介绍了靖安县水生态文明建设、河长制实施情况并结合切身体会，提出了一些思考和建议。', '学员们表示靖安山清水秀，空气清新，没有雾霾，幸福感非常高，并就实施河长制遇到的问题等方面进行 了交流探讨。 江西省水利厅落实党的十九大精神，以习近平总书记治水重要论述为指南，主动融入国家发展大战略，实施“转变一个理念、夯实三大安全、强化六大管理、深化五大改革”的具体做法以及靖安县在生态文明建设以及河长制“把河道当街道管理，把库区当景区保护”的理念，在推进过程中“三入”“三不入”行动、认领河长制、互联网 河长等有亮点、创新性的做法，为落实水利工作总基调“水利工程补短板，水利行业强监管”提供了很好的学习和借鉴。', '姚毅臣表示，希望学员们就如何解决目前水利工作中存在的问题，带到工作中；继续关心、支持、指导江西水利工作，并祝全体学员学有所思、学有所得、学有所悟。', '孙学勇表示，水利部党校第47期处级干部进修班井冈山组靖安县现场教学非常圆满。一次江西行，一生江西情。学员们有义务、有责任情系江西水利、宣传江西水利、服从江西水利、支持江西水利。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>126</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>创新棚改安置举措有力保障项目推进市住建局保障三限房项目稳步推进</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018-07-10</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xmsgygl/201807/71b97815c47d4caf85699311c14f22f3.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['创新棚改安置举措，有力保障项目推进——市住建局保障“三限房”项目稳步推进 | 中国宜春', '为贯彻落实市委三次、四次全会精神，扎实推进民生工程，做好中心城区“三限房”推进工作。根据市委主要领导指示，6月26日，市政府办组织市住建局、市国土局、市房管局、市规划局、市发改委、市城投公司、市人民医院、袁州区政府、宜阳新区管委会等相关部门前往南昌市考察学习“三限房”政策举措。通过认真考察学习，结合我市实际情况，市住建局目前已草拟《宜春市“三限房”建设和管理暂行办法》和《宜春市中心城区三限房建设标准（试行）》征求意见稿。', '“三限房”，是市政府为保障中心城区棚户区改造对象的住房安置需求，提供政策优惠，由建设单位建设限定住房价格、销售对象和转让年限的住宅。按照规定标准，主要采取市场化运作方式筹集、建设，面向符合条件的棚户区改造家庭。可根据规划要求，在“三限房”项目中配建一定比例的人才公寓、公租房。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>126</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>高安市行政服务中心赴赣州市行政审批局学习考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/201904/c890debfb9f44e71b40453a373e1aabd.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['月27日，高安市行政服务中心随宜春市行政审批局到赣州市行政审批局就“一窗式”综合受理工作的事项、流程、特点、要求、系统对接和人员设置匹配及具体做法进行考察学习。', '在赣州市行政审批局党组书记、局长廖永平的引导下，考察团先后到市民综合服务中心（西区）及行政审批局政务服务大厅进行了现场参观学习，就赣州市开展“一门、一章、一窗”政务服务改革的相关情况进行了解，详细了解了大厅布局、窗口设置、办事流程、运行机制等情况。', '随后，宜春、赣州两市行政审批服务人员分小组就具体工作事项进行点对点式深入学习交流。我市行政审批服务人员对赣州市一窗式改革内容，如：综合受理窗口运行、企业开办一窗式受理流程、一窗受理网上平台对接等方面，进行了具体学习，此次交流为我们政务服务工作提供了新思路。下一步我市将继续深化“放管服”改革，大力推进“无差别受理”改革，同时探索开展相对集中行政许可权改革。（宣文祺）']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>126</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>宜春市统计局学习考察精准扶贫工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/yctjj/gzdt/201712/abef1116c7ff46f4923ac6ad604791a8.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为进一步落实脱贫攻坚工作，11月30日，宜春市统计局张虹副局长率局扶贫工作组，带领万载县仙源乡挂点高岭村乡干部和第一书记及高岭村村委干部一行到铜鼓县永丰村学习考察脱贫工作先进经验。', '考察学习组一行参观考察了永丰村水电站、电商建设等项目，详细了解了永丰村脱贫攻坚工作的方法和经验。永丰村与高岭村的村干部还就产业扶贫工作进行了深入的探讨与交流，取得了良好的工作效果，为高岭村的扶贫工作积累了许多行之有效的经验。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>126</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>宜春市人民政府办公室关于印发宜春茶油申报国家地理标志产品保护工作方案的通知</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017-11-08</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/yfbzd6/201711/fc1bf616dcb645e7b0d3695b86a78445.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['宜春市人民政府办公室关于印发《宜春茶油申报国家地理标志产品保护工作方案》的通知 | 中国宜春', '《宜春茶油申报国家地理标志产品保护工作方案》印发给你们，请结合实际，认真抓好贯彻落实。', '地理标志产品保护制度是一项世贸组织成员间通行的规则，也是一种国家原产地产品质量监控制度和知识产权保护制度，对推进区域特色产品、特色产业做大做强，提升特色产品知名度、影响力，走优质化、品牌化发展道路具有重要意义。我市是全国油茶产业的重点产区，也是油茶加工和科研较先进地区，宜春油茶品牌优势明显。为进一步做大做强宜春油茶产业，推进宜春油茶保护发展上升至国家层面，切实打造宜春茶油优质品牌，促进宜春油茶产业健康发展，制定本方案。', '确保在2017年11月30日前形成宜春茶油申报国家地理标志产品保护完整资料并报送至国家质检总局，争取国家质检总局于2018年2月底前公告批准对“宜春茶油”实施国家地理标志产品保护。', '日前形成宜春茶油申报国家地理标志产品保护完整资料并报送至国家质检总局，争取国家质检总局于', '（此项工作10月份完成。牵头单位：市出入境检验检疫局，责任单位：市质监局、市林业局、市油茶局）；', '月份完成。牵头单位：市出入境检验检疫局，责任单位：市质监局、市林业局、市油茶局）；', '成立由市领导担任组长的宜春茶油地理标志保护领导小组。市委宣传部、市政府办公室、市出入境检验检疫局、市质监局、市林业局、市食药监局、市财政局、市科技局、市国土局、市水文局、市环保局、市粮食局、市气象局、市史志办、市油茶局、市油茶产业协会、市林科所、市档案局等为领导小组成员单位，办公室设在市林业局。', '（此项工作10月30日前完成。牵头单位：市政府办公室，责任单位：市质监局、市林业局、市油茶局、市出入境检验检疫局）；', '日前完成。牵头单位：市政府办公室，责任单位：市质监局、市林业局、市油茶局、市出入境检验检疫局）；', '（此项工作11月30日前完成。牵头单位：市油茶局，责任单位：市质监局、市林业局、市出入境检验检疫局）；', '日前完成。牵头单位：市油茶局，责任单位：市质监局、市林业局、市出入境检验检疫局）；', '组织专家收集、编造7个材料：①宜春油茶种植历史渊源、名称由来、发展成就；②宜春茶油加工历史、名称由来、发展成就、品牌荣誉；③宜春茶油独特的茶油文化、（包括反映茶油文化的图片、文字、电子记录、影像资料等）；④宜春油茶生产地域范围及气候地理特征说明（含地域环境监测、水文水质监测情况）；⑤宜春茶油品质特色与宜春地域自然条件的关系（地理区域、水源水质、气候条件、土壤土质）；⑥宜春油茶培育种植规范；⑦宜春茶油生产加工技术规范。', '宜春茶油品质特色与宜春地域自然条件的关系（地理区域、水源水质、气候条件、土壤土质）；', '（此项工作12月30日前完成。牵头单位：市油茶局，责任单位：市出入境检验检疫局、市质监局、市林业局、市食药监局、市科技局、市国土局、市水文局、市环保局、市粮食局、市气象局、市史志办、市油茶产业协会、市林科所、市档案局）；', '组织抽取宜春茶油代表性样品。目标是寻找宜春茶油不同品系，不同树龄的共同特征，以及宜春茶油与其他产地之间的差异性指标。', '（此项工作11月30日前完成。牵头单位：市质监局，责任单位：市检验检疫局、市林业局、市油茶局）；', '对收集的样品，委托有资质的机构检测确定宜春茶油品质特色（质量技术要求），包括感官指标和理化指标。', '（此项工作11月30日前完成。牵头单位：市出入境检验检疫局，责任单位：市质监局、市林业局、市油茶局）；', '日前完成。牵头单位：市出入境检验检疫局，责任单位：市质监局、市林业局、市油茶局）；', '充分利用报纸、电视台、电台、网络等媒体，宣传宜春茶油地理标志产品，宣传宜春油茶产业的历史和发展成就，积极营造宜春茶油宣传氛围。', '（此项工作12月30日前完成。牵头单位：市委宣传部，责任单位：市林业局、市油茶局、市史志办、市档案局）；', '日前完成。牵头单位：市委宣传部，责任单位：市林业局、市油茶局、市史志办、市档案局）；', '安排专项工作经费，有效保障申报各项工作正常运行。（此项工作10月30日前完成。牵头单位：市财政局，责任单位：市科技局）', '（此项工作10月30日前完成。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局）；', '（此项工作10月30日前完成。牵头单位：市油茶局，责任单位：市林业局、市油茶产业协会）；', '（此项工作10月20日前完成。牵头单位：市油茶局，责任单位：市林业局、市林科所、市油茶产业协会）；', '（此项工作10月30日前完成。牵头单位：市质监局，责任单位：市检验检疫局、市林业局、市林科所、市油茶产业协会）；', '日前完成。牵头单位：市质监局，责任单位：市检验检疫局、市林业局、市林科所、市油茶产业协会）；', '（此项工作10月20日前完成。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局、市林科所、市油茶产业协会）；', '日前完成。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局、市林科所、市油茶产业协会）；', '（此项工作11月30日前完成。牵头单位：市出入境检验检疫局，责任单位：市质监局、市林业局）；', '研究制定宜春茶油技术检测指标要求，委托有资质的检验机构，就宜春茶油与橄榄油、异地茶油、花生油等进行对照检测分析。', '（此项工作12月30日前完成。牵头单位：市检验检疫局，责任单位：市质监局、市林业局、市财政局、市科技局、市油茶局、市油茶产业协会）；', '日前完成。牵头单位：市检验检疫局，责任单位：市质监局、市林业局、市财政局、市科技局、市油茶局、市油茶产业协会）；', '（此项工作力争12月30日前完成。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局、市油茶产业协会）；', '日前完成。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局、市油茶产业协会）；', '（此项工作在国家质检总局发布公告后实施。牵头单位：市质监局，责任单位：市检验检疫局、市林业局、市油茶局、市油茶产业协会）；', '（此项工作在国家质检总局发布公告后实施。牵头单位：市油茶局，责任单位：市检验检疫局、市质监局、市林业局、市油茶产业协会）；', '按照《地理标志产品保护规定》（国家质检总局第78号令），加强对宜春市范围内茶油生产、经销的监督检查，严厉打击假冒侵权宜春茶油的行为。', '号令），加强对宜春市范围内茶油生产、经销的监督检查，严厉打击假冒侵权宜春茶油的行为。', '开展宜春茶油地理标志产品保护申报工作是加快宜春油茶产业发展、提升宜春茶油品牌效应的重要途径之一，对推动我市农业产业化发展、促进农民增收具有重要意义。各有关部门（单位）要高度重视，指定专人负责，积极协调配合，共同推进宜春茶油申报工作。', '地理标志产品是经国家质检总局审核批准的以地理名称命名的产品，是针对具有鲜明地域特色的名优特产品所实行的一项特殊的产品质量控制制度和知识产权保护制度。各有关部门（单位）要立足本职，通过不同渠道、不同媒介广泛宣传地理标志产品保护基本知识，扩大申报工作影响力。', '各有关部门（单位）要按照各自的工作职责和时间节点要求，逐条逐项、高质高效地抓好落实。市质监、检验检疫部门要发挥牵头作用，加强与国家、省质检部门的沟通和协调，认真学习借鉴异地好经验、好做法，积极做好相关申报材料收集、汇总等工作，确保申报工作顺利进行。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>126</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>宜春市统计局带领挂点帮扶村干部考察学习新农村建设工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-08-18</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/yctjj/gzdt/201708/9d81b929adbd4f0c836dcb71375afbdd.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为更好地帮助挂点帮扶村——袁州区新坊镇里睦村推进“整洁美丽、和谐宜居”新农村建设，共建共享美好家园，8月18日，宜春市统计局党组书记、局长胡勇带领市统计局挂点帮扶干部及里睦村干部等一行8人赴上高县参观学习考察新农村建设情况。', '为更好地帮助挂点帮扶村——袁州区新坊镇里睦村推进“整洁美丽、和谐宜居”新农村建设，共建共享美好家园，', '考察团一行先后参观了上高县塔下乡田北村、锦江镇垴上村、敖阳街道何家垴村等地。每到一处，考察团都认真听取当地干部介绍他们新农村建设工作开展的情况及取得的成果，详细了解当地在村庄规划、房屋拆迁、道路改造、管网建设、资金来源等方面的主要经验及特色做法。考察学习过程中，胡勇同志反复叮嘱考察团成员一定要认真听、仔细看、详细问，把这些先进点好的经验、模式、措施学到手，回去后结合本村实际，运用到里睦村的新农村建设工作中去。', '通过亲身感受新农村建设给村庄带来的巨大变化，考察团成员都觉得深受启发，认为本次外出考察学习收获很大，不仅开阔了视野、学习了经验、增长了见识，启发了思路，而且也看到了差距和不足，为今后做好里睦村的新农村建设工作提供了很好的学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>126</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>丰城市多措施抓好渔业信息化项目建设管理工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017-11-23</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/201711/03de1559537c41edb1859d9ff8e1e55f.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['一是到外省考察学习，到江苏现场考察较好的渔业信息化项目建设单位，学习借鉴先进建设经验；二是严格落实省农业厅的文件精神，按照《全省渔业渔政信息化建设实施方案》、《江西省水产养殖物联网建设指导规范（试行）》，明确了养殖物联网建设任务、建设内容和技术标准；三抓好日常督促工作，在项目建设的过程中，多次到现场进行察看，并严格要求项目建设一定要按照规范标准实施。目前，该市石滩水产养殖场、罗坊水产养殖场、剑南水产养殖场等3个渔业信息化项目实施点项目已接近收尾阶段，预计10月底竣工。（何子乐、袁文清）']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>126</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>宜春市供销社主任邹小平陪同省社主任喻晓社赴台湾考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017-10-16</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzdt/201710/bb9d7c70a2af4aeda6b61bd0c7ce950e.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['10月13日至19日，根据省供销社统一安排，为加快推进农民合作社和农民合作社联合社建设，学习借鉴先进经验，宜春市供销社主任邹小平作为江西省供销社考察团成员，随团赴台湾学习考察。', '近日，邹小平陪同省供销社主任喻晓社考察了台湾汉光果蔬生态股份有限公司，实地参观了汉光果蔬生产加工基地，与公司负责人就农民合作社、农会和农民合作社联合社发展进行了深入交流。考察团对汉化果蔬以农民合作社为根本，高度重视社员培训发展；创新生产方式，提高农产品质量；产销透明化，及时了解掌握消费者需求；紧密联系农户，建立良好的组织和利益上联结等举措和措施给予了高度评价。', '据悉，此次考察学习的一项重要内容是农民合作社联合社。宜春市供销社紧紧围绕为农服务的宗旨，加快推动“三位一体”综合合作，高位推进农民合作社联合社建设。9月30日，随着铜鼓县供销合作社完成在当地工商部门完成农民合作社联合社登记注册工作，宜春市县级区域型农民合作社联合社组建工作顺利完成，为推进生产合作、供销合作和金融合作，打造“三位一体”综合合作宜春样板夯实了基础。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>126</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>宜春市人民政府办公室关于印发宜春市年生活垃圾分类和减量工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-07-01</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/szfbgswjd1/202007/1e45db6c5d2241c7a2bfdbb91fefa43b.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['宜春市人民政府办公室关于印发《宜春市 2020年生活垃圾分类和减量工作实施方案》的通知 | 中国宜春', '宜春市人民政府办公室关于印发《宜春市 2020年生活垃圾分类和减量工作实施方案》的通知', '现将《宜春市2020年生活垃圾分类和减量工作实施方案》印发给你们，请认真贯彻落实。', '《国务院办公厅关于转发国家发展改革委住房城乡建设部生活垃圾分类制度实施方案的通知》（国办发〔2017〕26号）、', '《国务院办公厅关于转发国家发展改革委住房城乡建设部生活垃圾分类制度实施方案的通知》（国办发〔', '号）和《江西省城市生活垃圾分类2020年工作要点》《江西省城市生活垃圾分类工作2020年度考核方案的通知》（赣建管〔', '%，生活垃圾分类习惯基本养成；中心城区基本建成生活垃圾分类处理系统，人均垃圾产量实现“零增长”，生活垃圾回收利用率达到', '，生活垃圾分类习惯基本养成；中心城区基本建成生活垃圾分类处理系统，人均垃圾产量实现', '%以上。各县（市）在巩固2019年覆盖40%试点工作成果的基础上，进一步做细做实，因地制宜、稳步推广。', '以实现生活垃圾减量化、资源化、无害化为目标，坚持“以法治为基础、政府推动、全民参与、城乡统筹、因地制宜”的工作原则，不断提升我市生活垃圾分类和减量工作水平。主要任务安排如下：', '推进信息系统建设和数据共享共用，积极推行无纸化办公，全面实施纸张双面打印。提倡重复使用，鼓励自带水杯，使用可更换笔芯的签字笔，减少一次性物品使用。认真贯彻落实厉行节约反对食品浪费的有关要求，深入实施光盘行动，减少餐厨垃圾产生。', '积极探索建立涵盖生产、流通、消费等领域的源头减量机制，鼓励生产企业使用可再利用、可再生、可降解等有利于生活垃圾减量化、资源化的产品；做好快递封装用品的监督管理，减少过度包装、二次包装；加大“限塑令”专项整治，逐步控制、减少塑料袋的销售、使用；餐饮服务、旅游住宿业不主动提供一次性消费用品。', '积极探索建立涵盖生产、流通、消费等领域的源头减量机制，鼓励生产企业使用可再利用、可再生、可降解等有利于生活垃圾减量化、资源化的产品；做好快递封装用品的监督管理，减少过度包装、二次包装；加大', '专项整治，逐步控制、减少塑料袋的销售、使用；餐饮服务、旅游住宿业不主动提供一次性消费用品。', '强化舆论引导作用，充分利用新闻媒体、政务平台、户外广告等各类宣传载体，持续开展全覆盖、分层次、多样化的公益宣传，让广大群众易于接受、乐于接受，全面营造良好的舆论氛围，确保生活垃圾分类知晓率不低于', '各街道（镇）、社区要通过开展社区大讲堂、主妇课堂等多样化活动，提升广大市民的知晓率和参与度；指导员、督导员通过强化上户指导、桶边指导等工作，有效提升广大市民的分类准确率；团市委、市妇联等群团组织要充分发挥自身优势，整合志愿者、妇女等力量服务社区生活垃圾分类，动员群众积极主动参与生活垃圾分类。', '市教体局要积极探索建立生活垃圾分类教育与德育教育有机融合新模式，将生活垃圾分类教育渗透到学科教学中，让学生在潜移默化中培养生活垃圾分类良好习惯；强化社会实践和志愿服务，走出校园开展生活垃圾分类宣传和实践活动，形成“家校社”互动；持续开展“垃圾分类打卡”活动，形成家校共育合力。', '市教体局要积极探索建立生活垃圾分类教育与德育教育有机融合新模式，将生活垃圾分类教育渗透到学科教学中，让学生在潜移默化中培养生活垃圾分类良好习惯；强化社会实践和志愿服务，走出校园开展生活垃圾分类宣传和实践活动，形成', '各级党委（党组）要积极开展生活垃圾分类的宣传、教育、科普工作，创新宣教内容和形式，推动基层党建工作与生活垃圾分类工作深度融合；广大党员要主动亮身份、树形象、作表率，争做生活垃圾分类的践行者、先行者，真正引领社会风尚。', '市住建局要压实物业公司主体职责，制订并完善行之有效的考核考评机制，督促物业公司建立生活垃圾分类日常管理制度，切实履行生活垃圾分类基础设施维护、宣传教育引导、日常监督管理等职责，全面提升小区居民生活质量和人居环境。', '12月底前，市综合行政执法局（市城市管理局）完成对全市生活垃圾分类专职管理人员及成员单位生活垃圾分类工作人员的一期培训工作；各行业主管单位完成本行业生活垃圾分类工作人员的培训工作；各县（市、区）按照属地管理原则，完成辖区内党政机关、企事业单位生活垃圾分类工作人员和督导员的培训工作，通过加强对生活垃圾分类知识政策、法规的学习和解读，全面提升骨干队伍的政策业务水平。', '月底前，市综合行政执法局（市城市管理局）完成对全市生活垃圾分类专职管理人员及成员单位生活垃圾分类工作人员的一期培训工作；各行业主管单位完成本行业生活垃圾分类工作人员的培训工作；各县（市、区）按照属地管理原则，完成辖区内党政机关、企事业单位生活垃圾分类工作人员和督导员的培训工作，通过加强对生活垃圾分类知识政策、法规的学习和解读，全面提升骨干队伍的政策业务水平。', '按照属地管理原则，各区在2019年试点建设生活垃圾分类商业示范街的基础上，结合主次干道、公园、广场等公共区域实际情况，督促、指导', '年试点建设生活垃圾分类商业示范街的基础上，结合主次干道、公园、广场等公共区域实际情况，督促、指导', '引导市场化环卫服务公司做好分类收集、分类运输等工作，到2020年11月逐步建立、完善分类收运体系。', '市综合行政执法局提出生活垃圾分类设施设备配置规范及标准；市自然资源局负责在建设项目方案审查和批复时，规划生活垃圾分类设施；市住建局根据相关标准督促开发建设单位按照有关要求进行建设，并验收把关。', '市农业农村局要进一步探索农村生活垃圾分类试点工作，按照属地管理原则，优化农村生活垃圾分类投放、分类收集和分类运输，推进厨余垃圾规范化就地处理模式，全面提升农村生活垃圾治理能力。', '按照属地管理原则，各区加强辖区内生活垃圾分类基础设施的日常维护和管理工作，对已建成的洗手池、垃圾分类收集亭及其配套设施进行保养和维护，对已配置到位的分类垃圾桶进行维修更换。', '中心城区动建餐厨垃圾处理厂、四座垃圾分类转运中心等终端处理设施，2020年底原生生活垃圾实现“零填埋”；中心城区、丰城市、万载县、奉新县垃圾焚烧发电厂建成投产。', '市商务局要加快再生资源回收利用体系建设，推动再生资源规范化、专业化处理，促进循环利用，积极构建“互联网+资源回收”新模式，逐步实现“两网融合”。', '市商务局要加快再生资源回收利用体系建设，推动再生资源规范化、专业化处理，促进循环利用，积极构建', '建立“市级统筹、县（市、区）负责、街道（镇）实施”的生活垃圾分类责任体系，强化政府推动。县（市、区）要设立专职管理部门，配齐工作人员并实行实体化办公，切实保障生活垃圾分类工作的综合协调、业务指导、宣教培训、现场督办、考核评比等工作需要。', '的生活垃圾分类责任体系，强化政府推动。县（市、区）要设立专职管理部门，配齐工作人员并实行实体化办公，切实保障生活垃圾分类工作的综合协调、业务指导、宣教培训、现场督办、考核评比等工作需要。', '各级财政部门要加大资金投入力度，根据片区内生活垃圾分类开展情况，科学合理制定财政投资计划，将生活垃圾分类专项资金列入年度财政预算，有效保障生活垃圾分类设备购置和基础设施建设、宣传教育推广和人员工资等。', '进一步完善督查考核机制、强化督查考核力度，通过日常督促检查与定期考评结合，把督查考核工作作为推动开展生活垃圾分类工作的重要抓手。同时，建立层级考核制度，按照“管行业必须管生活垃圾分类”的原则，实行行业与属地相结合的考核负责制，以确保各级、各部门、各单位生活垃圾分类工作落到实处。', '进一步完善督查考核机制、强化督查考核力度，通过日常督促检查与定期考评结合，把督查考核工作作为推动开展生活垃圾分类工作的重要抓手。同时，建立层级考核制度，按照', '的原则，实行行业与属地相结合的考核负责制，以确保各级、各部门、各单位生活垃圾分类工作落到实处。', '通过建立监督平台、开通投诉监督电话热线、开辟聚焦曝光栏目、设立民情民意留言箱等方式，全面畅通生活垃圾分类监督渠道。积极利用微博、微信等加强线上线下交流互动，充分调动群众参与生活垃圾分类的自觉性和积极性。', '各区行政主管部门要按照《宜春市生活垃圾分类管理条例》，通过教育、处罚、拒运等方式对生活垃圾分类投放、收集、运输和处置工作进行规范和约束，逐步使居民、党政机关、企事业单位、物业公司等养成生活垃圾分类习惯。', '监督管理收运企业运营服务作业质量；负责对违反《宜春市生活垃圾分类管理条例》行为的行政执法；负责对市直成员单位和县（市、区）垃圾分类管理人员等进行培训；指导农村生活垃圾分类工作分步推进', '；制定生活垃圾分类和减量考评办法并组织实施；负责建设生活垃圾分类教育科普基地并组织市民参观了解处理设施及作业流程', '全市垃圾分类宣传工作的主管部门，负责全市垃圾分类宣传方案的制定，组织领导全市垃圾分类宣传工作；负责协调志愿者开展垃圾分类宣传，在城市公共场所对市民、游客进行垃圾分类宣传和劝导、监督；制定国家机关、企事业单位、社会组织等工作场所文明行为促进机制，提升公民垃圾分类文明素养等。', '负责垃圾分类处理设施和垃圾分类转运中心建设的规划、选址；负责在建设项目方案审查和批复时，规划生活垃圾分类设施（分类收集亭、垃圾桶清洗点、大件垃圾装修垃圾临时堆放点）；负责督促落实新建小区配套建设生活垃圾分类设施；负责生活垃圾分类处置设施建设项目建设用地审核、审批，指导各县（市、区）做好用地计划安排，保障项目建设用地供应。', '配合市综合行政执法局、市自然资源局等有关部门编制和推进生活垃圾处理设施建设发展规划，并按规划做好项目核准；研究生活垃圾分类收费管理办法。', '根据相关标准督促新建小区建设开发单位按照有关要求配套建设生活垃圾分类设施，并验收把关；依据《宜春市生活垃圾分类管理条例》落实物业', '加强对物业服务企业的管理，督促物业服务业企业配合相关部门做好生活垃圾分类宣传工作，指导业主做好垃圾分类投放工作。', '负责农贸市场垃圾分类减量的推进工作；规范废品回收，开展资源再利用工作，推进回收网点建设，完善回收网络体系；提倡流通环节中包装材料循环使用，探索建立包装物强制回收制度；推广使用菜篮子、布袋子，从源头上实现生活垃圾减量。', '负责将生活垃圾分类和减量工作纳入城市文化建设内容，积极开展以生活垃圾分类和减量、提倡生态文明为主题的文化宣传活动；负责推动A级旅游景区、星级饭店生活垃圾分类的推进工作，指导星级饭店和A级旅游景区树立绿色经营、绿色消费的新理念；负责组织对全市A级旅游景区、星级饭店相关工作人员进行生活垃圾分类培训，组织动员星级饭店积极开展生活垃圾分类，不得主动向消费者提供客房一次性用品，加强行业管理，将生活垃圾分类和减量作为星级饭店和A级旅游景区评比的内容之一。', '级旅游景区、星级饭店相关工作人员进行生活垃圾分类培训，组织动员星级饭店积极开展生活垃圾分类，不得主动向消费者提供客房一次性用品，加强行业管理，将生活垃圾分类和减量作为星级饭店和', '负责医疗机构内生活垃圾分类的推进工作，加强对患者生活垃圾分类意识的宣传教育；把生活垃圾分类纳入卫生城镇创建考核内容。', '负责督促推进市直机关及其所属单位开展垃圾分类工作，指导市直机关及所属单位按《生活垃圾分类标志（GB/T 19095—2019》标准使用标志；督促指导各县（市、区）公共机构开展垃圾分类工作；将生活垃圾分类和减量工作纳入对市直相关机关事业单位的日常监管内容，推动党政机关、事业单位带头使用有利于保护环境的产品、设备和设施，减少使用一次性办公用品，内部办公场所不得使用一次性杯具，餐厨垃圾实行分类投放和收运；推动党政机关、事业单位干部职工发挥模范带头作用；', '》标准使用标志；督促指导各县（市、区）公共机构开展垃圾分类工作；将生活垃圾分类和减量工作纳入对市直相关机关事业单位的日常监管内容，推动党政机关、事业单位带头使用有利于保护环境的产品、设备和设施，减少使用一次性办公用品，内部办公场所不得使用一次性杯具，餐厨垃圾实行分类投放和收运；推动党政机关、事业单位干部职工发挥模范带头作用；', '负责保障中心城区生活垃圾分类专项经费，督促各县（市、区）将垃圾分类工作经费列入财政预算，加强对垃圾分类财政性资金的使用监督检查；指导企业申报可再生能源电价补贴。', '负责加强对超市、商场、集贸市场等商品零售场所销售、使用塑料购物袋的监督检查；做好产品包装物减量的监督管理工作；加强经营者垃圾分类工作的宣传教育。', '负责推广农业清洁生产技术；推进“净菜进城”，从源头上减少垃圾产生量；因地制宜探索农村生活垃圾分类；推进农药瓶等有害垃圾分类处理试点。', '负责深入开展垃圾分类方面的科技宣传和科技服务等工作；负责开展清洁生产技术成果的支持和推广。', '负责发动组织全市妇女及家庭开展生活垃圾分类工作；负责对全市妇女及家庭进行垃圾分类进行宣传和教育。', '负责组织各级团组织及青年志愿者队伍，开展垃圾分类宣传活动，普及生活垃圾分类知识；参与并组织生活垃圾分类和减量工作。', '负责指导全市宗教团体和宗教活动场所开展生活垃圾分类和减量工作，发挥宗教界和信教群众在生活垃圾和减量工作中的积极作用。', '对涉嫌非法偷运有害垃圾的行为进行依法查处；负责全市环卫和垃圾转运车辆、垃圾收运车辆沿路停靠收集垃圾，相关车辆挂牌等的协调保障；对生活垃圾分类和减量工作中，构成犯罪的行为依法进行打击。', '督促公交场站、客运场站等公共场所和公交车、出租车等公共交通工具的经营者和管理者开展生活垃圾分类和减量工作，及采取各种形式进行生活垃圾分类和减量工作的宣传教育。', '按照职能积极配合市区政府做好垃圾分类的协调、宣传和保障工作并积极抓好本单位垃圾分类工作落实。', '为垃圾分类组织实施责任单位，按照“属地管理”原则，全面负责本辖区内垃圾分类投放、分类收集、分类转运的计划准备、宣传发动、人员培训、设备建设和组织实施等。', '为深入推进宜春市生活垃圾和减量工作，建立完善的检查监督长效管理机制，按照《宜春市生活垃圾分类和减量工作方案》（宜府办发〔2017〕82号）文件精神，结合2020年工作实际，制定本办法。', '为深入推进宜春市生活垃圾和减量工作，建立完善的检查监督长效管理机制，按照《宜春市生活垃圾分类和减量工作方案》（宜府办发〔', '办事处（政府）（秀江街道、化成街道、灵泉街道、凤凰街道、湛郎街道、珠泉街道、下浦街道、新康府街道、湖田镇、官园街道、金园街道、温汤镇、洪江镇）、市直单位。', '覆盖推广、体制建设、组织管理、宣传培训、片区建设、工作成效、终端建设、加（减）分八个方面。', '聘请第三方考核的方式，对生活垃圾分类进行严格的考核，考核工作通过现场查看、查阅资料、随机问询、民意测评等方法进行。', '每月由第三方考核进行常规性考评，评分占比为80%；市综合行政执法局（市城市管理局）每月抽样检查，评分占比20%。', '由市综合行政执法局（市城市管理局）组织，委托第三方考核机构采取资料审核、专项调查、抽样调查和实地核查等方式，针对相关考核指标进行考核。上半年评分占比40%，年终评分占比60%。', '由市综合行政执法局（市城市管理局）组织，委托第三方考核机构采取资料审核、专项调查、抽样调查和实地核查等方式，针对相关考核指标进行考核。上半年评分占比', '由市综合行政执法局（市城市管理局）组织，委托第三方考核机构采取资料审核、专项调查、抽样调查和实地核查等方式，针对相关考核指标及方案（制度）落实情况进行考核。', '办事处（政府）年度综合成绩实行百分制量化考评（具体量化指标见附件），各区年度综合成绩=每月考评平均成绩×85%+年终考评成绩，各街道（镇）年度综合成绩=每月考评平均成绩与年度+加减分（年度）。年度考评成绩90分及以上为优秀，80—90分（含80分）以上为良好，70—80分（含70分）以上为达标，70分以下为不达标。', '办事处（政府）年度综合成绩实行百分制量化考评（具体量化指标见附件），各区年度综合成绩', '市直单位的考评成绩纳入综治工作（平安建设）差异化考核评价扣分项目（分值3分）和公共机构节能考核，绩效考核体系和文明单位考核体系（根据评定等次实行考评未达标一票否决制）。', '分）和公共机构节能考核，绩效考核体系和文明单位考核体系（根据评定等次实行考评未达标一票否决制）。', '中心城区根据考评结果对推进生活垃圾分类工作成绩显著的进行奖励，区政府（管委会）每年评比设一等奖（', '在公共区域（如主次干道、公园等）开展生活垃圾分类公益广告和分类常识宣传，营造发动全民参与垃圾分类的浓厚氛围（', '2.根据小区（单位）大小科学设置公示栏（牌），内容为分类投放点的布局引导图、社区负责人员名单及责任分工、投诉电话、曝光栏等（2分），未设置的扣0.5分/小区，设置不规范的，扣0.2分/小区，有设置无内容的，每处扣0.1分/小区，每个小区扣完0.5分为止。', '根据小区（单位）大小科学设置公示栏（牌），内容为分类投放点的布局引导图、社区负责人员名单及责任分工、投诉电话、曝光栏等（', '1.收集亭公示栏及时更新内容（1分）。未填写内容的，每缺一项扣0.1分，扣完为止；', '2.分类垃圾桶摆放杂乱、配置不足、桶身不洁、破损、密闭不到位、标识不规范（5分），每发现一处扣0.5分（按比例扣分），扣完为止。', '建立片区基础台账，内容包括：厨余垃圾、有害垃圾、可回收物、其他垃圾的数量、分类准确率等（1分），每少一项扣0.1分，扣完为止，每月抽查一次。', '将垃圾分类工作纳入基层党建工作，按《关于在生活垃圾分类减量工作中发挥党员示范引领作用的通知》落实有关工作，查看台账记录（', '生活垃圾分类工作报道在市级以上官方媒体采用，市级加0.1分，省级加0.3分，国家级加0.5分，加满2分为止。', '在生活垃圾分类的组织实施模式、相关设施设备改进及配备、垃圾处理技术研究等方面，形成创新成果在学术刊物上刊登；本单位生活垃圾分类工作受到市级以上单位表彰；（以上两项市级加', '3.本单位生活垃圾分类工作模式得到肯定推广，接受市级以上单位考察学习（2分），市级每次加', '日前向市生活垃圾分类和减量工作领导小组办公室报送当月工作情况及下月工作安排，及时按要求上报市级需要的数据、信息材料等（', '根据小区（单位）大小科学设置生活垃圾分类宣传栏（3分）,有破损的每个小区扣0.2分/小区（单位）,未设置扣', '个或多个公示栏（牌），内容为本小区分类投放点的布局引导图、社区负责人员名单及责任分工、投诉电话、曝光栏等（', '分），未设置有害垃圾暂存点、无有害垃圾转移交接备案表、有害垃圾没有由具有资质的危废单位运输、转移运输没有按相关规定办理危险废物转移手续、运输过程泄露污染环境，以上每例扣', '积极创新管理模式，好的做法得到市级以上（以党报、党刊及核心媒体为准）推广的，市级每例加', '制定本单位生活垃圾分类和减量考评办法并组织实施，每季度至少考评一次并通报考评结果，考评结果需报市垃分办备案（2分）。', '协调志愿者开展垃圾分类宣传，在城市公共场所对市民、游客进行垃圾分类宣传和劝导、监督（2分）；', '将垃圾分类工作纳入文明城市、文明村镇和文明单位测评体系和文明创建督查内容（5分）。', '在建设项目方案审查和批复时，规划生活垃圾分类设施并督促落实（分类收集亭、垃圾桶清洗点、大件垃圾装修垃圾临时堆放点）（12分）。', '配合市综合行政执法局、市自然资源局等有关部门编制和推进生活垃圾处理设施建设发展规划，并按规划做好项目核准', '组织开展学校垃圾分类工作培训，组织全市教师开展垃圾分类教育教学交流评比活动（3分）；', '每学期组织开展全市教育系统生活垃圾分类和减量工作检查考评，督促中心城区学校开展生活垃圾分类和减量工作（7分）。', '2.根据相关标准督促新建小区建设开发单位按照有关要求配套建设生活垃圾分类设施，并验收把关（3分）；', '根据相关标准督促新建小区建设开发单位按照有关要求配套建设生活垃圾分类设施，并验收把关（', '4.依据《宜春市生活垃圾分类管理条例》，落实物业服务业企业责任，开展生活垃圾分类和减量工作（5分）；', '依据《宜春市生活垃圾分类管理条例》，落实物业服务业企业责任，开展生活垃圾分类和减量工作（', '编制可回收物目录、制定低值可回收物资源化利用优惠政策和回收处置便利措施并落实（2分）；', '组织回收企业及时做好生活垃圾中可回收物的回收工作，引导社区居民积极参与可回收物分类回收工作（3分）；', '将生活垃圾分类和减量工作纳入城市文化建设内容，积极开展以生活垃圾分类和减量、提倡生态文明为主题的文化宣传活动（4分）；', '对旅游行业管理人员进行生活垃圾分类和减量专题培训，指导督促各旅行社、星级饭店完成对导游、饭店服务员的生活垃圾分类和减量知识培训，通过有效方式向外来游客宣传引导生活垃圾分类（3分）；', '每季度组织开展全市文化场馆、演出场馆、旅游行业生活垃圾分类和减量检查考评，督促指导全市文化场馆、演出场馆、星级饭店和A级旅游景区的生活垃圾分类工作（7分）。', '2.督促全市医疗单位完善配套生活垃圾和医疗垃圾分类投放、收集设施，抓好医疗垃圾与生活垃圾分流的工作落实，防止医疗垃圾混入到生活垃圾中（6分）；', '督促全市医疗单位完善配套生活垃圾和医疗垃圾分类投放、收集设施，抓好医疗垃圾与生活垃圾分流的工作落实，防止医疗垃圾混入到生活垃圾中（', '5.扩大公共机构生活垃圾分类志愿者队伍，开展志愿服务活动充分发挥机关干部模范带头作用（3分）；', '扩大公共机构生活垃圾分类志愿者队伍，开展志愿服务活动充分发挥机关干部模范带头作用（', '每季度组织开展我市机关事业单位生活垃圾分类和减量工作检查考评，督导市直机关事业单位的生活垃圾分类工作（6分）。', '组织开展对超市、商场、集贸市场等商品零售场所销售、使用塑料购物袋的监督检查（6分）；', '4.每季度组织对超市、商场、集贸市场等商品零售场所生活垃圾分类和减量进行检查考评（7分）。', '4.每季度组织对市级宗教团体、宗教场所开展生活垃圾分类和减量工作情况进行检查考评（7分）。', '每季度组织开展我市公共交通场所垃圾分类检查考评，督促指导我市公交汽车站等公共交通场所开展生活垃圾分类和减量（7分）。', '1.积极创新管理模式，好的做法得到市级以上（以党报、党刊及核心媒体为准）推广的，市级每例加0.2分，省级每例加0.5分，国家级每例加1分，加满为止（1分）；', '对于受到市级以上部门表彰奖励，或以文件形式推广其经验做法，或受到市级以上主要负责人批示肯定的（1分）。', '宜春市人民政府办公室转发市发展改革委《关于宜春市深化公共资源交易平台整合共享实施方案》的通知']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>126</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>宜春市江西长江科技中等专业学校年中等职业教育质量年度报告</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zyjy/202005/a8023b6a1d154b9ca2ea5553423e803b.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['江西长江科技中等专业学校是2004年3月经江西省人民政府批准在江西长江理工专修学院基础上设立的省级重点中等职业学校。学校管理科学，制度规范，组织机构健全，设有董事会，监事会，校委会等组织机构，且是宜春市民办学校第一个设立有党支部，校工会组织的学校。学校现有在籍学生5755人，已成为宜春市民办学校办学规模最大，校园设施最全，师资力量最强的一所中等专业学校。', '近年来，在上级主管部门的正确领导下，学校全面贯彻党的教育方针，坚持社会主义办学方向，与时俱进，开拓创新，牢固树立为经济和社会发展服务办学指导思想，坚持为当地经济建设和社会发展服务的办学宗旨，以市场为导向，以质量求发展，以教学为中心，强化技能训练，狠抓教学质量，加强学校管理，促进招生安置，优化后勤服务，加大校园建设，抓特色，求发展，实现了规模，质量，效益同步增长。2006年以来，学校先后荣获教育部等13个部委授予的第五届全国“千校百万”进城务工青年培训工作先进集体和全国职业教育半工半读试点院校，中华全国总工会授予全国职工教育培训点，全国教育科研先进单位、共青团中央授予青年就业创业见习之地、全省十大培训之地、全省中等职业学校德育工作先进集体、江西省中等职业学校毕业生就业工作先进单位、江西省重点中等职业学校、江西省第一批达标中等职业学校、中央财政支持的数控实训基地等诸多国家级、省部级荣誉。', '近年来，在上级主管部门的正确领导下，学校全面贯彻党的教育方针，坚持社会主义办学方向，与时俱进，开拓创新，牢固树立为经济和社会发展服务办学指导思想，坚持为当地经济建设和社会发展服务的办学宗旨，以市场为导向，以质量求发展，以教学为中心，强化技能训练，狠抓教学质量，加强学校管理，促进招生安置，优化后勤服务，加大校园建设，抓特色，求发展，实现了规模，质量，效益同步增长。', '学校规划占地1000亩，已建设面积为378.39亩，校园建筑面积8.33万平方米，学校建有校内实习工厂，并配有先进的数控模具机器设备，是中央财政支持的数控实训基地，建有二栋现代化的教学大楼，有120个教室，可容纳学生近7000人，学校资产达5490.4万元，所有教室均是多媒体教室，可进行信息化教学，并建有10个微机房，电工电子实训室，语音室等，有教工阅览室和图书资料室，藏书7.26万册；学生公寓6栋，宽阔整洁，干净的学生食堂一栋二层，可同时容纳1000人就餐，有画室、舞蹈练功房、琴房；400m标准塑胶田径场，标准化篮球场等，校园绿树成荫，鸟语花香，置入校园，赏心悦目，无形中给学生注入了学习上一股强大的动力，学校软硬件设施完全能满足教学需要，近三年还准备投入大量资金用于改善和更新学校的教学设备和校园环境，以更好地适应教学工作。', '2019年，学校通过公开招考，网上发布招聘教师信息及现场招聘教师等措施，逐步充实教师队伍，提高教师整体素质，师资队伍结构趋于合理，现有专任教师178人，师生比为1:30，兼职教师8人，“双师型”教师3人，“双师型”教师的比例为2%，专任教师本科以上学历比例为65%，专任教师硕士以上学历比例为7%，专任教师高级职称教师比例为11%。与上年度相比基本持平。', '学校目前设施设备总价值1481.4万元，由于学生人数增加，生均实训实习工位数较上年有所减少，学校图书馆藏书量7.36万册，生均纸质图书18册。与上年相比，生均纸质图书有所减少。', '学校开设会计、模具制造技术、计算机应用、数控技术应用、汽车运用与维修、旅游服务与管理、酒店服务与管理、美容美体、美术设计与制作、铁道运输服务与管理、通讯营运服务与管理、电子商务等15个专业，其中数控技术应用和计算机应用专业是市级精品专业。', '学校开设会计、模具制造技术、计算机应用、数控技术应用、汽车运用与维修、旅游服务与管理、酒店服务与管理、美容美体、美术设计与制作、铁道运输服务与管理、通讯营运服务与管理、电子商务等', '学校积极培育和践行社会主义核心价值观，紧紧围绕“规范、高效、创新、服务”，工作新思路，实施做人与做事同学，技能与素养同修，成人与成才同步的“三同”育人模式，把“三同”融入到课程设置，日常教育教学和管理，校园文化建设等学校教育、管理和活动中，以学生学会做人为前提，培养学生学会做事的能力。在培养学生职业技能为核心的同时，注重学生职业素养的培养；在培养学生具有良好思想品德的同时，使每一个学生都学到一技之长，成为对社会有用的人。实现了成人与成才同步的目标，促进了学生德、智、体、美、劳全面发展。', '学校十分重视思想政治教育，特别注重新生的入学教育，大多数学生思想政治道德素质得到提高，行为习惯得到改善，学习目的明确，态度端正，能客观认识自我，重树信心，展示个性。按上级规定，每班都开足且上好了体育课，早上有晨跑，课间有做操，学校经常组织学生参加体育活动，保证大多数学生每天1小时体育锻炼，增强体质。学生的健康标准达标率均在98%以上。圆满完成了学生体质测评数据的网上提交上传，能按教育部《关于印发新修订的中等职业学校语文等七门公共基础课大纲的通知》要求，开设《语文》、《数学》、《英语》、《计算机基础》、《红色文化》等基础必修课程，文化课合格率在90%以上，根据市场对技能人才的需求和学生的实际情况，学校完善了各专业学生应达到的技能标准。大多数学生都具备了应用所学专业的相关知识解决工作与生活中实际问题的能力，毕业生取得了所学专业由劳动等有关部门颁发的技能职业资格证书，合格率达90%，2019年学校毕业生为2016级学生，通过毕业会考和顶岗实习检验，全部学生均顺利毕业。', '学校十分重视思想政治教育，特别注重新生的入学教育，大多数学生思想政治道德素质得到提高，行为习惯得到改善，学习目的明确，态度端正，能客观认识自我，重树信心，展示个性。按上级规定，每班都开足且上好了体育课，早上有晨跑，课间有做操，学校经常组织学生参加体育活动，保证大多数学生每天', '学校坚持党的教育方针和“以服务为宗旨，以质量为根本，以就业为导向”的职业教育办学方向。充分体现“尚德尚能，自立自强”的校训，学校发展目标与规划适应经济发展需求，学校以教学为中心，以技能教学为重点，进一步深化教学改革，加强对专业课教学的管理，加大学生实验实训力度。一是充分发挥现有实习场所的作用，能进实验室上的课一律到实验室上；二是加强了对实验室的建设和管理，充实了实验室人员，明确了职责分工；三是学校聘请了部分校外老师及企业技术骨干作为专业教师和实习指导教师。同时学校不断加强校园文化建设，创设了多处具有教育意义的人文景观和文化氛围，经常组织开展内容丰富、文艺、体育等校园文化活动。把德育、智育、体育、美育渗透到校园文化活动之中。大力鼓励引导学生积极参加学生会、团委、校卫队等社团组织竞聘，组建各种学习兴趣小组，通过开展形式多样，健康向上的社会活动，为同学们培养兴趣，发展个性和展现自我搭建了舞台，为了营造一个温馨的生活环境，学校想办投入资金对现有的生活设施进行了改造和改建，所有学生宿舍都安装了空调，保证了学生宿舍24小时供应热水，使学生在校学习生活有如到家的温暖。新增了一些运动场地，添置了运动器材，为学生课余体育锻炼提供了较好的条件，学校把安全放在首位，完善了校园监控设备，制订安全相关制度和措施，确保校园和谐平安。毕业生对母校有深厚的感情，有共同的心声：感谢学校培养了我。通过对学生进行问卷调查的形式，收集学生各种反映，学生对学校的满意度良好，理论学习满意度为98%，专业学习满意度为97.5%，实习实训满意度为85%，校园文化与社团满意度为97.5%，生活满意度为95%，校园安全满意度为87.5%，毕业生对学校的满意度为85%。', '一年来，我校贯彻落实国家和省、市、区有关学生资助的政策，对受助学生进行张榜公布，做到公平、公开、公正，并将江西省关于资助工作“十不准”发放到各班进行宣传，并在每个班级教室墙上张贴，让每个学生都了解国家的资助政策。免学费和助学金发放全部落实到位，对建档立卡的贫困学生按国家政策已将资助金发放到每个学生手中。针对由各乡镇临时发函告知的建档立卡户学生，学校垫付资金向他们发放了助学金，保证了这些贫困学生能够顺利完成学业。使他们倍受党和政府的温暖。我校学生均享受到免学费政策。', '一年来，我校贯彻落实国家和省、市、区有关学生资助的政策，对受助学生进行张榜公布，做到公平、公开、公正，并将江西省关于资助工作', '2019年学校毕业生为2016年入校的学生，毕业生人数为646人，就业率为98%，对口就业率为88%。就业工作的地方大多为沿海发达地区，起薪工资大约为3500元/月左右（就业单位免费提供工作餐和住宿），从目前反馈的信息，学生已适应了工作环境和工作岗位，对所从事的工作比较满意，大多数都能安心工作，流失率较低，有部分学生也自己在创业。为了提高自己的素质，有的学生不断为自己充电，参加了各类培训班的学习，有一部分学生毕业后参加了成人高考和远程网络高等教育，与2018年相比，升入高等教育呈上升趋势。', '学校根据教学大纲、技能标准以及校企合作要求，合理制定实施性教学计划，科学开设职业生涯指导课程，使学生树立正确的人生观、价值观、世界观、就业观。通过理论学习和实训性指导，提高了学生在进入工作岗位后能尽快适应岗位对工作能力的要求，并坚持通过强化人文素质，职业技能创新创业能力，培养学生的职业岗位迁移能力。', '为适应区域经济发展的需求，我校建立招生、培养、就业的联动机制，，选取“社会需要、初次就业率、专业评估排名”等作为主要评价指标，建立了专业结构动态调整机制，根据评价指标对各专业招生计划实行动态调整，形成倒逼机制，着力促进各专业强化内涵建设，努力提升应用型人才培养质量。', '采取了四大举措对现有专业进行动态调整：一是组织对全校各专业建设情况进行评估，公布相关数据，作为专业动态调整的决策依据；二是将各专业的招生就业情况、人才培养质量作为主要依据，建立专业预警与退出机制；三是根据各专业发展情况对年度招生计划进行调整，动态控制专业规模；四是以学校发展规划为引领遴选新增专业，并建立严格的准入机制。', '我校将继续优化专业结构动态调整机制，包括以就业为导向的招生计划调整机制，以厚基础、宽口径为特征的人才培养机制，以市场需求为导向的课程调整机制，促进专业结构优化和办学特色培育，不断提升应用型人才培养与区域经济社会发展的契合度。', '以培养适应生产一线需要的应用性和实用性人才为根本任务；以企业的实际需求为目标，以技术应用能力的培养为主线设计教学体系、制定培养方案。以“应用”为主旨和特征构建课程和教学内容体系，基础理论教学以应用为目的，以“必需、够用”为度，改善课程体系，专业课教学加强针对性和实用性。以培养学生的技术应用能力为目标构建相对独立的实践教学体系，加大实践教学学时在总学时中的比例。不断更新教学法内容，加强校内外专业实训基地建设，并与省内外企业签订长期合作协议，建立稳定的校外实习基地，积极探索校企合作，产教融合，共同培养应用性人才的新路子。规范实训教学，建立健全多形式的实训方式。', '以培养适应生产一线需要的应用性和实用性人才为根本任务；以企业的实际需求为目标，以技术应用能力的培养为主线设计教学体系、制定培养方案。以', '学校实行“专业加特长”、“学历加技能”的人才培养模式，实现了“教学-实训实习-安置”一体化，现已建立了机电、电子、计算机、数控模具等专业实习（训）基地，并先后与长江三角洲、珠江三角洲等大型企业建立了长期人才培养合作关系或签订了实习、就业合作协议。建立了教、学、做一体化人才培养模式。', '2大专班，与上海晨光文具联合设立了“晨光班”、与杭州移动公司联合设立了“移动客户服务班”。', '一年来，我校坚持以服务为宗旨，以就业为导向，以质量求生存，以“让中职生成为一个合格的技术工人”为抓手，着力提升我校教育质量和人才培养质量。', '重构符合学生不同学习基础、学习需求和发展趋势的公共基础课程体系。包括三大模块，一是为提高学生的文化基础素质打基础的公共模块部分，二是为学生进行专业学习和形成职业能力打基础的专业模块部分，三是为学生继续学习深造、接受终身教育和终身学习打基础的发展模块部分。选择具有个性化的课程组合，重新构建学生的文化基础，按需施教，通过学分制的教学管理制度，使每一位学生都能找到适合自己的课程。', '①优化师资队伍建设。在教学改革中加大师资培养力度，以校本培训为主，并选派教师参加国培和省培，提高师资整体水平，规范教师的教学行为，推进教师的探究化教学，使专业理论课教师在创新课程模式、改革教学内容、创新教学方法、核心课程教材建设等方面均有大幅度提升。', '②打造一支优秀的教师队伍。通过教学模式的改革，促使教师对课程模式，课程结构，教学内容，教学方法，教材改革进行一系列的优化，从而使教师的教学能力，实践能力，职业技能显著提高，并以“雨课堂”手机APP为培训平台的培训模式，大大提高了教师队伍的素质，教师队伍建设有了长足进步。', '我校专业建设以学校《关于专业人才培养方案修订的指导性意见》为总纲，在创新人才培养模式，全面提高技术技能人才培养质量，推进教学改革等方面做了以下尝试：', '紧密围绕培养学生岗位职业能力这个基点，以“工学结合”为切入点，注重教学过程的实践性、开放性和职业性，抓住实验、实训、实习三个关键环节，探索具有本专业特点的人才培养新途径，引导课程体系、课程内容和教学方法改革，形成了具有鲜明特色的人才培养模式。', '以计算机应用技术、数控技术、铁路运输与管理专业为引领，带动其他5个专业完成人才培养具体模式的提炼，并付诸实践。', '依据岗位职业能力训练与培养要求，提出了教学计划修订的四条原则：一是突出适应性、实用性及针对性；二是统筹兼顾与突出重点相结合；三是校企合作、工学结合；四是统一与特色相结合。', '遵循四条原则，各专业课程按基础课程、专业课程、实践课程和拓展课程四个模块进行了课程体系重构，重点突出了专业与技能课程，形成了以工作过程为基础的课程体系、以岗位职业能力为依据的课程标准、以岗位工作任务为载体的课程内容，实现了课程体系和课程内容的创新。', '突破以教师、课堂、教材为中心的教学模式，根据课程教学特点，推广工学交替、任务驱动、项目导向等教学模式，推动教学做一体化，推行案例教学、项目实践、现场观摩、情景教学、问题教学等以学生为主位，师生互动的教学形式，倡导启发式、研究式、讨论式等教学方法，积极采用现代教育技术和教学手段开展课程教学，丰富教学载体，提高教学效果。', '围绕教学方法和手段改革，我们每学期都开展了15—20场公开观摩教学活动，相当多的老师，尤其是青年教师运用多媒体等教学手段，创新教学方法，取得了良好成效，营造了互学的教学氛围，推动了教学特色的形成。', '改革考核制度，注重过程和能力考核；推行“专业技能达标”制度，强化职业技能训练考核；采用多元化方式，加强综合实践能力考核。广泛采用现场操作、作品展示（成果演示）、方案设计、案例分析、职业技能鉴定、社会实践等多元评价方式，开展以能力考核为主的考试考查方式改革，积极探索具有特色的技能型人才评价机制。', '为一个目标、两个面向、三项原则、四个突出。一个目标：培养目标是造就一大批服务于生产第一线的高素质的应用型人才。两个面向：面向社会、面向人才市场，服务于市场经济建设和社会发展的需要。三项原则：应用型人才培养就是要强化“基础性、应用性、实践性”，办出应用型特色。四个突出：突出技术应用能力本位的教育思想；突出“教师为主导、学生为主体”的教学理念；突出学生全面素质的提高；突出可持续发展能力和创新能力的培养。', '为一个目标、两个面向、三项原则、四个突出。一个目标：培养目标是造就一大批服务于生产第一线的高素质的应用型人才。两个面向：面向社会、面向人才市场，服务于市场经济建设和社会发展的需要。三项原则：应用型人才培养就是要强化', '近年来，我校的教育教学质量不断提高，办学品位不断提升，这得益于现代信息化教育技术的广泛应用。我校在各级领导的大力支持下，逐年增加资金用于添置信息技术装备，特别是在创建数字化校园中，我校按照省标准为每个教师、功能室配备了多媒体系统、食品展示台，新建了网络机房，为每个教师配备了计算机，实现了网络终端到每个教室、办公室，实现了教育教学的现代化，提高了课堂教学效率，推动了教育教学质量稳步提高，提升了学校档次，进一步增强了学校的核心竞争力。', '培养学生的实际动手能力是中等职业学校工作的重点。传统的教学模式因过于强调课堂教学和学生对书本理论知识的掌握而忽视了实践教学的作用，往往与职业教育特色不完全相符。为改变这种状况，弥补传统教学模式的不足，学校根据专业特点创办各类实训中心，使书本知识在实训中具体化、形象化，在“动”中强调学生的学习热情，使学生所学专业理论和专业技能得到综合应用，进而把理论转化为一种实际操作能力。另外，就所学专业理论和人际沟通技巧开展诸如技能竞赛、义务维修、社会调查、义务服务等活动，使学生所学专业知识能够学以致用，从而调动了学生的积极性和主动性，充分培养了学生的专业能力、社会能力和创造能力，也为理论知识的调整、完整、升华提供依据。学生在实际运用中，明确了自己的任务、工作性质、责任以及应该具备什么样的水平和道德品质。 这种教学活动无疑培养了学生创造能力。同时我们积极组织各种活动和丰富多彩的第二课堂，培养学生创新能力。', '培养学生的实际动手能力是中等职业学校工作的重点。传统的教学模式因过于强调课堂教学和学生对书本理论知识的掌握而忽视了实践教学的作用，往往与职业教育特色不完全相符。为改变这种状况，弥补传统教学模式的不足，学校根据专业特点创办各类实训中心，使书本知识在实训中具体化、形象化，在', '我校坚持以专业为基础进行数字化教学资源的建设和组织，实现教学资源的共享、共用。学校教学资源主要由互联网上获取和学校教师自己的资源。', '教务处、信息中心对学校教学资源加强管理，充分发挥教学资源库管理员的技术，不断对学校的资源库进行维护更新，保证了资源实用、科学。教学资源为教师提供了资源和服务，提高了教师的工作效率，促进了信息技术与学科教学的深度融合，提高了课堂教学效果，促进了学校教学工作的全面提升。', '我校教材选用严格执行教育部《关于进一步加强对中等职业教育教材管理工作的通知》要求，进一步规定教材的使用和管理工作，严格按规定使用教材，坚持做到四个原则即方向性原则；适用性原则；选编结合的原则；管理有序的原则，严把教材质量关，凡未经教育部全国教材审定委员会审定通过的教学书籍一律不得作为教材使用，地方教材和校本教材择优选用。', '一年来，在学校领导高度重视下，在学校各有关部门的通力配合支持下，教务处组织了对全体教师进行培训，广大教师积极参与培训，教师的整体素质得到了提高，我校教师培养培训工作取得了一定成绩。', '（1）重点对今年新入职教师举行了如何备课、书写教案、如何更好进行课堂教学等教学基本功讲座4次。', '（3）制定了教师发展目标，成立了专业教研室6个，落实了培养新教师的任务，制定了一帮一以老带新的师徒结对制度。', '（4）加强校本培训，发挥骨干教师，教学能手的示范引领作用，形成教师互相学习交流的良好教学氛围。一年来，组织公开教学30多次，示范教学10多次，起到了取长补短，相互促进的效果。', '（5）学校利用工作间隙组织中层管理人员赴宜春职业技术学院、江西省高级轻工业学校实地考察学习兄弟学校的管理经验，逐步引导管理人员向高效、严谨、正规看齐，为学校可持续发展打下了扎实的基础。', '随着学校发展的不断壮大，对教学管理、科研管理、管理队伍建设以及管理信息化水平提出了更高的要求，逐步形成了规范化、流程化与创新化的管理模式。', '根据学校制定的《关于规范教学管理办法的意见》、《教师量化考核管理细则》、《教师职业素养十项要求》等规定，狠抓日常教学管理，每月开展月度教学检查，对每个教师的教学情况用数字进行量化，将结果公布评选出月度考核优秀教师、称职教师、基本称职教师，并与绩效工资挂钩，在一定程度上规范了教学管理，增强了教师的工作责任心。', '严格执行教育部关于《中等职业学校学生实习管理办法》的规定，成立了实习管理领导小组，由招就处具体负责学生实习的相关事项，学生实习做到了由学校和实习单位共同组织和管理，共同制订实习计划。维护学生的合法权益，确保了学生在实习期间的人身安全和身心健康。', '根据我校学生的现状，对班主任、学生、班级建立了有效管理制度，在工作中，严格执行《班主任工作量化考核细则》、《班级月评估》、《学生违纪处罚规定》等制度，通过制度提高班主任的工作责任心，规范学生的行为习惯。', '学工处从培养学生道德文明入手，狠抓学生的思想工作，特别注重新生的入学教育，学工处印制了入学教育手册，发放学生人手一本，在军训期间，利用教育手册对新生进行全面的养成教育，引导学生转变观念，规划人生，树立信心。在学生中进行行为规范教育，让他们能看到自己的优势和长处，鼓励他们以崭新的面貌迎接自己人生的一大转折，养成文明行为习惯，为此学工处利用国旗下的讲话，主题班会和晚自习时间，召开学生大会、男生学生大会、女生学生大会、待进生大会，加强理想前途教育，促进其人格健全，心理健康，克服自卑心理，改掉懒惰，散漫的不良行为，使学生充分认识到行为规范和养成教育的重要性和必要性，提倡他们从小事做起，从我做起，从现在做起。让学生牢固树立细节造就成败、态度决定一切、知识改变命运，技能出彩人生的思想，通过会议和一系列行之有效的工作，学生的精神面貌有很大改观，对违犯校纪校规的少数学生，班主任与学工处找其谈话做耐心细致的工作，并与家长沟通，已取得家长对学校工作的大力支持，尽量感化他们改正缺点，端正态度。一年来，学工处化解学生纠纷多起，找学生谈心100多人次，劝退学生30多人，对屡次违犯校纪校规的学生，按规定予以开除，开除学生10人。通过整顿校风，学校的学习风气有很好的转变，爱学习的人更多了，贪玩的人更少了，听课的人更多了，贪睡的人更少了，卫生环境更好了，乱吐乱扔更少了，违纪违规更少了，团结友好的气氛更浓了，校园充满一片生机勃勃景象。', '学工处从培养学生道德文明入手，狠抓学生的思想工作，特别注重新生的入学教育，学工处印制了入学教育手册，发放学生人手一本，在军训期间，利用教育手册对新生进行全面的养成教育，引导学生转变观念，规划人生，树立信心。在学生中进行行为规范教育，让他们能看到自己的优势和长处，鼓励他们以崭新的面貌迎接自己人生的一大转折，养成文明行为习惯，为此学工处利用国旗下的讲话，主题班会和晚自习时间，召开学生大会、男生学生大会、女生学生大会、待进生大会，加强理想前途教育，促进其人格健全，心理健康，克服自卑心理，改掉懒惰，散漫的不良行为，使学生充分认识到行为规范和养成教育的重要性和必要性，提倡他们从小事做起，从我做起，从现在做起。让学生牢固树立细节造就成败、态度决定一切、知识改变命运，技能出彩人生的思想，通过会议和一系列行之有效的工作，学生的精神面貌有很大改观，对违犯校纪校规的少数学生，班主任与学工处找其谈话做耐心细致的工作，并与家长沟通，已取得家长对学校工作的大力支持，尽量感化他们改正缺点，端正态度。一年来，学工处化解学生纠纷多起，找学生谈心', '③开展“文明寝室”、“优秀班级”、“学习标兵”等评比活动，通过多种形式培养学生积极健康向上的思想境界，制订“文明寝室”、“优秀班级”、“学习标兵”评比方案，对评选出的文明寝室、优秀班级、学习标兵在集会时，由学校领导颁发锦旗和荣誉证书。让学生在学先进、赶先进、争先进的气氛中得到成长。', '为加强校园管理，锻炼学生的能力，充分发挥以学生会，校卫队，团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开4次学生会、校卫队会议，认真听取他们对学校工作的意见和建议，鼓励他们大胆工作，为学校的发展出谋划策，确保了校园环境卫生、安全、食堂学生就餐的秩序等常规工作、顺利开展，同时纠正了校园内违纪情况，化解了校园内学生闹不团结现象。培养了学生“自我管理、自我服务、自我参与、自我教育”的能力，全面提高了学生自主管理意识。', '为加强校园管理，锻炼学生的能力，充分发挥以学生会，校卫队，团委为核心的学生团队作用，学生团队配合值日老师检查工作，巡视校园，加强早操、晚自习管理，每天检查的情况均有数据上墙公布，并先后召开', '完善购物、保管、使用等财产管理制度，严格执行物品进出库和财务报账手续，制定了《学校财产管理办法》、《财务制度管理办法》职责明确，责任到位，对学校教学用品，教学实习实训设备，生活设施等公共财产登记造册，建立实物台账，实行“谁使用、谁负责”落实损坏赔偿制度，把公物的损坏维修，赔偿与班级掛钩。财务处每月都有报表上交财政、税务等相关部门，做到了账务规范、清晰，每年均顺利通过上级主管部门指定的审计事务所对我校财务情况的审计。', '完善购物、保管、使用等财产管理制度，严格执行物品进出库和财务报账手续，制定了《学校财产管理办法》、《财务制度管理办法》职责明确，责任到位，对学校教学用品，教学实习实训设备，生活设施等公共财产登记造册，建立实物台账，实行', '经过不断深入细致的修订完善，已形成一套完整的安全责任制度，制定了“公共场合和大型集会安全管理制度”、“宿舍、门卫管理制度”，学生必须凭校牌进出校门，外来人员进校必须凭有效证件进行登记。“实训设备安全操作流程制度”、“学生安全应急预案”、“食品安全卫生制度”等为全校师生提供了制度保障，学校安排了行政值日，每天由一名校领导带班，全天候，全方位，无死角对学生进行监护，发现问题及时处理，不留隐患。行政值日通报采用无纸化形式，在钉钉平台上将值日情况进行通报，共发布行政值日通报300多份，全面系统反映了学校的各种情况，实事求是指出了存在的问题，提出了整改意见和建议。为加强学校管理提供了有参考价值的资料。', '对学校食堂、超市食品安全、用电安全、实训设备安全和消防设备等隐患重点排查，学校组织开展了“五一”、“十一”等重大节假日及暑期等安全大检查6次，定时巡查学生宿舍，及时收缴管制刀具等30多件，严格制止乱拉乱接电线现象，将安全隐患消灭在萌芽状态。在放假时，以学校名义致家长一封信，强调节假日期间安全事项，尤其是杜绝学生游泳，防止交通事故的发生，深受家长的称赞，完善了校园监控系统对校园的重要部位纳入监控范围。', '对学校食堂、超市食品安全、用电安全、实训设备安全和消防设备等隐患重点排查，学校组织开展了', '充分利用班会、两操、晚自习等事迹，为师生宣讲安全知识，加强与见家长沟通联系，用先进的网络形式（微信）将学生在校学习生活情况及时反馈给家长，坚持家访制度，一年来，家访学生人数达100多人，使部分辍学的学生回到校园完成学业。一年来，积极与辖区派出所联系，争取派出所在工作上给予大力支持，我校还邀请辖区派出所和社区相关人员进校园进行法治讲座教育5次，邀请市消防局专家进校园举行消防知识讲座，提高了全校师生的安全意识，加强学生周末的监管力度，每周六上午，班主任会跟学生家长电话告知或微信联系学生是否回家，留校学生必须在晚上21:00之前返校，值日领导和值日人员周末晚上到学生宿舍清查，确保学生安全，如发现学生未在校，马上与班主任核实学生去向，并通知家长。', '充分利用班会、两操、晚自习等事迹，为师生宣讲安全知识，加强与见家长沟通联系，用先进的网络形式（微信）将学生在校学习生活情况及时反馈给家长，坚持家访制度，一年来，家访学生人数达', '学校根据专业建设现状，成立了6个专业教研室，以教研室为龙头，加强科研管理和管理队伍建设，以省市技能竞赛为依据，查找不足，在科研管理方面狠下功夫，取得了一定进展和变化，从而也建立了一支相对稳定的专业教师管理队伍。', '学校已形成教务管理系统、OA管理系统，利用网络化信息平台，从纸质化与传统的管理模式提升到通过利用微信、钉钉软件平台，交流沟通和工作汇报，所有教师都能用信息化手段进行教学，提高了信息化管理水平。', '我校坚持“育人为本，德育为先”原则，突出中等职业学校的特点，体现职业特色。着重对学生进行职业道德及公民道德的教育和培养，成立了学校德育工作委员会。实行德育工作校长、负责制，分管校长首问制，班主任责任承包制。德育课程按要求开设了职业道德、职业生涯规划、法律常识、红色文化等，学校德育工作坚持贴近生活，贴近实际，贴近学生。', '校园文化建设、文明风采开展得有声有色，校内制作了创建文明校园的宣传栏，用图文并茂对优秀教师、优秀学生张榜表彰，形成了一种赶学先进的良好氛围，墙壁上的名人名言时刻在鼓励和鞭策全体师生，用自己的实际行动，为创建文明校园献计出力。校园内的好人好事也层出不穷，有的教师利用休息时间为学生补课，慷慨解囊为贫困学生伸出经济援助之手，帮助他们度过经济困难；有的学生帮助学校清理卫生死角垃圾，不怕脏，不怕累........全体同学积极参加文明风采活动，文明风采作品获得多项奖励。', '校园文化建设、文明风采开展得有声有色，校内制作了创建文明校园的宣传栏，用图文并茂对优秀教师、优秀学生张榜表彰，形成了一种赶学先进的良好氛围，墙壁上的名人名言时刻在鼓励和鞭策全体师生，用自己的实际行动，为创建文明校园献计出力。校园内的好人好事也层出不穷，有的教师利用休息时间为学生补课，慷慨解囊为贫困学生伸出经济援助之手，帮助他们度过经济困难；有的学生帮助学校清理卫生死角垃圾，不怕脏，不怕累', '校团委非常重视学生的文体生活，全面推进和加强素质教育，以大型活动为载体，组织开展了主题鲜明，内容丰富多彩的校园文体活动，组建各种社团组织14个，发现和挖掘人才，展示学生的风采，丰富学生的课余活动。一年来，成功举办了“新声飞扬，律谱青春”成立70周年校园歌手大赛和“主持现在，把握未来”主持人大赛、“中华诗词”“祖国颂”、“我的职业生涯规划”、朗通比赛，成立70周年征文演讲比赛、“团结就是力量”拔河比赛、“长江杯”篮球赛、“校第十五届秋季田径运动会”，各班举行了“创文明城，做文明人”黑板报比赛和“创文明城市，我们在行动”手操报比赛，为广大学生提供了放飞梦想，施展才华的舞台，开展了“厉行节约，拒绝舌尖浪费”的光盘行动，成效显著，舞蹈社团排练的反应抗日战争体裁的舞蹈《纸飞机》获袁州区庆祝五四运动100周年中小学舞蹈比赛一等奖，舞龙、舞狮队参加各种活动的精彩表演，充分显现出我校师生员工团结协作，顽强拼搏，积极向上的精神风貌。团市委对我校团建工作进行了专题调研，对我校的团建工作给予了高度评价并提出了殷切希望，为今后进一步推动我校的团建工作将起到很大的鼓舞作用。', '校团委非常重视学生的文体生活，全面推进和加强素质教育，以大型活动为载体，组织开展了主题鲜明，内容丰富多彩的校园文体活动，组建各种社团组织', '我校是宜春市民办职业学校第一个设立有党支部的学校。为了彰显支部的战斗堡垒作用，党支部不断加强自身建设，按照“三会一课”、“两学一做”的要求，提出了“一帮三”活动，每名党员与三名家庭贫困，表现优秀的学生建立扶贫关系，从思想上、生活上、学习上，予以关心，帮助他们顺利完成学业。使他们深受鼓舞，倍感党的温暖。经报请宜春市经开区党工委批准，支部在10月份进行了改选，新的支部在党建工作上既保持了优良作风，又有创新的举措。本年度共召开党员大会六次，党员民主生活会三次，组织全体党员集中到宜春市经开区进行了为期三天的“不忘初心、牢记使命”的主题教育。认真学习党的十九届四中全会精神和习近平新时代中国特色社会主义思想，参加学习党员在政治思想觉悟上普遍得到了提高。“七一”期间，评出优秀党员6名，党员优秀先锋岗4名。每名党员都自觉地下载学习强国软件，坚持利用工作之余认真学习，积分稳步上升。本年度吸纳了9名同志为入党积极分子，经上级党组织批准，有3名同志光荣的加入了中国共产党，成为了一名预备党员。有3名同志 由预备党员转为中共正式党员，党员的力量不断加强。通过一系列的党员活动，增强了党员的“三感”即荣誉感、使命感和责任感意识，党员讲奉献，讲带头作用得到体现，形成了党员教师做教学能手，机关党员身先士卒的良好氛围。', '我校是宜春市民办职业学校第一个设立有党支部的学校。为了彰显支部的战斗堡垒作用，党支部不断加强自身建设，按照', '（1）学校积极实行校校，校企联合办学，与宜春职业技术学院联合举办了“3 2”会计、文秘、数控技术应用。中高职对接大专班，与深圳成谷科技有限公司，广东美晨通讯有限公司，上海富士康科技集团公司、均裕模具（东莞）有限公司、宜春电子商务培训基地、宜春电脑城友华科技、飞扬网络等企业建立了校外实训基地，上述企业专家和学校资深教师共同组成各专业教育指导小组。校企建立起有效工作机制，形成校企共同制定培养方案，共同承担专业教学任务。企业指派专业指导人员对学生进行顶岗实习、实践、学校专业老师为企业进行产品质量控制、品牌运作、市场营销等技术讲座，相互推进新技术、新工艺、新材料、新经验等实践活动。', '开展“订单”培养：学校与宜春市经济技术开发区入园的相关企业和沿海发达地区的杭州移动公司客户服务中心、厦门新鸿洲精密科技有限公司等企业开展了“订单”培养人才计划：与广东、福建、浙江、江苏、上海等30多家企业签订了用人协议。确保学生毕业后80%以上专业对口就业。', '①学生实习无违反“六不得”情形，未违规使用劳务中介组织实习活动；未安排学生从事有较高安全风险的实习内容，学生实习期间有加班，但无夜班作业情况。', '③学生实习前，均已实习单位签订了校企合作协议，也与学生签订了实习协议，明确各方、各自权益。', '⑥学生实习期间，学校安排了指导老师和专人负责学生实习期间的业务指导和日常管理工作。', '⑦学生实习期间，按上级规定要求明确了实习学生、带队负责人、指导老师、实习单位等安全职责，重点扎实了安全工作，无一重大安全事故。', '我校办学二十多年来，为社会培养了大批的合格技能人才，为经济建设，特别是地方经济建设，作出了较大贡献。我校毕业生在不同的岗位上表现了良好的职业素养和不俗的精神风貌。有大批的毕业生成了单位的技术骨干。', '万检福，男，汉族，2013年9月进入我校数控技术应用专业学习，在校期间，在思想上积极要求进步，多次被评为 “优秀团员”、“学雷锋标兵”、“三好学生”“优秀学生会干部”在学习上，学习效率高，在校内实验课上，敢于动手，不怕脏不怕累，虚心向指导教师请教，不放过一个疑难问题，实验报告工整翔实。', '在企业实习期间，他运用平常所学的知识，联系实际，扩展新知识，工作中有强烈的责任感，工作勤恳扎实，不论是平时工作还是加班，他都能够积极主动，不迟到不早退，不敷衍了事，在完成自己的工作量的同时，主动帮助未完成任务的同学，有良好的团队意识。出色的表现，突出的业绩，使他受到他所在实习公司领导的认可和表彰。实习三个月后就被实习公司任命为组长，提了薪，实习六个月后，被实习公司留了下来，并提升为主管，月工资达到4600元。最近与公司联系，万检福因良好的业绩和管理能力，被提升为车间副主任，月工资达到10000元。', '在企业实习期间，他运用平常所学的知识，联系实际，扩展新知识，工作中有强烈的责任感，工作勤恳扎实，不论是平时工作还是加班，他都能够积极主动，不迟到不早退，不敷衍了事，在完成自己的工作量的同时，主动帮助未完成任务的同学，有良好的团队意识。出色的表现，突出的业绩，使他受到他所在实习公司领导的认可和表彰。实习三个月后就被实习公司任命为组长，提了薪，实习六个月后，被实习公司留了下来，并提升为主管，月工资达到', '我校董事会和校委会认真贯彻落实党和国家关于中职教育的方针政策，对于政府给予的扶持学校发展的所有经费全部用于学校的教育教学管理等其他校园建设上，并且主动想办法提高学校的办学水平，争取获得政府认可的项目并且积极想办法筹措资金，用于改善办学条件，力争学校上档次，创品牌，办成一所高水平的现代化职业学校。', '案例一：根据我校实际，举办学校教师教学论文和多媒体课件评选活动。此次活动能够反映学校重视培养优质的师资力量，夯实教师队伍的根基，在摒弃传统教学给教师和学生带来的消极影响的同时，主要抓住三个发展方面：', '（2）主旨：帮助学生了解更多关于会计专业中的工作知识，培养其动手能力，调动学生学习专业技能的兴趣，体现学校教、学、做合一的特色。', '③提高会计专业与其他专业的同学的实践操作水平和就业竞争力，为其以后的职业生涯发展奠定专业基础。', '①由于家长、学生普遍存在“上高中、考大学”和“上不上高中去打工”的传统观念，招生存在困难。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>126</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市不动产登记中心赴萍乡市考察学习不动产登记工作</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202012/78751183f0364981b5446218be0b24db.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['12月15日，市不动产登记中心主任陈柒龙一行7人到萍乡市不动产登记中心进行考察学习。', '考察组首先来到萍乡市不动产登记大厅，详细参观了该中心大厅布局、“一窗受理”、“不动产登记互联网+”等相关情况，并现场观摩了不动产“开发商批量业务”办理要件收集及操作流程。', '进行了座谈交流，听取了该市不动产关于“开发商批量发证”具体办理流程情况和平台建设经验和前景展望，', '了其在“开发商批量发证”平台建设、登记风险防范、部分登记审核流程等方面的经验做法，并就实际工作中存在的问题交流', '了意见和建议。考察组一致认为，萍乡市不动产登记“开发商批量发证”登记服务流程设置简单，便于操作，防范超时措施明确到位，技术应用灵活规范，非常值得学习和借鉴。', '纷纷表示要找准问题症结，学习兄弟单位的先进经验，提高工作的主动性、精准性和前瞻性，针对开发商批量登记业务办证量大、办理时限长、资料人工核算多等问题，抓好数据衔接，优化审核流程，进一步缩短办结时限，提高工作效率和质量，在资料齐全的情况下，让服务对象尽快拿到不动产权证，维护企业和群众合法权益，推动宜春市不动产登记工作健康稳定发展。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>126</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>我局赴鹰潭市自然资源局考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/202011/cee45a9950e941019ef44c5fb69a451b.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['11月18日，我局党组成员谢洪波、二级调研员丁高胜带领局相关科室人员赴鹰潭市学习考察鹰潭市自然资源局在华强方特集团招商落地、审批服务、用地保障等方面的先进经验和做法。', '在座谈会上，鹰潭市自然资源局党组成员段俊就华强方特项目主题、创意确定等做了总体介绍，相关科室负责人从项目选址、规划调整、报批、供地等方面一一作了经验交流。', '鹰潭市自然资源局在助推城市建设和发展、协调解决项目审批、规划、用地等方面的经验做法值得我局学习借鉴。通过此次考察学习，我们将认真总结、汲取经验，充分结合我市实际，在后续工作中锐意创新、发挥优势，大力推进宜春市重大招商项目顺利落地。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>126</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>我市启动国土空间总体规划编制工作</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019-09-25</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zwyw/201909/0dbeec3e9936443bbfe621395004bf43.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['为高质量编制好国土空间总体规划，我市成立了工作领导小组，邀请国内知名规划专家对总体规划方案进行了讨论，明确了工作内容、时间节点和重点专题研究等；市领导带领相关工作人员到试点城市考察学习，为科学开展规划编制学习先进经验和技术；组织业务骨干参加专题培训，提高规划编制水平。', '目前，市自然资源局正在开展国土“三调”、生态红线评估优化、“一张图”建设和现状评估等摸家底、数据整合工作。规划编制将于2020年年底基本完成。', '此次国土空间总体规划编制范围为宜春市行政辖区内的1.87万平方公里，规划期限为2020年至2035年。具体内容包括开展资源环境承载能力和国土空间开发适宜性评价，摸清家底形成全市国土空间“一张底图”；科学有序统筹布局生态、农业、城镇空间，统筹布局绘制全域城乡发展与国土资源保护“一张蓝图”；统筹山水林田湖草系统治理与生态修复，系统提升城乡服务水平优化配置；明确市级国土空间规划与专项规划、下层次规划的衔接机制，确保有效衔接可操作；构建全面、详实、精准的规划数据库，推进宜春智慧城市建设，全面提升国土空间治理体系和治理能力现代化水平。( 刘燕 记者张水珍)']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>126</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>宜春市考察团赴上饶市考察学习大气污染防治工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/wrzhfz/201909/aefa8cbaa61c4a0ebb187f4b23d53eca.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['日，宜春市政府办副主任葛忠同志、市长督查室主任张怀宇同志率领市生态环境局、综合行政执法局、住建局等市直部门及部分县市区政府（管委会）', '项目等施工工地，并与上饶市有关单位进行了交流座谈，详细了解了上饶市在扬尘治理、道路保洁、渣土运输管理、落实“门前三包”、餐饮油烟治理以及大气污染防治长效管控机制等方面的成功做法和经验。考察团成员纷纷表示，上饶市在大气污染防治工作中措施坚强有力、责任落实到位，特别是在扬尘治理精细化管控方面成效突出明显，非常值得我市学习借鉴，回去后将对上饶市的好经验、好做法进行认真梳理总结，并结合各自工作实际，扎实做好宜春市大气污染防治工作，全力推动我市环境空气质量不断改善。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>126</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>宜春市年中等职业教育质量报告</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zyjy/201905/1c5375b3d2e84c4cb9fa690d7b6a30d7.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['全市现有中等职业教育学校35所，含普通中等专业学校5所，成人中等专业学校（教师进修学校）10所，职业高中20所。在校学生3.28万人，教职工1208人。现有国家改革发展示范中职学校1所，国家重点中职学校3所，省级达标中职学校9所。', '各校硬件设施设备不断完善，教学大楼、实训基地、学生公寓、体育场所、餐厅等教学生活设施水平不断提高。', '教学设备总造价近5000万元，实训工位1000余个，学校图书馆藏书量11万册。生均教学仪器设备值、生均实训实习工位数、生均纸质图书较去年都有较大提高。', '职业技术学校座落在药都职业教育园内，占地面积17.38万平方米，建筑面积10.59万平方米，现有公寓7栋，教学大楼3栋，实训楼2栋，食堂1栋，可同时满足5000余学生教学生活需求。建筑面积1万平方米的新实训大楼已经建成将于2019年正式投入使用。学校建有汽车运用与维修实训室、电子商务实训室、图书馆、琴房、舞蹈室、画室、心理咨询室、400米标准环形跑道田径运动场等实训场所和教学场所；配有计算机534台，机生比达到56%；教学仪器设备总价值581万元，较上一年度增加135万元，生均教学实习实训设备0.95万元；实习实训工位数386个，生均0.63个；图书18万册，生均189.5册，学校还购置了超星电子图书馆和电子图书借阅机，为学生提升专业技能、丰富文化生活提供了硬件设施。', '中等专业学校中专占地面积约430亩，建筑面积约12万平方米，目前建有综合实训大楼、教学楼、办公楼、学生公寓、食堂和机械、服装、汽修、物流、玉雕、烙画等八个实训车间及电子商务模拟工作室，各类实训设备约2300台（套），学校设有电子阅览中心、心理健康教育中心、图书室、计算机房、琴房、舞蹈房、绘画室、多媒体室等教学辅助设施。', '平方米，建有教学楼、培训楼、实训中心、学生公寓、集训住宿楼、餐厅共六幢；教学设施齐全，装配有多媒体教室', '间，图书室、阅览室、微机室、微课录制室、健身房、各类专业实训室，学校还建设了体育教育体能训练中心和学前教育训练中心。学校固定资产总值', '冶城职业学校占地300亩，建筑面积5.2万平方米，建有400米标准塑胶跑道、足球场、篮球场、排球场、公寓式学生宿舍、学生餐厅等教学生活场所，以及具备实验、实训、演示、交流、比赛等面积达1万多平方米的多功能实训基地，其中包括7个计算机实训室，6个汽车实训车间，1个中式烹饪实操间，1个中西式面点实操间，两个钳工工作间，2个电子电工实训间，1个数控机床实训车间，1个熔化焊接实操车间，2个特种作业模拟实操间，2个舞蹈练功房，53间钢琴房等，能根据教学计划，科学合理地安排实训教学内容与顶岗实习任务。校内实验实训设备总价值1000万元，图书馆纸质藏书15万册，电子图书10万册。', '中等专业学校占地面积50000平方米，建筑面积18768平方米。建有教学楼2幢、综合教学楼1幢、综合实训楼1幢、学生公寓楼2幢、食堂1幢。建有录播室、电脑操作室、空调制冷操作室、电子产品安装室、家用电器维修室、琴房、练功房等十多个实训操作室。校内实验实训设备总价值673万元，全日制在校生生均设备值0.54万元；生均实训实习工位数1.02个；图书馆纸质藏书2.3万册，生均 20.7册。学校现有3个实训基地。', '万元。建有300米标准塑胶跑道及足球场、篮球场、排球场等；学校建有18个校内专业实训功能室：包括5个计算机实训室、6个汽车实训车间、2个舞蹈练功房、4间钢琴房、1个语音室。校内实验实训设备总价值2960万元，生均0.48万元；图书馆纸质图书39862册，生均30.5册，电子图书正在按计划购置。', '我市鼓励学校通过创新用人机制和师资队伍建设机制，积极招聘、引进专业骨干教师，通过中等职业学校专业师资培训及专业课教师轮训的方式，以“双师型”教师队伍建设为重点，努力建设结构合理、理论过关、技术技能过硬的中等职业教师队伍。2018年全市中职学校生师比为', '我市鼓励学校通过创新用人机制和师资队伍建设机制，积极招聘、引进专业骨干教师，通过中等职业学校专业师资培训及专业课教师轮训的方式，以', '我市中职学校以培养专业技术应用型人才为目标，文化知识与专业技能并举，注重学生思想品德教育，开齐开足德育课程；实施一体化教学，', '积极探索现代学徒制教育模式，努力把学生塑造成“升学有希望、就业有优势、创业有本领”的高素质技能型人才。', '我市以服务发展为宗旨，以促进就业为导向，以专业对接产业为主线，以培养高素质技术技能人才、提升专业服务产业能力为根本任务，围绕提高教育质量主题，着力打造深度融入产业链、发挥引领辐射作用的特色专业，推动职业学校人才培养质量的提升，更好地服务“全面同步小康”建设。', '我市以服务发展为宗旨，以促进就业为导向，以专业对接产业为主线，以培养高素质技术技能人才、提升专业服务产业能力为根本任务，围绕提高教育质量主题，着力打造深度融入产业链、发挥引领辐射作用的特色专业，推动职业学校人才培养质量的提升，更好地服务', '根据地区经济发展现状，对各校品牌专业加大投入，提高专业课程和实训课的比例，进一步完善实训设备设施，努力提高学生的专业技能和实际动手操作能力。', '为了适应国家和地方经济发展对技能型人才的需求，在调研中医药、金属加工制造、电子商务、高铁乘务等企业对人才的需求的同时，对专业结构进行优化升级，在现有专业基础上将增设无人机控制、中医药技术等专业，适时调整人才培养方案，为企业、行业发展提供智力支持和人才保障。', '根据市场的需求及地方发展的需要，与北京商鲲教育科技有限公司联办高星级酒店运营与管理（高铁服务方向）专业，与大能手教育科技（北京）有限公司联办电子商务专业。', '坚定“专业有特色，学生有技术，家长满意，社会认可”的办学追求，积极调整办学思路，不断调整专业设置，形成以运动训练专业、幼儿教育、旅游导游和计算机应用为主的四个专业群。', '开设计算机应用、学前教育、机械加工技术、汽车运用与维修、电子电工、园艺等专业，学生巩固率在92%以上，年培训规模在1200人以上。', '开设计算机应用、学前教育、机械加工技术、汽车运用与维修、电子电工、园艺等专业，学生巩固率在', '主动适应该市汽运、建瓷、机电、物流等支柱产业的发展，确立了电子电器应用与维修、计算机应用、酒店服务与管理、汽车运用与维修、商务英语、工艺美术、物流服务与管理、服装设计与工艺、机电设备安装与维修等9个骨干专业。', '主动适应该市汽运、建瓷、机电、物流等支柱产业的发展，确立了电子电器应用与维修、计算机应用、酒店服务与管理、汽车运用与维修、商务英语、工艺美术、物流服务与管理、服装设计与工艺、机电设备安装与维修等', '根据区域经济发展的需求，对所开设专业予以调整，及时停止机电技术应用、机电设备安装与维修、服装制作等专业的招生，新增形象设计专业。', '围绕该县主导产业及县域经济社会发展调整专业设置，提高服务县域经济发展的针对性和有效性，新增种植、农村经济管理专业。', '牢固树立“质量立校”思想，确立了“以专业建设为引领，注重质量建设和品牌发展，以地方特色产业为依托，打造特色专业”的专业建设方向，形成了面向社会、贴近需求、多专业并存的专业体系。新增与江西捷一商务服务有限公司校企合作办学的“电子商务班”。', '按照教育与产业、学校与企业、专业设置与职业岗位相对接的原则进行专业动态调整，主动适应区域产业结构优化升级要求，着力建设面向本地重点产业、优势产业和战略性新兴产业的专业。', '我市积极引导学校专业对接企业，及时调整专业布局，加强质量监控体系建设，以管理促服务，以服务带管理。2018年举办第21届全市中职学校技能竞赛，分学生竞赛和教师竞赛两类。学生竞赛共有11所中职学校的258人参加，含8个专业大类涉及20个比赛项目，共142人次获一、二、三等奖；教师竞赛共137人次获一、二、三等奖。派出49名学生参加全省职业院校技能大赛（8类22项），共获得16个比赛项目的奖项。', '我市积极引导学校专业对接企业，及时调整专业布局，加强质量监控体系建设，以管理促服务，以服务带管理。', '督促各县市区全面落实教师编制，严格按规定师生比配备教师，确保教师素质合格、思想稳定、人数达标。高度重视教师培养，积极组织教师参加各类教学培训活动，提高教师队伍综合素质和“双师”水平。2018年共组织14人参加全省职业院校教师信息化教学能力提升培训，组织8个项目参加省赛，有3个项目获奖。', '督促各县市区全面落实教师编制，严格按规定师生比配备教师，确保教师素质合格、思想稳定、人数达标。高度重视教师培养，积极组织教师参加各类教学培训活动，提高教师队伍综合素质和', '鼓励各校主动在学生实习、专业设置、课程开发、订单培养、师资交流、实训基地建设和协同育人等方面与企业开展全方位深度合作。', '”会计、文秘、数控技术应用中高职衔接班，与江西长江电梯制造有限公司、上海富士康科技集团公司、宜春电子商务培训基地、袁州区白马龙庄养殖基地等企业共建校外实训基地，与温州人本集团、江铜集团公司、江特电气集团公司等企业签订了校企合作协议。', '新建校外实训基地6个，与北京商鲲教育控股集团、江苏大公信息科技有限公司进行校企合作，开设订单培养班，与萍乡交通职业学校联办汽车维修与运用专业，成立汽修专业专家指导委员会，吸收行业、企业专家参与课程建设、人才培养方案制定等工作，使人才培养符合企业岗位实际。', '与江西华伍股份、佛吉亚好帮手、捷和电机等企业合作，开设了华伍学徒班、佛吉亚学徒班、捷和学徒班。', '与靖安工业园区江钨集团硬质合金有限公司、南特工程机械集团、邓氏园林、超维新能源、大森林等企业签订合作协议，实行订单培养。', '与企业紧密合作，共同制定人才培养计划，结合企业用工与人才需求，以订单形式培养学生。', '与江西华悦汽贸有限公司长城4S店、江西忆童年电子商务有限公司、北京商鲲教育控股集团等企业建立了稳定的合作机制，形成了“订单式”培养、校企资源共享等多种合作模式。', '与上高广达汽车维修服务有限公司深度合作，完善了汽车实训基地的管理与建设，将基地打造成汽车销售、汽车美容、汽车钣喷、汽车维修等生产经营与理实教学为一体的生产型实训中心。', '与江西捷一商务服务有限公司、铜鼓县花朵艺术幼儿园、宜春市金阳光商贸有限公司等企业以订单培养或举办“校企合作班”等形式进行校企合作。', '与江西捷一商务服务有限公司、铜鼓县花朵艺术幼儿园、宜春市金阳光商贸有限公司等企业以订单培养或举办', '与该县工业园区的声佳电子、昌圣电子两家企业和深圳、东莞等地企业保持了良好的合作关系。', '校建立科学规范的实习实训工作制度，把学生的实习实训纳入学校教育教学中心环节，严格考评', '严格执行《职业学校学生实习管理规定》，从实习企业、学生实习安全、实习期限、实习报告、指导教师职责、实习报酬等方面加强管理，制定学生顶岗实习计划，签订顶岗实习三方协议书，选择合法经营、管理规范、实习设备完备、符合安全生产法律法规的实习单位安排学生实习，并选派优秀指导老师跟踪指导。', '与北京商鲲教育控股集团深度合作，达成集团化办学意向，成立了“樟树职校—北京商鲲高铁乘务”专业职业教育联盟。', '成立了政府主导，学校、行业、企业共建的高安市职业教育集团，形成了“政府搭台、校企唱戏”的校企合作模式。', '与江西理工、宜春职业技术学院、萍乡高专、宜春幼儿师范专科学校等高职院校及沿海数家企业尝试构建集团化办学模式。', '督促学校以服务国家和区域经济、促进就业为导向，以满足企业需求为出发点，积极为社会输送技术技能人才；鼓励学校', '发挥中职学校资源优势，积极开展社区教育培训服务。我市各中职学校对社会各界开放专业师资和实训基地，开展对外技术服务、送教下乡和各类职业培训，积极开展各类免费为民服务，着力提升服务社会民生和扶贫攻坚的能力。', '开展了计算机、钳工、驾驶员培训、电工、宾馆服务等农村劳动力转移培训、企事业单位在职员工培训等， 2018年各类培训2000人次。', '开展了计算机、钳工、驾驶员培训、电工、宾馆服务等农村劳动力转移培训、企事业单位在职员工培训等，', '开展了企业员工、农民工等职业培训，培训总规模达到449人次；服务社区65人次；面向社区开放学校资源50多天。为经济社会的和谐发展提供了优质服务。', '学校坚持以服务为导向，先后承担了“雨露计划”、“阳光工程”、“贫困地区劳动力转移培训”、“农村党员干部技能培训”等一大批培训工作，年培训各类劳动力', '积极开展成人学历教育、职业技能培训、巾帼创业培训、岗位等级培训、农村劳动力转移培训、社区青年就业技能培训等，培训对象覆盖全县80%的乡村。本年度共举办各级各类培训', '积极开展成人学历教育、职业技能培训、巾帼创业培训、岗位等级培训、农村劳动力转移培训、社区青年就业技能培训等，培训对象覆盖全县', '积极开展扶贫帮困工作。全面了解学生家庭的实际情况，对低保户、留守户、单亲户、贫困户的孩子开展精准教育，实施精准扶贫。', '每年拿出15万余元，用于每个学期结束之际组织100多名教师深入全市20多个乡镇100多个居委会村委会，进行走访慰问建档立卡户学生及其他困难学生家庭，了解和掌握贫困学生家庭实际状况，帮助他们解决家庭中存在的问题，实现教育精准扶贫。', '对澡溪镇杨坪村3户贫困户进行对口支援帮扶。进行技术技能扶贫，对贫困户进行果业种植、食用菌栽培等技术技能培训。', '派出由专业教师和优秀毕业生组成的小分队，深入基层村组，普及科学知识，传播种养新技术、新技能。进一步拓宽对口帮扶渠道，全方位、多角度地为社会服务。', '督促各县市区逐步增加公共财政对职业教育的投入，建立与办学规模和培养要求相适应的财政投入机制。督促各县市区设立职业教育专项经费，列入同级财政预算，确保教育费附加、地方教育附加费用于职业教育的比例不低于30%。', '督促各县市区逐步增加公共财政对职业教育的投入，建立与办学规模和培养要求相适应的财政投入机制。督促各县市区设立职业教育专项经费，列入同级财政预算，确保教育费附加、地方教育附加费用于职业教育的比例不低于', '在促进各级各类教育均衡发展的同时，我市加快了职业教育发展步伐，深入贯彻落实《国务院关于加快发展现代职业教育的决定》和省政府《关于加快发展现代职业教育的实施意见》，', '该校汽车维修与运用专业突出对学生能力的培养，在分析电气运行与控制专业工作岗位和工作任务特点的基础上，构建了模块化课程体系，对电气运行与控制专业原有的课程内容和教学方法进行创新改革，探索推行了“136+6S+教学手册”教学模式，“136”中的“1”代表一个教学项目，“3”代表三维目标，“6”代表六步教学。', '该校汽车维修与运用专业突出对学生能力的培养，在分析电气运行与控制专业工作岗位和工作任务特点的基础上，构建了模块化课程体系，对电气运行与控制专业原有的课程内容和教学方法进行创新改革，探索推行了', '具体的实施方法是：1.确定典型项目；2.明确三维目标，三维目标是指专业知识的学习目标、职业核心技能与综合职业能力的拓展目标、职业精神与职业道德的培养目标；3.编写教学手册；4.训练“双师”教师；5.实施六步教学：第一步任务引入，第二步信息搜集，第三步分析规划，第四步动手实施，第五步检测反馈，第六步汇总与展示；6.落实6S管理。', '“136+6S+教学手册”教学模式，提高了学生自主学习能力、团队协作能力以及人际沟通能力，激发了学生学习兴趣，培养了学生6S的习惯，培育了学生不耻下问的学习精神，提高了学生的综合素质和职业技能。', '“校本精品课程”建设的目的，在于构建基于企业典型工作任务的课程体系和基于工作过程的项目课程内容。“校本精品课程”的建设，以能够有效推动汽车专业的教学改革与专业发展为目标，以建设《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》2门专业精品课程作为尝试和探索，应用于专业教学实践，在总结经验的基础上不断改善和提高，从而带动本专业其他课程的改革和建设，引领和辐射其他专业的课程建设与教学改革。', '项目启动后，学校邀请了清华大学著名教授以及省内外多名职教专家，作了关于精品课程建设的多次培训讲座，理顺了职业教育课程建设的思路和工作方法。专业课程建设小组先后赴江西交通职业技术学院、江西旅游商贸职业技术学院等考察学习。经过走出去请进来的培训和学习，专业精品课程建设组统一了思想、转变了职业教育理念，从根本上保证课程建设在提高人才培养质量、培养学生职业能力和综合素质等方面发挥重要作用。', '汽车专业经过广泛调研与论证，启动了《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》2门专业核心课程作为精品课程建设任务，制定汽车专业核心课程“校本精品课程”的《建设方案》，对参加教师进行全员培训。在课程开发建设中做到“四个五”的要求：教学内容“五统一“，即课程标准、教学材料、教学模式、实训项目、考核标准五个教学文件所涵盖的知识、技能和方法的统一；教学资源“五一体“，即理论与实操、教师与师傅、学生与徒弟、就业岗位与学习学位、学习教室与岗位车间的一体化；实训环境“五一致“，即企业需求、实训内容、实训设备、技能考核、技术发展五层面保持一致；师资队伍“五个入”，即教师必须学习、引入先进技术、行业标准、操作规程、企业文化和先进的教学模式。', '汽车专业经过广泛调研与论证，启动了《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》', '汽车专业课程建设小组根据建设项目计划，通过教师与企业专家合作开发相结合、项目化管理与专家引领相结合、学校与企业密切合作、自主开发与引进相结合等渠道，开展技术调研、研讨论证、分析提炼、制定课程框架、确定课程结构、编写教材等建设工作。', '校本精品课程《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》的开发流程，是以汽车维修企业的岗位调研为始点，依据发动机维修的岗位能力要求、发动机维修的技术标准、发动机维修作业规范、发动机维修质量验收标准等企业技术要求，根据课程标准进行课程设计，按照实施完整工作过程的程序，构建基于工作过程的项目课程内容。', '在课程建设的过程中，邀请省、市教育专家和企业技术骨干参与精心指导，并在教研组会议上实时进行指导、交流、检查、反馈，制定了“校本精品课程”相关管理制度和系列精品课程标准文案。', '在课程建设的过程中，邀请省、市教育专家和企业技术骨干参与精心指导，并在教研组会议上实时进行指导、交流、检查、反馈，制定了', '汽车专业通过将新开发的《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》2门课程应用于教学实践，并及时对本课程的实施性课程标准、教学设计、教学内容、课件、教学模式、教学方法、教学评价和信息化教学资源等进行教学跟踪评价和反馈，验证实际教学效果，根据试验情况予以修改和调整。', '（一）汽车专业完成了《汽车发动机常见故障与维修》和《汽车底盘常见故障与维修》2门专业核心课程的校本精品课程建设，开发了2门课程的实施性课程标准、教学设计、教材、课件、多媒体课程资源、教学视频、学生手册、试题、教学评价等信息化课程资源。', '（二）建立校企合作联合开发精品课程资源共享平台。精品课程资源共享平台通过网络环境，汇集、展示和共享了海量优质教学资源，部分课程更基于此平台实现了人机交互、师生互动的自主性、远程性数字化教学方式，优化了教学效果。', '（四）通过精品课程建设促进了校企深度融合。在精品课程建设过程中，汽车专业邀请了十多家知名企业的技术专家和职教专家参与精品课程开发研讨会、论证会、评审会、汇报会等，并全程参与指导课程的开发建设，以校企合作为纽带，由专业教学指导委员会和专业教学队伍参与课程建设过程，并将企业文化和职业标准引入课程建设，促进了校企合作进展，实现了校企深度融合。', '师资强则学校强，师资队伍是一所学校的核心竞争力，是一所学校塑造品质、增强品味、锻造品牌的基本保证。目前，师资队伍结构不合理是制约万载县中职教育发展的重要因素，一是部分教师专业素质尚不能满足高素质技术技能型人才培养的要求，科研水平尚跟不上教学改革、产业升级和社会发展的步伐；二是“双师型”教师占比偏低，尤其缺乏在全省、全市相关行业和领域享有较高声誉的“名师”。因此，必须高标定位、放眼未来，科学合理制定一系列师资培养计划，创新培养办法，搭建平台，孵化名师。', '师资强则学校强，师资队伍是一所学校的核心竞争力，是一所学校塑造品质、增强品味、锻造品牌的基本保证。目前，师资队伍结构不合理是制约万载县中职教育发展的重要因素，一是部分教师专业素质尚不能满足高素质技术技能型人才培养的要求，科研水平尚跟不上教学改革、产业升级和社会发展的步伐；二是', '（一）构建以名师为依托的教师专业发展模式，解决教师队伍专业结构发展不均衡、个体发展与团队发展不协调、专业水平跟教学改革、产业升级和社会发展有差距的问题。', '（二）形成成熟的名师孵化机制，完善相应的名师培训制度和人才激励制度，充分激发教师的专业发展内驱，充分发挥骨干教师的示范、引领作用，打造一流师资队伍。', '（三）实现教师专业成长目标，培养一批专业带头人和骨干教师，助力名师群体的快速形成，促进教师队伍的多元化、可持续发展。', '1.学校制定了一系列促进教师业务水平，激励教师争当名师的相关管理制度，名师奖励制度等，为教师成长提供有力的制度保障。设立了名师培养与科研补助经费，用于培训、考察调研、科研等活动，为名师培养计划的落实提供经费保障。将教师教育教学工作评价与教师专业发展评价统一起来，全面、科学、准确地评价教师工作。', '2.学校着力营造浓厚的学习氛围，建设一个学习型的校园，使每个教师在自我学习、自我反思的同时，加强教学的切磋、协调和实现共同成长。学校在引入竞争机制的同时，更加注重和谐校园的建设，组织名师共同体，定期进行研讨，交流心得，互帮互学，共同提高。同时学校在管理过程中对名师的自身价值与情感需求也做到了人性化，达到了以管理促成效，为名师工程高效持续地发展保驾护航。该校现有省级学科带头人1人、市级学科带头人1人、市级骨干教师1人、双师型教师5人。', '教师培训是名师队伍建设的一项长期工程，而高层次培训更是名师成长的必经之路。学校有计划安排教师积极参加国家、省、市级培训及各类网络培训，并定期派骨干教师赴名校参观学习。同时，学校还邀请了名师、专家来校讲座，使骨干教师了解当前学科最前沿的成果与动态，从中吸取丰富的营养。让教师切身感受到名校成功的教学方法，领略名师的风采。学校对名师培养对象提出了明确目标，要求教师们要苦练基本功和教学技能，要对自己提出明确目标和制定好成长计划。不仅要高质量完成自身的教育教学任务，而且', '要率先垂范投教研，推进学校教学改革，用实际行动影响带领全校教师携手前行，为打造高素质教师队伍奠定坚实的基础。', '我市着力推进党组织覆盖，建立健全中职学校党组织，凡有正式党员3名以上的学校都建立了基层党组织，对暂不具备成立党组织条件的学校，建立联合党支部（中心城区民办中职学校的联合支部设在宜春工业学校），确保每一名党员教职工都纳入党组织的正常管理和服务中。', '结合教育系统实际，建立重大问题广泛征求意见制度，明确凡属学校改革发展的重大决策、重要项目和涉及师生切身利益的热点难点问题，广泛征求党员、教师、学生及家长的意见建议，确保党组织在学校发挥政治核心作用。同时坚持好学校党务、校务、财务“三公开”，落实好“三会一课”，', '结合教育系统实际，建立重大问题广泛征求意见制度，明确凡属学校改革发展的重大决策、重要项目和涉及师生切身利益的热点难点问题，广泛征求党员、教师、学生及家长的意见建议，确保党组织在学校发挥政治核心作用。同时坚持好学校党务、校务、财务', '建立党员教职工心系学生、联系家长和服务社会的通道，引导党员教职工在教育教学、教研科研和师德师风建设等工作中充分发挥先锋模范作用。同时发挥工会、共青团等群团组织作用，对学生进行革命传统教育、民族团结教育和思想道德教育，增强党建工作活力。', '办学特色不明显，同质化现象普遍。不少中职学校设置的专业集中在投入要求不高、师资水平要求不高的类别，专业设置与当地经济发展的契合度不高，贴近和服务本地经济社会发展的专业不多，产教融合实质性推进程度不一、效果不佳。中职教育与普通高中的渗透融通、中高职衔接程度还远远不够。', '我市中职学校专业师资尤其是“双师型”教师缺乏。职业学校自主招聘专业教师在体制上没有突破、机制上不够灵活，制约了专业的设置与发展。', '“教育费附加，地方教育附加费用于职业教育的比例不低于30%”的政策落实不到位，生均公用经费达不到每生每年3000元的标准，特别是县属中职学校每生每年只免学费850元，与省属、市属及技工学校有较大差距（2000元以上），使一些学校处于勉力维持运转的状态。', '从思想上更加重视中职教育发展，开展好中职技能大赛和职业教育活动周活动，加大宣传力度，宣传职业教育就业有门路、升学有通道的优势，弘扬劳动光荣、技能宝贵的时代风尚。加大中、高职衔接贯通培养的力度，按要求规划中职学校与普通高中的招生比例，制定和完善有利于中职招生的相关政策，进一步扩大中职招生规模，实现中职学校与普通高中的协调发展。统筹规划学校布局和专业布点，避免专业重复建设，积极实施“一校一品”、“一校一特”，切实增强中职学校专业吸引力。', '从思想上更加重视中职教育发展，开展好中职技能大赛和职业教育活动周活动，加大宣传力度，宣传职业教育就业有门路、升学有通道的优势，弘扬劳动光荣、技能宝贵的时代风尚。加大中、高职衔接贯通培养的力度，按要求规划中职学校与普通高中的招生比例，制定和完善有利于中职招生的相关政策，进一步扩大中职招生规模，实现中职学校与普通高中的协调发展。统筹规划学校布局和专业布点，避免专业重复建设，积极实施', '重在推行丰城中专“引进一个企业、开设一个专业、服务一个行业、促进一个产业”的办学模式，引导各中职学校根据市场需求设置专业，根据本地经济社会发展实际和产业特色，对接当地工业园区主要企业，举办与县域经济相适应的专业。建设一批特色专业和骨干示范专业。政府牵头，搭建中职教育校企合作市级平台，推进学校与企业的深度融合，有条件的地方加快专业群建设，推进产教深度融合，强化教学与生产结合，实现校企一体化育人。“十三五”期间，积极实施我市中职教育质量提升工程，重点建设3所高水平中职学校、培养20名技术技能名师、打造12个特色专业，树立我市中等职业教育的特色和品牌。', '加大中职学校师资培养力度，加快培养学校急需的专任教师。加强校企合作，实施专业教师到企业实践制度，重视文化课教师的转岗培训。根据中职学校专业标准，允许采取符合学校要求的方式自主招聘教师。加强“双师型”教师培养，完善兼职专业教师聘用机制，对教学急需、但未获得教师资格证的技术技能人才，支持学校在编制总额的15%内，采取政府购买服务的方式聘请兼职教师，不纳入机构编制管理。依托市内本科和高职院校，搭建市级中职师资培训平台。建立中职学校教师继续培训制度，建立集中培训制度和定期轮训制度，使教师到企业实践的制度具体化并有可操作性。继续扩充和完善全市中职教育教研平台，鼓励行业企业参与其中。', '加大中职学校师资培养力度，加快培养学校急需的专任教师。加强校企合作，实施专业教师到企业实践制度，重视文化课教师的转岗培训。根据中职学校专业标准，允许采取符合学校要求的方式自主招聘教师。加强', '将投入情况纳入对县市区政府目标考核，加大督查力度，督促各县（市、区）设立职业教育专项经费，列入财政预算，确保中职学校生均公用经费拨款达到省定标准，确保教育费附加、地方教育附加费用于职业教育的比例不低于30%。建立多渠道筹集资金的机制，探索多元化、集团化办学模式，鼓励、扶助民办中职教育发展。', '将投入情况纳入对县市区政府目标考核，加大督查力度，督促各县（市、区）设立职业教育专项经费，列入财政预算，确保中职学校生均公用经费拨款达到省定标准，确保教育费附加、地方教育附加费用于职业教育的比例不低于']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>126</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>宜春市年卫生计生重点工作进展情况</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-09-09</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/bmxx/201909/5f5166fd9eda482681dc364c46ecf70c.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['今年以来，在省卫生计生委的精心指导下，我市深入贯彻落实全省卫生计生工作会议精神，以“十抓十促”为重点，精心实施，统筹推进，各项工作取得了新的进展。', '一、医疗健康养生中心建设全面铺开。市人民医院北院二期建设项目正式启动，项目包括2栋住院大楼和1栋感染性疾病综合楼建设，总投资5.8亿；市本级中医院组建提速推进，方案已报市委、市政府研究同意，进入具体实施阶段；市第三人民医院精神病人福利院建设项目主体工程已完成，预计年底将投入使用；加快实施“互联网+智慧医疗”工程，全民健康信息平台设计方案已完成，正在进行招标，预计9月份将正式启动建设；落实有关政策，鼓励和支持社会办医，全市现有社会办医疗机构87家，床位5927张，占总床位数的21%；大力发展健康服务周边产业，市人民医院与海普洛斯集团已签订基因检测技术合作协议，已有多家县级中医医院与辖区内养老机构开展合作，明月山同济健康医学中心基础建设进展顺利。上半年，省卫计委丁晓群主任先后两次来我市调研，对我市落实“大卫生大健康”理念、建立“将健康融入所有政策”长效机制、推动中医药产事业融合发展等工作给予了充分肯定。', '二、“放管服”改革稳步实施。深入扎实开展“人民至高无上、患者是我亲友”活动，“规定动作”做到位，“自选动作”有特色，上高县人民医院的做法得到了省卫计委的充分肯定。同时，以活动为抓手，简化办事流程，提高服务质量，妥善解决群众办事难问题。全面完成“三单一网”建设，共梳理权力清单126项，设立责任事项847条，追责情形901条，便民服务清单15大类30项，决定保留的9个行政许可审批项目全部向行政服务中心窗口集中，我委“行政审批专用章”也已移交市行政审批局。窗口严格执行“咨询一次写清、表格一次发清、材料一次收清、内容一次审清”的工作要求，杜绝行政审批过程中“反复跑、两边跑”的现象。在医疗卫生、公共场所卫生、生活饮用水卫生、放射卫生、消毒产品等监管领域开展“双随机”任务495项，出动人次990多人次。', '三、深化医改重点任务全力推动。“三确保一补助一倾斜”政策有效落实，今年市、区财政安排公立医院补助经费2.45亿元，已落实到位2.17亿元。此外，各级财政还安排资金20余亿元，用于支持公立医院建设。稳步推进分级诊疗试点工作，选派45名县级骨干医师到北京、上海等知名医院进修，各医联体内部运行情况较好。推行临床路径管理，目前全市实施临床路径管理的病例数占比为29.42%。深化支付方式改革，稳步实施药品采购“两票制”，规范药品采购行为，科学控制医疗费用不合理增长。今年上半年，全市总诊疗1185万人次，其中基层医疗卫生机构诊疗820万人次，占比69%；全市公立医院医疗收入增幅和药占比分别为7.84%和31.73%；百元医疗收入消耗的卫生材料费为25.9元，较上年度下降1.2元；城市公立医院实施按病种收费病种数100个，按病种付费病种数105个。全市共采购基本药物3.6亿元，双信封中标药品1.24亿元，分别占药品总采购金额的40%和13.8%；所有医疗机构均按合同约定支付购药货款。启动了第三次公立医疗机构医疗服务项目价格调整工作，实施市、县、乡三级联调。稳步推进公立医院薪酬制度改革试点，组织到三明、新余等地考察学习，草拟了实施方案，目前已征求财政、人社及涉改医院意见。推进总会计师制度建设，市人民医院、市三院、市妇幼保健院、宜春学院附属医院均已设置总会计师岗位。', '四、健康扶贫再提升工程落到实处。城乡贫困人口重大疾病专项救治工作和重大疾病免费救治工作有序推进，截至6月份，已专项救治重大疾病患者1356例，其中，建档立卡贫困患者1311例；重大疾病免费救治任务达到进度要求。深入推进健康扶贫再提升工程，通过建立和整合全市医保信息系统，实现了“一站式”即时结算，健康扶贫“四道保障线”得到进一步完善。目前，全市贫困人口医疗自付费用占比降至5.37%，有236个医疗机构落实了“先诊疗后付费”政策和“一站式”即时结算服务，为17.76万名贫困人口提供了家庭医生签约服务，较好地落实了“一个确保、三个全覆盖”的要求。全面开展14类国家基本公共卫生服务，累计完成城乡居民健康档案476.5833万份，建档率达86.14%，人均公共卫生服务经费标准提高到55元。推进村卫生计生服务室建设，村卫生室订单定向医学生培养正开展招生，今年全市拟招收180人。', '五、中医药事业加快发展。为加强对全市中医药事业发展的组织领导，通过积极汇报和争取，已获得省、市正式批复，同意设立市本级中医药管理局（副处级）。全国基层中医药工作先进市复审工作扎实开展，以市政府名义召开了推进大会，成立了领导小组，印发了实施方案，开展了工作督查。积极促进本土中医药生产企业的良性发展，百神药业中药配方颗粒实现全市二级及以上医疗机构全覆盖。会同市人社局，确定万载县作为全市中医药医保支付方式改革试点县，将门诊统筹纳入万载县中医院基本医疗保险基金总额预算管理，并在报销比例、次均门诊费用、全年累计最高支付限额等方面给予政策倾斜。在去年新增27个中医馆建设项目的基础上，设立150万专项资金，鼓励县乡共建中医馆，今年向省中医药管理局争取相关项目资金近500万，全市基层医疗卫生机构中医综合服务区覆盖率达95%，列全省第一，国家中医药管理局副局长马建中专程来我市调研基层中医药服务能力建设。', '六、计划生育转型发展成效显著。严格执行《宜春市生育登记和再生育申请审批流程》，全面落实网上办理、限时办结、承诺制度、委托代办等便民措施。今年以来，共受理生育登记和再生育审批22556例，其中一孩生育登记9216例，二孩生育登记12613例，再生育审批727例。全面推进母婴设施建设，目前全市已设置53个；整合婚检中心、孕检中心和生育登记中心，统一建立“婚育一站式服务中心”，实现婚检和孕检“两检同做”，结婚登记和生育登记“两证同登”，目前已建成婚育“一站式”全程服务中心5个，在建4个；加强出生人口监测，提升全员人口信息库数据质量，完善信息资源共享机制；积极开展打击“两非”、促进出生性别比平衡示范县创建活动，确定高安、奉新为试点县市；深入开展“关爱流动人口、把健康带回家”主题活动，全市共走访慰问群众1871人次，为“留守儿童”体检3486人次，为留守儿童心理辅导2369人次，培训辅导留守儿童家长3219人次。', '七、医疗服务质量进一步提升。继续落实重性精神病免费救治工作，今年1-6月份，全市报告患病率4.355‰，在册患者管理率67.47%，规范管理率66.12%，在管患者服药率53.01%，规律服药率42.67%，精神分裂症服药率54%，精神分裂症规律服药率43.51%。认真落实儿童医疗卫生服务改革发展政策，明确责任分工，定期调度情况。加强与发改、财政、人社等部门的沟通协调，对部分儿科医疗服务价格进行了调整，提高了儿科医务人员薪酬待遇。落实进一步改善医疗服务2018年11项重点工作，年初召开了专门会议，印发了实施方案，召开了现场推进会，目前正在开展督导。做好疾病应急救助工作，今年省下拨至我市疾病应急救助基金共155.2万元，目前已申请并初步审核通过25人，资金19.66万元，正在向财政申请拨付资金。道德模范医疗保健礼遇政策落实到位，全市37家二甲以上公立医院均设置了“道德模范”优先挂号窗口；专门下发了《关于进一步做好我市优抚对象医疗服务优待工作的通知》（宜卫医字〔2018〕59号），享受抚恤补助的优抚对象在市内（县级及以上）公立医院就医时，享受“三免四减半”优惠政策，并可享受优先就诊。', '八、公共卫生安全保障有力。加强艾滋病、结核病、流感、霍乱、手足口病、甲型H1N1流感、人感染禽流感等重点传染病防控工作，上半年，全市共报告各类传染病14276例，报告发病率为258.04/10万，无甲类传染病报告。我市靖安县已于2014年成功创建省级慢性病综合防控示范区，各地以“全民营养周”和“慢性病防治知识宣传月”等活动为契机，广泛宣传全民健康生活方式“三减三健”知识。结核病防治专项资金有6个县市已经落实到位。扎实开展二级以上公立综合性医疗机构卫生应急规范化建设，目前正在组织开展督导。成功举办了第30个爱国卫生月暨国家健康城市建设大型宣传活动，启动了樟树市创建省级卫生城市、宜丰县创新中国成立家卫生县城、樟树市阁山镇等7个乡镇创新中国成立家卫生乡镇工作。', '九、妇幼卫生服务不断优化。强化母婴安全保障，召开了全市孕产期保健集中管理启动会，在全市范围内开展妊娠风险筛查和评估工作，对全市所有孕产妇进行“五色”管理，对高危孕产妇进行专案管理，并明确宜春市妇幼保健院、宜春市人民医院为市级危重孕产妇救治中心和危重新生儿救治中心。大力推进免费婚检工作，制定出台了实施方案，开展了专项督查。同时，在全省率先推出了政府买单防控地中海贫血举措，并承办了全省第25个“世界地贫日”主题宣传活动。今年1-6月份，全市共免费婚检夫妇15403对，婚检率达89.21%。', '十、综合监督执法切实加强。深入开展夏季游泳场所卫生专项监督检查，落实了专项经费，增加了泳池池水现场快速监测频次，保障了公共场所卫生安全。深化卫生计生综合监督机构改革，市本级综合监督执法局已于去年5月正式更名，并增设了计划生育监督科和中医服务监督科，落实了人员编制。全市10个县市区已有9个完成了改革任务，并增设了计划生育监督科（股），乡镇成立了卫生计生办，明确了监督职责、经费及专职监督协管员人数。食品安全风险监测扎实开展，上半年共完成食品风险监测任务242份。', '我市已于2017年8月以市政府办名义印发了《“十三五”卫生与健康规划》，并于今年6月份完成了规划中期评估工作，从评估情况看，各项指标大多数均达到了预期要求。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>126</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>吉州区河长办莅临我市调研河湖长制工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-05-09</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/hcz/201905/92001363ec49408e9ae3462c908fdc29.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['月26日，吉安市吉州区河长办专职副主任刘晨丽带队一行3人来我市调研河湖长制工作，宜春市河长制办公室专职副主任丁晓玲等陪同考察。', '考察团一行实地调研了我市靖安县，考察学习靖安县河湖管护体制机制创新试点建设情况，重点调研了“河长认领制”等一些好经验好做法，同时对我市肖江流域的综合治理、消灭劣V类水的整治措施进行了了解。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>126</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>关于市四届政协四次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/zxta/201908/0f449368048b481396aa960e0797512d.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['您提出的《关于我市倾力打造“韩愈文化”品牌的建议》收悉，提案所列提议具有很强的建设性、指导性，经我局进行认真研究，现答复如下：', '诚如提案所讲，韩愈是古代著名的政治家、文学家、思想家、哲学家。位列唐宋八大文学家之首。韩愈于唐元和十五年（820年），从潮州量移袁州府（现宜春市）任刺史。在九个月刺史任期内，对宜春后来的发展做出巨大的贡献。具体来说有三件大事，兴学重教、解放奴婢、仰山祈雨。其着力倡导务实的文风和为民的思想，赢得宜春人民怀念和敬仰。', '十八大以来，党中央十分重视文化建设，习近平总书记将文化自信提高到前所未有的高度。近年来，我市也在加强文化工作，着力将中心城区打造成赣西文化中心。打造“韩愈文化”品牌，就是建设这个中心的重要措施。为此，我们前期做了以下工作：', '一、学习考察，汲人所长。2018年12月，根据市委宣传部袁川部长的批示，我市由市史志办牵头，组建了由市文广新旅局、袁州区委宣传部、宜春学院、宜春历史文化研究会参加的考察学习团，赴广东阳山县考察学习。考察行程共三天，对阳山县在保护韩愈遗址、挖掘韩愈文化、打造韩愈品牌方面进行了细致考察，并与国内韩愈文化研究专家进行了友好交流。', '二、召开韩愈文化座谈会。今年4月3日，市长王水平召集规划建设、文化、史志、宜春学院及退休老干部等，专题召开了韩愈文化暨袁州古城文化复兴工程座谈会，会议强调，要持续深挖韩愈文化时代内涵，注重韩愈文化的外延，发挥韩愈历史文化名人效应，推动宜春袁州古城文化复兴，进一步提升宜春品牌，凝聚宜春意识，增强宜春人民的认同感与归属感，助推赣湘鄂三省通衢区域中心城市建设。', '三、恢复庆祝设施。以袁州古城文化复兴工程建设为契机，在春台公园片区按历史原貌恢复昌黎书院、韩文公祠。近期，我局又沙子巷片区的拆迁现场发现了韩祠界墙，已向市政府报告，提出局部调整古城规划的建议。', '四、成立研究组织。根据市领导指示，为加强韩愈文化研究，我局与宜春历史文化研究会多次协商，由研究会组织一批专业人士，成立韩愈文化研究会。5月19日，韩愈文化研究会正式成立，由宜春职业技术学院原书记刘密担任首任会长，并聘请了聂智胜副市长担任顾问、市文广新旅局局张国全、市史志办主任鲍焱等四人担任名誉会长。', '五、开展项目研究。在市政府的协调下，设立韩愈文化研究专项资金，并由市文广新旅局、市城投公司、宜春历史文化研究会（韩愈文化研究会）签订研究协议，拟定了三大课题，明确了研究成果。分别是《韩愈文化研究论文集》、《韩愈在宜春历史故事》、《韩愈文化资料汇编》。目前，研究工作稳步推进。', '一是抓好韩愈文化研究的推进工作。按照协议内容，在今年12月底前出版一系列研究成果。', '二是认真审核恢复设施的规划设计。密切跟紧古城文化复兴项目，确保恢复的韩愈文化相关设施不跑题、不走偏，尽可能展现历史信息和文化内涵。', '三是指导韩愈文化研究会工作计划。根据工作需要，对研究会每年的工作计划提出指导意见，争取年年出成果，逐渐形成品牌，扩大宜春的影响力和知名度。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>126</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>宜春市社组团赴安徽宣城考察</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2016-04-13</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzdt/201604/d5a015f039724ad585587638fc06ae3a.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['\u200b4月12日，宜春市社主任邹小平、副主任简小涛带领全市供销社主任到安徽省宣城市供销社考察学习深化供销社综合改革和推进理事会、监事会组织体系建设工作，宣城市供销社主任洪斯明，副主任何新民、张富生等人陪同。', '据悉，本次考察学习是根据宜春市政府的要求进行的，旨在学习借鉴各地综合改革的经验，进一步做好宜春市供销社综合改革工作。赴宣城市考察学习前，宜春市社组织了以市社主任邹小平为组长的考察组。考察组一行先后实地考察调研了宣州区洪林镇安徽鲜可达农业股份有限公司、宣城农副产品批发市场、郎溪县新发供销社等地，详细听取了相关负责人的情况介绍，并与宣城市供销社领导进行了座谈。', '座谈会上，邹小平对宣城市供销社改革发展取得的成绩和为农服务的先进做法进行了高度评价。宣城市供销社系统有着较好的基础，经济指标位居安徽全省前列，参股项目得到了积极推进，干部职工精神状态良好。考察组表示，要学习好宣城供销社综合改革的先进的经验和做法，合理运用好这次宣城之行在探索深化综合改革、破解发展瓶颈、增强改革信心等方面的先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>126</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>宜春市供销社年工作总结及年工作安排情况汇报</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2014-12-03</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/fzgh/201412/ba14d8ecc4a6488c98b9c61176aeee1a.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['\u200b 今年以来，全系统在市委、市政府的正确领导和省社的精心指导下，以服务“三农”作为贯穿整个工作的出发点和落脚点，深入贯彻落实国务院40号文件、赣府发〔2013〕2号文件以及宜府发〔2014〕8号文件精神，紧紧围绕市委、市政府的工作大局，突出改革发展稳定主题，抓住项目建设关键，强化网络建设基础，创新综合服务平台，提升服务发展水平，各项主要经济指标持续较快增长，经济总量迈上新台阶，到10月底，全市供销社系统实现销售总额74.7亿元，同比增长36.37%；商品批发市场交易额累计实现49.4亿元，同比增长27.65%，其中农产品综合（专业）市场交易额40.7亿元，占全系统商品批发市场交易额的82.4%；全系统实现利润1505万元，所有者权益2.71亿元。各项工作得到了有力推进，取得明显成效。现将我社今年的主要工作情况及明年工作打算汇报如下：', '1.大力推进四大项目建设。一是市本级投资3亿元的赣西农产品批发市场在三期仓储冷链物流中心已运营的基础上，积极做好在建的果品交易区、名优特农副产品交易区、综合服务大楼以及交易大棚项目，预计2015年春节后可投入运营；二是万载县社配合省社推进万载天禧商贸物流中心建设，总投资为4.7亿元人民币，目前正在进行基础设施建设；三是上高县社在县政府领导的高度重视和大力支持下，积极配合省社推进联合共建的“江西省锦江农产品物流中心”项目建设，目前该市场项目A区主体工程已基本完成，配套工程正在紧张施工中；四是丰城市供销广场项目在总社和省社的协调支持下，目前项目建设已完成主楼地下室和1000㎡地下车库的垫层施工和防水施工，总体建设正有序进行。', '2.稳步推进中小项目建设。其他县市社一些中小项目也在加大力度推进，如高安市社重点推进以黄沙商贸中心和华林商贸中心为载体的商务部“万村千乡”项目，目前黄沙商贸中心已竣工投入运行，华林商贸中心在建，主体工程今年10月完工。两个商贸中心已投资600余万元，主要用于两个商贸中心大楼工程建设和加盟店的货架购买、门牌制作等。奉新县社的两个亿元项目——CNB项目和城市综合体项目都在进行实质性的洽谈当中。', '3.积极争取上级资金支持。在推进项目建设的同时，全系统积极向上级争取政策资金支持，今年樟树众望蔬菜专业合作社完善基础设施建设项目、靖安意蜂椪柑茶扩建项目共争取项目资金240余万元，为供销社经济发展增加了引擎马力。', '（二）统筹“新网工程”建设，为促进城乡发展注入活力。全市供销社系统按照年初工作要求，把“新网工程”作为搞活农村流通的主抓手、主平台，在加快配送中心和销售终端建设的同时，把提升流通现代化水平摆在更加突出的位置，到目前，已初步形成了规范化的连锁经营服务网络体系。一是农资现代经营服务网络。各县（市区）社大部分都成立了农资公司，并建立了2178个农资经营网点，农资现代经营服务网络建设初具雏形。二是农副产品购销网络。全系统大力推进农副产品实行规模化种植、标准化生产、品牌化经营、市场化流通格局，农副产品配送中心已达2个，连锁网点323个。三是日用消费品经营网络。以购物广场为龙头，依托“万村千乡市场工程”为平台，以农家店为基础，以发展日用消费品配送为手段，全市先后新建和改造直营店275个，新建、改造的农家店遍布各个乡镇，商品配送率达50%以上，初步形成了农村商品现代流通网络。四是废旧商品回收利用网络。作为再生资源回收利用的相关职能部门，全市供销系统充分发挥管理作用，做好废旧商品回收点的选点和规划。目前，已备案再生资源回收网点1317个，基本形成了以大公司为龙头，各回收企业和网点为基础，覆盖全市的废旧商品回收利用网络。五是烟花爆竹经营网络。市社一直以来十分重视烟花爆竹经营体系的建设，加快烟花爆竹仓库建设步伐，做到建设从规划到开工全程跟踪服务，烟花爆竹共建设配送中心5个，连锁网点1989个，经营情况良好，初步形成了以烟花爆竹专营公司为龙头，各经营网点为基础的烟花爆竹经营网络。', '（三）加强“三社一会”建设，为提升“三农”服务加足马力。基层供销社作为联系和服务“三农”的前沿阵地，市县两级供销社积极引领、指导、扶持和服务农村各类合作经济组织，切实帮助农民增收增效。', '1.科学组建基层供销社。各地供销社立足实际，充分利用社会各类资源，选择经济基础较强，发展潜质较好的乡镇，通过不同途径来组建和恢复基层供销社。宜丰县社按照“开放办社”的方针，引进社会能人和资本，于今年8月以合资的方式重新注册成立了“宜丰县澄塘兴农供销合作社有限责任公司”。该企业注册资本为300万元，其中供销合作社占70%股份，业务经营范围涵盖了“五大经营”网络，预计可新增营业收入1200万元以上。截至目前，全市新增改造了8个基层社，恢复了134个基层社。', '2.开展基层示范社标准化建设。各县（市区）供销社加强“三社一会”的管理，积极开展示范社标准化建设。樟树市供销社对16个基层社进行改造、重组，加大了软、硬件投入，申报了吴城湛溪、张家山蛟湖等7个省级农村综合服务社星级社，宜丰县五里香猕猴桃农民专业合作社获得国家农民合作社示范社称号，全市示范社建设增速明显加快。丰城市农产品经纪人协会理事长聂丽烽还被评为2013年度“全国百强农产品经纪人”。到目前为止，全系统领办、引办农民合作社56个，总数已达223个；农村村级综合服务社新增67个，总数达1339个；各类协会49个，会员达7791人。', '（四）实施品牌振兴战略，为扩大供销社知名度凝聚合力。今年来，为提升供销社新形象，增强社会影响力，市社组织实施了振兴供销社品牌战略，通过创新发展方式，激活供销社发展活力，为服务农民拓展新平台。', '1. 发展社有企业。采取多种方式发展社有企业。一是开拓新领域，组建宜春市兴农烟花爆竹原材料公司和宜春宜合房地产投资投资开发有限公司，引入战略合作方，将公司经营业务承包给合作方经营，目前已取得了二十多万元的纯收益。二是恢复运营宜春市土产再生资源公司，该公司改制后有十多年没有年检但没被注销，目前，被一家合作企业看中，通过对原土产公司营业执照年检，重新恢复起公司经营业态，公司业务由合作方具体负责，每年能取得十多万元的收益。三是为整合农资资源，新成立了宜春市农业科技公司，目前，市社原农资资产已注入该公司，下一步以该公司为平台，打造成全市农资配送中心龙头。', '2. 推进助农工程。市社为了把“助农工程”打造成全市供销社系统的一个工作品牌，成立三个专题调研组，带着课题分赴湖北、河北、山东等地进行考察学习并形成调研报告，其中《赴随州市考察为农服务网络情况汇报及我市推进助农工程项目的思考》一文，获市政府分管领导的高度肯定。在参照先进地区工作经验并结合宜春实际的基础上形成了助农工程工作方案。主要做法是在市县两级引导资金的带动下，依托县级供销社和基层供销社，采用新建、改造、联合加盟等形式在广大农村社区建设新型农村社区经营服务体系，为农民群众的生产生活提供方便快捷的服务，具体实施助农“三大工程”：一是农业生产服务工程；二是农民生活服务工程；三是农民增收增效工程。', '3. 开展综合改革试点。开展供销合作社综合改革工作，是党中央、国务院和省委、省政府的重要工作部署。市社领导班子高度重视，自这项工作开展以来，已先后组织了多次改革调研，出台了改革发展相关文件，并确定了靖安县社为市试点单位，取得了阶段性成果：一是加强组织领导。市社成立由一把手牵头、全体班子成员参与的全市供销合作社综合改革试点工作领导协调小组，下设办公室，负责对全市综合改革试点工作进行组织指导。二是进一步加强贯彻落实赣府发〔2013〕2号文件和宜府发〔2014〕8号文件精神工作，督促各县（市、区）政府抓紧省、市改革文件发展的贯彻落实工作。全市继袁州区和宜丰陆续出台了贯彻落实意见。三是深入基层一线、先进地区开展调研、考察活动，并及时将调研、考察成果转化为有情况、有分析、有对策、有建议、有成果的高质量报告，为改革勾画好蓝图，夯实基础。', '1.深入开展党的群众路线教育实践活动。市供销社党组自2014年2月至9月，深入开展以为民务实清廉为主题的党的群众路线教育实践活动。活动中市社紧密结合为农服务职责要求，着力突出“为农服务”实践载体，始终坚持立足学习提高，加强党性修养，着眼解决问题，坚持群众路线，贯彻边整边改，建立长效机制，认真完成了活动各个环节的各项教育任务。通过深入开展教育实践活动，领导班子凝聚力进一步增强，干部职工作风明显改进、服务水平显著提升、精神面貌焕然一新，干事创业的氛围更加浓厚，实现了把改进作风成效落实到基层，真正让群众受益，努力取得人民群众满意的实效。', '2.抓机遇争政策支持，优化内外环境。在市社的积极争取下，市委、市政府对供销社支持力度不断加大，专门下发了贯彻落实赣府发〔2013〕2号文件精神的《宜春市人民政府印发关于进一步支持供销合作事业发展意见的通知》（宜府发〔2014〕8号）文件，并落实了专项资金用于支持供销社改革发展，市财政在比较困难的情况下从今年起每年预算安排200万元作为市农村现代流通服务体系建设引导资金，安排50万元作为市本级淡储贴息，并要求各县（市、区）设立引导资金和落实淡季化肥储备财政贴息制度，对具体的数额底线进行了划定，全市每年支持供销社发展资金总量达1210万元。', '3.努力解决历史遗留问题，切实维护社会稳定。市供销社系统在历经企业改制后，企业改制涉及职工较多，历史遗留问题较为突出，尤其是改制后职工的医保问题一直没有解决，职工多次到有关部门反映要求解决医保问题，维稳压力较大，为此市社党组多次开会研究，想方设法解决企业改制后职工的医保等历史遗留问题，在市委、市政府的高度重视下，通过盘活原土产公司抵押给银行的土地，采取土地政府收储的方式筹集资金，目前已为将近600名改制企业职工办理了职工医保，对后续需办理医保的企业职工，按相关办法进行办理。各项工作正有条不紊地推进，有效的维护了社会和谐稳定。', '一是底子薄，基础差。规模龙头企业偏少，工作开展不平衡，个别县级供销社仍未完全摘掉空白县帽子，近半的县级供销社仍属于薄弱县范畴，要把供销社打造成为农民生产生活服务的生力军和综合服务平台，一方面靠市县两级供销社的自身努力和地方财政的大力支持，同时亟需上级社的大力扶持。', '二是相关配套政策不到位。党中央、国务院对供销社工作十分重视，对供销工作评价高，期望大，要求严，但是没有自己的服务平台和抓手，没有自己的一块责任田。', '三是人才等生产要素严重缺乏。年龄结构老化是基层社存在的普遍问题，懂企业管理、基层社管理的人才严重缺少。', '全市供销社系统2015年工作的总体思路是：认真贯彻落实党的十八届四中全会精神，全国供销合作总社成立60周年庆祝大会精神，省委十三届九次全会和市委三届六次全会精神，围绕宜春发展升级的美好蓝图，突出为农服务这一宗旨，切实按照“改造自我，服务农民”的总要求，重点做好“五个进一步”：', '1、以服务农民生产生活为重心，进一步推进助农工程建设。在市县两级引导资金的带动下，依托县级供销社和基层供销社，采用新建、改造、联合加盟等形式在广大农村社区建设新型农村社区经营服务体系，为农民群众的生产生活提供方便快捷的服务。市社将继续推动助农“三大工程”： 农业生产服务工程、农民生活服务工程、农民增收增效工程。', '2、以强化跑项争资意识为抓手，进一步推进项目建设。围绕项目做好“三抓”：一抓项目落实，二抓项目服务，三抓项目推进。全市供销社系统要力争在新网工程项目建设，农村现代流通服务体系引导资金项目建设，农民专业合作社项目建设，基层示范社项目建设等国家扶持项目建设中获得更多的资金支持。市社本级重点要抓好在建项目建设，同时，全力以赴推进高安农产品批发市场项目建设。', '3、以构建服务“三农”前沿阵地为载体，进一步抓好基层社建设。主要是创新方式组建基层供销社和开展基层供销合作社标准化示范建设。力争今年年底在全市新建或改造40个集农资、农副产品、废旧商品、日用品、烟花鞭炮五大销售功能于一体的基层供销社。', '4、以推进综合改革试点工作为契机，进一步加快农业现代化建设。重点是全力打造现代信息技术服务平台。依托综合改革试点靖安县社网点覆盖面广的基层社，打造电子商务服务平台。通过“网络 实体”的现代经营模式，与其他县（市区）开展农产品经营信息平台对接，形成商品经营信息互通，网上交易与网下配送相连的现代信息服务新形式，加快农业现代化建设。', '5、以党的群众路线教育实践活动为主线，进一步抓好机关思想作风建设。教育实践活动已收尾，但绝不等于收场，要继续在工作、学习和生活中保持“为民、务实、清廉”的良好形象，进一步提升创新力、强化执行力、增强凝聚力，进一步约束自我、改造自我、提升自我，牢固树立作风建设永远在路上的理念。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>126</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>高安市积极建设中小企业服务体系</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2011-03-03</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/201103/90c5d94a8803410b886373a97cc26a5e.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['一是根据省、宜春市中小企业主管部门的要求和兄弟县市的经验，争取尽快成立高安市中小企业服务中心，为企业提供融资、咨询、论证、培训等系列化服务，致力将其打造成中小企业服务超市。', '二是充分发挥陶瓷行业协会、汽运产业协会、碳酸钙行业协会、腐竹行业协会等特色行业协会的作用，积极组织会员外出进行考察学习、产品展销、经贸洽谈等活动，鼓励联合开发市场，并逐步建立健全行业自律机制，促进行业质量提升。', '三是积极创造条件组建高安市企业家俱乐部，每年优选10名具有较大影响力的企业家加入企业家俱乐部，进行重点培养、重点支持、重点宣传，为全市企业家树立榜样，进一步激发全民干事创业的热情。（刘秋平）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>126</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>丰城市多措并举为退役士兵提供就业培训服务</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2011-09-23</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/201109/17f58ae8dae543099ea0099698b30530.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['一是开展帮队服务。该市组织宣传、武装、民政、教育、广电和学校教师与300名退役士兵开展了面对面的一帮一结队活动。二是开展专业培训。聘请宜春市各条战线的10名专家、教授对退伍士兵进行计算机、机械、果树栽培、水产养殖、烹饪等专业培训。三是组织外出学习考察。通过外出考察学习，让退役士兵加深对专业培训技术的认识和了解，切身体验到科技致富的重要性。（余伟荣）']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>126</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>上半年全省供销系统实现销售总额余亿元</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2016-07-29</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsgxs/gzdt/201607/86a2f238626a4d438ee7e4d65cbf62ee.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['7月28日，全省设区市供销合作社主任会议暨基层工作会在南昌召开。省供销合作社党组书记、主任吴伏生出席会议并作重要讲话；南昌市政府副市长张根水出席会议并致辞；欧阳太来、卢忠、杨晓琴、江际华、赵恒伯等省供销合作社领导出席会议；各设区市供销合作社，省直管县（市）、宁都县供销合作社，省供销合作社机关及直属单位有关负责人共50余人到会。会议由卢忠主持。', '上午，与会人员实地考察学习了湾里区梅岭镇农村综合服务中心、安义县徐埠基层社和江西省供销绿能农业服务有限公司的典型经验和做法。在下午召开的会议上，欧阳太来传达了全国供销合作社综合改革试点推进会暨基层组织建设工作会议精神。南昌、九江、赣州市供销合作社代表作了交流发言。', '今年以来，全省供销系统认真贯彻落实中发〔2015〕11号和赣发〔2015〕23号文件精神，综合改革试点工作稳步推进。一是推动省市两级试点实施方案文件出台。今年2月3日，省委办公厅、省政府办公厅印发了《江西省深化供销合作社综合改革试点实施方案》（赣办字〔2016〕5号），将5年综合改革目标任务细化分解，进一步明确了改革路线图、时间表。目前，九江、赣州、鹰潭、萍乡、抚州等5个设区市政府的试点实施方案已经通过批复，上饶市的试点实施方案已经函报省社，南昌市政府常务会议已审议并原则通过了试点实施方案，其他地区正在协调列入政府常务会议进行审议。二是建立和完善工作机制。3月9日，省委、省政府成立省深化供销合作社综合改革领导小组，省政府分管副省长为组长，22个部门分管领导为成员，办公室设在省社。领导小组办公室下设秘书组、调研组和督查组，落实了人员和责任。三是强化改革任务部署与督察。2月17日，省政府召开了全省深化供销合作社综合改革电视电话会议，尹建业副省长出席会议并对综合改革工作提出明确要求。及时进行任务分解，3月8日，省社印发了2016年本级综合改革责任分工方案，把今年30项重点改革任务一一分解落实到责任领导和责任部门，并实行销号管理；5月30日，省深化供销合作社综合改革领导小组印发了《2016年全省深化供销合作社综合改革试点工作要点》，明确和细化了今年重点改革任务。5月份，会同省委改革办对各设区市深化供销合作社综合改革进行了一次专项督察。积极协调有关部门，将省社列为2016年重大改革省直牵头单位，组织对各设区市党委深化供销合作社综合改革进行考核评价，这为扎实推进我省供销合作社综合改革提供了强有力的制度保障。四是改革试点初显成效。各试点单位结合实际，围绕组织创新、服务创新、经营创新、机制创新，积极探索，取得一些宝贵的经验。如安远县在保持供销合作社参公单位性质不变、人员待遇不变、财政预算不变的基础上，对县社理事会、监事会班子成员实行选任制，工作人员实行聘任制，拓宽了选人用人渠道；安义县社积极构建新型为农服务体系，与农业产业化龙头企业联合合作，组建为农服务公司，大力开展全程土地托管服务，由“田老板”变身“田保姆”；吉水县社探索大田托管+金融服务模式，创办了全省首家“粮食银行”；石城县社与总社中合联投资公司合作，在农民合作社内部创办信用合作部，向社员提供低息贷款，解决了合作社社员生产资金问题；上栗县社与江西银行上栗支行合作开展涉农融资担保业务，拓宽为农服务领域，受到各方好评。这些经验为全面深化综合改革提供了借鉴。', '基层组织是供销合作社服务“三农”的主要载体和生存发展的根基，只能加强，不能削弱。一是深入实施基层组织“示范创建活动”。各地大力推进基层社分类改造，推广“3+2+N”综合服务模式和“村两委+综合服务社”基层组织建设模式，截止今年6月底，全系统累计创建了296个基层社标杆社、488个农民合作社示范社、450个综合服务社星级社。一大批示范基层组织在为农服务中，发挥了引领作用和标杆作用，实现农民得实惠、供销社得发展。二是持续推进经营服务网络建设。农资、农副产品、烟花爆竹等传统业态流通主渠道功能进一步强化，全系统各类经营服务网点达63605个，实现乡镇覆盖率100％。其中农资连锁网点20005个，上半年实现销售收入126.8亿元，同比增长23.9%，农副产品经营服务网点1453个，实现销售收入279.8亿元，同比增长109.9%。三是快速发展农村供销电子商务。省社成立了江西供销电子商务集团，牵头组建了江西省农村电子商务协会。目前，全系统开展电商业务的企业达111家，组建供销电子商务企业65家。上半年电子商务销售额达16.05亿元，是去年同期的27倍。', '围绕解决“谁来种地，怎么种地”，积极探索开展农业社会化服务的模式和路径，取得初步成效。一是加快组建惠农综合服务中心。积极开展农业社会化服务惠农工程推进年活动，将惠农工程列入对设区市社综合业绩考核的重点内容。目前，全系统组建县、乡惠农服务中心289个，发展标准化庄稼医院2467家。二是大力开展标准化、规模化农业生产服务。全系统大力开展以土地托管为主要形式的农业社会化服务，为各类新型农业经营主体提供“菜单式”半托管服务和“保姆式”全托管服务。1-6月份，全系统开展大田托管240万亩，其中全托管25万亩，唱响“农民外出打工，供销社为农民打工”的服务品牌。三是积极培育新型农业经营服务主体。充分利用供销合作社的组织优势，以吸引年轻人务农、培育职业农民为重点，组织各类农村实用人才培训27.6万人次，发放科普资料17万份。', '坚持发展是第一要务，牢固树立五大发展新理念，继续实施“3515”企业规模工程和“5525”企业效益工程，推进项目带动战略，加快传统企业转方式调结构步伐。一是推进构建社有企业支撑的经营服务体系。省社先后出台了一系列企业管理制度，各地也在建立健全企业合作机制、规范社有资产运营上进行了有益探索，有效提升了企业运行水平。1-6月，社有企业实现销售额355.8亿元，占全系统销售总额的60.8%，销售利润率同比增长10.2%。二是充分发挥项目带动作用。上半年全系统在建项目261个，完成投资额37.88亿元，占在建项目总投资额的65%。其中省社本级10个亿元以上项目累计完成投资额10.52亿元。一大批项目建成投产，大大提升了为农服务能力，增强发展后劲。三是大力营造风清气正的政治生态。全系统以扎实开展“两学一做”学习教育为契机，注重落实全面从严治党主体责任，扎实推进领导班子和党员干部的思想、组织、作风、纪律建设，广大党员干部以实际行动争做合格党员，大力弘扬“扁担+背篓”精神，恪守供销合作社核心价值观，不忘为农服务初心，政治意识、大局意识、核心意识、看齐意识普遍增强，思发展、谋发展、促发展的氛围日渐浓厚。', '下半年，要高标准、严要求，全面落实好省委改革办、省深化供销合作社综合改革领导小组及全省供销合作社主任会议既定的工作部署，推动各项任务落到实处。重点要在五个方面着力：', '习近平总书记指出，要推进供销合作社综合改革，按照为农服务宗旨和政事分开、社企分开方向，把供销合作社打造成为同农民利益联结更紧密、为农服务功能更完备、市场运作更有效的合作经营组织体系。习近平总书记的重要指示，指明了加快供销合作社改革发展必须坚持的宗旨、方向和目标，为深化综合改革提供了工作总遵循、总方针，我们要认真贯彻落实。一要抓紧出台综合改革试点实施方案，尽快启动综合改革工作。从调度情况看，目前还有5个设区市政府试点实施方案没有上报，请各有关设区市社要进一步加强工作衔接，尽快报省社评估，这项工作力争在8月10日前完成。各县级政府的改革实施方案要在今年9月底前报设区市社评估，并报设区市农业农村改革小组批复。其中，各市要明确50%以上县作为试点县，这是一项硬任务，已经纳入省委改革办对各设区市党委的考核评价体系，请各地务必引起高度重视。年底前全省所有县级政府都要召开动员会，全面部署综合改革工作。二要坚持问题导向，力争在重点领域和关键环节取得突破。王侠主任在我省调研时强调，要突出重点，抓住改革的关键领域和薄弱环节，针对基层还比较薄弱的状况，在夯实基层基础上下功夫；顺应现代农业建设的需要，在提高社会化服务能力上下功夫；立足于补齐短板，在壮大社有企业实力上下功夫；适应“互联网+”的新趋势，在发展农村电商上下功夫，加快提升为农服务的能力和水平。全系统要认真落实王侠主任要求，在具体工作中坚持问题导向，突出重点，把握底线，因地制宜，循序渐进，努力在改革的重点领域和薄弱环节取得突破。三要加强领导，精心部署，确保改革稳步推进。各市、县深化供销合作社综合改革领导小组要切实担负起组织实施综合改革工作职责，进一步明确任务，落实责任，细化举措，强化督导，及时发现和解决问题、认真总结推广改革试点经验。全省各级供销合作社要制定督查计划，明确督查重点，有组织地开展综合改革督查工作，将督查发现的问题及时向当地党委政府通报，跟踪督促整改落实情况。四要抓住机遇化解历史遗留问题。各地要认真贯彻落实国务院国阅〔2016〕56号会议纪要精神，加大工作力度，进一步做好供销合作社历史遗留问题的调查摸底，尽可能准确地整理好亏损挂账、土地确权、职工社保等方面的数据资料。在此基础上，积极作好汇报，全力争取当地党委、政府及其有关部门支持配合，研究提出化解历史遗留问题的可行性意见，促进历史遗留问题早日解决，让供销合作社能够卸下包袱轻松搞改革。', '王侠同志在全国供销合作社综合改革试点推进会暨基层组织建设工作会议上强调，供销合作社为农服务功能强不强，关键看基层。最近，总社又专门印发了《关于深入实施基层组织建设工程的指导意见》，进一步明确了抓好基层组织建设的指导思想、目标任务、方法路径和保障措施，各地要认真学习领会，抓好贯彻落实。一要大力推进基层社改造提升。要创新改造提升方式和途径，按照强化合作、农民参与、为农服务的要求，对资产状况较好、经济实力较强的基层社，全面升级做强一批；对资产状况一般、经济实力较弱的基层社，盘活资产提升一批；对无资产、无业务、无人员的“三无”基层社和基层社空白地区，多措并举恢复重建一批。二要大力提升为农服务能力。要把加快推进农村一二三产业融合发展，作为当前和今后一个时期深化供销合作社综合改革的一项重要任务，放宽思路、创新方式，采取领办创办农民合作社、合作社联合社、建立产业合作关系等多种形式，把基层组织建设重心由扩大覆盖面转到规范经营管理、提升服务水平上来，影响和带动更多农民加入到供销社体系中来。通过提升村级综合服务社功能，打造社区综合服务平台，为城乡社区居民提供多层次、多样化、便利实惠的生产生活服务。三要大力探索“党建带社建、社村共建”模式。省委副书记、代省长刘奇同志在审定5个设区市试点实施方案时批示指出，在供销社改革过程中请关注基层党组织建设。刘奇代省长的重要批示，切中了全系统工作中的薄弱环节，指明了下一步推进基层组织体系建设的关键着力点。各地要认真落实刘奇代省长的批示精神，积极借鉴山东、河北、贵州等地经验做法，深入开展党建带社建、社村共建，加强与村“两委”密切合作，通过共建惠农服务平台、共建服务项目、共建服务团队，整合各种资源，激发多方活力，实现优势互补、互利共赢。', '习近平总书记深刻指出，他到农村调研，在很多村子看到的多是老年人和小孩，年轻人不多，青壮年男性寥寥无几，留在农村的是“386199”部队。出去的不愿回乡干农活，留下的不安心搞农业，再过10年、20年，谁来种地？这的确不是杞人忧天！中央和省委都明确要求，供销合作社要紧紧围绕破解“谁来种地”、“地怎么种”等问题，积极创新农业生产服务方式和手段。为此，一要全面实施农业社会化服务惠农工程。面向服务农民生产生活，加快组建县乡惠农服务公司（中心），每个县级社要建立1个惠农服务公司，抓好1个示范性惠农服务分公司（中心），每个乡镇建立1个惠农服务分公司（中心），大力开展土地托管服务，力争今年全系统大田全托管面积达100万亩。二要积极拓展土地托管服务领域。立足江西省情，尊重农民意愿，创新思路办法，积极提供耕、种、管、收、加、储、销等“保姆式”全托管服务和两个以上生产经营环节的个性化、“菜单式”半托管服务，推动土地托管服务向多品种、全产业覆盖，在做好粮食作物托管服务的同时，探索开展烟叶、棉花、甘蔗、水果等主要经济作物托管服务，真正打响“农民外出打工，供销社为农民打工”的服务品牌。三要稳妥开展农村合作金融服务。总结石城县社经验，在坚持社员制、封闭性和不对外吸储放贷、不支付固定回报的前提下，探索在农民专业合作社内部规范开展信用合作。有条件的地方，要积极与有关金融机构开展业务合作，探索发展县级融资租赁、小额贷款、融资担保等非银行类金融机构，设立农村合作保险组织和保险代理机构，依托基层社或符合条件的经营网点建设农村金融超市，依法提供农村普惠金融服务。', '加快发展农村供销电子商务，是全系统构建现代流通服务网络、提高农村流通服务效率的迫切需要，也是转变经济发展方式、推动传统产业转型升级的内在要求。一要加快发展农村供销电子商务服务平台。大力实施“互联网+供销合作社+新型农业经营主体+农民”计划，推动“百馆千站万点”建设，加快发展电子商务企业，构建一体化农村供销电子商务服务体系。完善省农村电子商务协会组织功能，注重发挥规划引领，畅通信息交流渠道，引导协会企业会员提升服务质量、依法依规经营，推进会员企业联合合作，实现企业之间优势互补。二要提升农村供销电商平台运营水平。电子商务经过近几年的探索发展，与淘宝、京东等电商巨头激烈竞争的过程中，越来越证明一点，供销合作社搞电商只有全国“一盘棋”、“一张网”，才能发挥其自身的巨大优势，才有可能真正成为农村电商的“国家队”。目前，省供销电商集团正在加快推进“江西网上供销社”上线运行的前期准备工作，首批县级运营商遴选工作也在紧锣密鼓地开展。希望各地高度重视，积极参与“江西网上供销社”平台建设，选好县级运营商，在做好全省“一张网”的同时，积极对接全国总社“供销e家”平台，共享优势资源。三要强化农村电商人才队伍建设。省农村电子商务协会要主动作为，借鉴吸收先进经验做法，做好服务会员单位人才培训工作。各地要充分利用新型职业农民等农村实用人才培训平台，面向各类农业新型经营主体开展电商培训，通过培训将各类优秀电商人才吸收到供销社体系，为打造供销电商服务平台提供强有力的人才支撑。', '经济实力决定了为农服务的能力和水平，也决定了为农服务的话语权和主导权。一要抓好供给侧结构性改革，确保完成经营目标任务。各地要深入研究和把握供给侧出现的结构性问题，加快推动社有企业转型升级。加强产业研究，延伸产业覆盖面、壮大产业发展链，拓展经营服务领域，培育新的增长点。要对照省社综合业绩考核的要求，加强经济运行调度，确保完成年初制定的各项目标任务。二要深化社有企业改革，增强发展活力。朝着构建社有企业支撑的经营服务体系这一目标，加快推进各层级社有企业间的产权、资本和业务联结，推进社有企业相互参股，建立共同出资的投资平台。加快组建各地社有资产管理委员会，探索建立激励约束机制、强化企业内部管理，健全法人治理结构，调动企业干部职工的积极性，充分激发社有企业发展活力，加快推动社有企业转型升级。三要继续实施项目兴社战略，增强社有企业发展后劲。加大项目建设力度，重点围绕农业社会化服务和农村供销电商发展，认真谋划和储备一批农产品市场建设、仓储物流配送、电子商务进农村等优质项目，力争年内省社项目库项目850个以上。进一步加快在建项目建设进度，落实项目建设领导责任制，建立项目调度通报制度，实行项目建设表彰奖励制度，切实解决项目建设中的问题，激励项目早落地、早开工、早建成、早见效。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>126</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>宜丰县实施四大工程推进非公经济人才建设</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2009-02-12</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/200902/20007ab60e054d86961ca5a171e91f0e.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['一是能力建设提速工程。采取学历教育、短期集训，考察学习三大途径抓好对非公有制经济组织人才的教育培训工作。 二是优化人才服务工程。分层分类建立非公有制经济组织人才库，重点抓好经营业主、专业技术人才、高技能人才的建档入库。对入库的各层各类人才实行档案管理、人事关系代理等“一站式”便利服务。 三是立体开发挖潜工程。开展全县非公有制组织人才普查工作，准确掌握非公有制组织人才状况，分类对口开展定单式培训，实行市场化配置，引导其合理流动。 四是招才引智工程。由人事劳动部门定期组织非公企业前往省内外高校开展对口招聘工作，对进入非公有制组织工作的各类人才在落户、子女上学等方面给予优惠，并对特殊人才按规定发放安家费等，全力为县域经济的快速发展提供智力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>126</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>广西壮族自治区玉林市到樟树考察医药产业基地建设</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2010-10-29</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/201010/3fa39dae212243849def5f2d58bba5e4.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['\u200b\u200b10月27日，广西壮族自治区玉林市委常委、常务副市长戴毅一行到樟树考察学习我市医药产业基地建设情况及经验。考察团通过座谈调研及实地考察，为我市医药产业发展感到振奋。认为我市医药产业有传统的产业优势、现代的产业链条，丰富的发展经验，不愧为国药之都，并表示将进一步加强两市在医药产业发展上的交流与互补。（魏亚军 钟剑明）']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>126</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>丰城市多措并举抓好林改工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2007-07-30</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/200707/92b6ea8edf48467f8440e06a8c5c4f51.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['一是明确职责，制定林改工作责任状，由市委书记与乡镇（街道）书记签订，作为第一责任人负责林改工作。二是外出学习经验，由各乡镇（街道）书记组成学习考察团，市委书记带队到铜鼓、宜丰考察学习林改工作经验。三是加强督查力度，全市成立7个督查组，每周一次下到各乡镇（街道）督促指导林改工作，每3日进行一次通报。四是多方组织投入，从铜鼓、万载等县市借调林业技术人员与本地乡镇干部、林业站所人员深入第一线进行勾图、测绘、确保分山准确率。五是制定林改计划表，要求林改乡镇按林改结束时间倒排时间表，有序开展林改工作。（熊旺根）']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>126</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>高安五种方式为发展现代农业培养人才</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2007-07-20</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/200707/72da1d4a0c104c80aed2e8795b08db40.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['高安市通过五种方式培养现代农业人才。一是“菜单式”培训。年初，乡村两级干部深入群众，采取谈话谈心和调查问卷等方式，归纳出6类52个农业技术难题，由相关部门指派专家进村入户专门培训，答疑解惑。二是“开放式”培训。分批次选派100名村干部、农村党员、种养大户到浙江、福建等地考察学习。三是“讲座式”培训。邀请省农村院等科研院所的专家、教授进行专题知识讲座10余次，向农民传授现代农业知识和先进管理理念。四是“网络式”培训，通过农村远程教育网让农民随时点击所需的现代农业知识。五是“传媒式”培训。在市电视台开设专栏，邀请当地农业专家和种养大户现身说法。（刘响进）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>126</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>宜春市人民政府办公室关于加快市本级私营经济发展的通知</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2006-03-05</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/gfxwjqlfz/200603/4d8ef307622e403d847cc99854f08464.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为鼓励、扶持和引导非公有制经济的发展，壮大市本级经济，现就加快市本级私营经济发展工作通知如下：', '一、今年市直私营经济发展目标为：新发展私营企业200户，总数达到600户；个私经济税收达到5200万元，占市本级财政收入的50%以上；私营企业年纳税20万元以上至50万元以下的达到5户，50万元以上至100万元以下的达到2户，100万元以上的达到2户。', '二、对市本级私营企业纳税、经营等指标进行综合考评，对列前五名的企业和帮扶的市直部门给予表彰奖励。', '三、进一步完善市个私经济工作领导小组成员单位与私营企业“一对一”帮扶制度，年终实行考核奖励，具体办法见附件。', '四、市直各部门要进一步加大招商引资力度，努力优化发展环境，切实为私营企业提供优质服务，壮大本级财政，促进经济发展。', '五、市个私经济领导小组办公室要负责抓好结对帮扶工作的检查、督促、指导和考核，及时总结推广好的经验和做法，协调处理责任部门与私营企业之间的有关事务，确保结对帮扶工作取得实际效果。', '附件：1、2004年度市个私经济工作领导小组成员单位“一对一”帮扶私营企业考核奖励办法', '（三）维护私营企业合法权益，协助抓好企业安全生产，监督企业守法经营，引导企业安置下岗人员；', '（四）履行部门服务承诺，不断提高服务水平，经常到企业走访和调研，为帮扶企业创造良好的发展环境。', '（一）当年帮扶企业纳税比上年纳税的最高增幅计40分，其余按比例计分，负增长不计分；属今年新发展企业，当年纳税20万元以上计满分，20万元以下按比例计分。', '（二）为帮扶企业办实事并取得成效（如创名牌、科技创新、解决贷款、搞活营销、提升档次、上规模等），并得到帮扶企业充分肯定、市个私办考核认定的计20分。', '（三）维护企业的合法权益，保障企业安全生产，督促企业做到守法经营，引导企业安置下岗失业人员的计20分。', '（四）履行服务承诺，坚持定期到企业走访和调研，为企业创造了良好的发展环境，杜绝“索、拿、卡、要、吃”和“三乱”现象发生的计20分。', '（一）市个私经济领导小组28个成员单位与28家私营企业建立“一对一”帮扶关系（见附件2）。', '（二）部门党组将帮扶私营企业工作纳入了主要工作议事日程，主要领导负总责，确定一位分管领导具体负责帮扶工作，落实有关责任、任务，制定具体的帮扶计划和措施。', '（三）协助企业共同研究制定上规模增效益、提高产品质量和科技含量、加强经营管理、拓市场活营销和培养技术人才等方面的发展规划、工作方案和措施。', '（五）组织帮扶企业的负责人和骨干技术人员参加各种提高素质的知识培训，赴外地参与大型经贸洽谈活动，到先进、发达地区考察学习。', '（六）坚持与企业保持紧密联系，深入了解企业生产经营状况，积极征求企业的意见和建议。', '（一）年终考核时，对年纳税等综合评分列前五名的市直私营企业，由市政府授予“市直先进私营企业”称号，发给证书和奖品。', '（三）年终考核时，对没有履行好帮扶职责、服务工作不到位、对私营企业设置障碍、制造麻烦和影响企业正常生产经营的市直部门，市政府将给予通报批评并对责任人给予相应处分。', '具体考核工作由市个私经济工作领导小组办公室负责实施。考核时间为次年1月份，考核方式为：市直部门呈报“一对一”帮扶个私企业工作汇报材料；市直私营企业呈报全年生产经营效益情况材料；市个私办组织考核验收组对结对帮扶的市直部门和私营企业进行考核打分并排出名次，考评结果提交市个私经济工作领导小组审定，由市政府进行通报。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>126</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>马来西亚草药代表团到樟树考察学习药业发展</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2007-02-09</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/200702/a775ddfa8fec4ab8a92564a09bf243d7.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['日前，以马来西亚拿督江真诚博士为团长的马来西亚草药代表团来到樟树，考察学习药业发展。考察团一行在听取了樟树药业情况介绍后，深入到天齐堂药业、仁和集团、康力物流、中药材交易市场和位于吴城乡的金达吴茱萸种植基地、汇仁集团黄栀子基地和大山里基地进行考察，详细了解各企业产品、销售、市场占有率、经营良策和各基地种植的中药材品种、种植面积、每年用工人数、药材销售价格、基地管理方法和药材种植的技术含量等问题。通过看生产企业、流通企业、交易市场和种植基地，考察团认为，樟树在做大做强药业时，政府高度重视，给予优惠政策，促进药企迅猛发展，中药材种植基地规模不断扩大，专业销售网络逐步健全，已经形成了药企、药市、药地、药会齐头并进，药材种植、药品生产和医药流通蓬勃发展的产业格局，进入了飞速发展的快车道。代表团表示看到樟树药业发展取得如此优异成绩，进一步激发了他们大力发展马来西亚草药和到樟树投资兴业的兴趣，并希望将来双方进一步加强交流与合作，促进双方药业共同发展。(卢小勇）']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>126</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>海南省政协赴赣考察团到靖安县考察林改工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2007-05-22</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.yichun.gov.cn/ycsrmzf/xsqdt/200705/7121cae398ef40fdba68b88d539a18db.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['5月16日至17日，海南省政协副主席张海国带领海南省政协赴赣考察团到靖安县考察林改工作。 张海国一行与该县林改工作领导小组成员单位进行了座谈，并深入乡村实地了解该县林业产权制度改革的情况。考察中，张海国同志对该县林业产权制度改革工作给予充分肯定，他指出，靖安县林改工作在尊重历史的基础上，充分尊重群众的意愿，发挥群众的智慧，让群众真正成为改革的主力军，做到公开公平公正，提高了林改工作的效率。而且林木采伐指标按照符合采伐要求的山场优先、有造林需要的山场优先、经营管理科学的山场优先以及生活困难急需用钱的农户优先的四优先原则进行发放，较好地处理了林木采伐与森林覆盖率的矛盾，理顺了山林的所有权与处置权的关系。这些都值得海南考察团学习与借鉴。张海国一行表示，此次的靖安之行大家都受益非浅，此次的考察也将更好地促进海南省林改工作的顺利开展。（王玮 赖荣华）']</t>
         </is>
